--- a/data/sys-rev/data_extraction_main.xlsx
+++ b/data/sys-rev/data_extraction_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7550" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45539215-4AAD-4F8B-B0BB-13185BAA50DD}"/>
+  <xr:revisionPtr revIDLastSave="7552" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD29721-0D4A-4AC6-A7EE-6F6EEA6B73A5}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -5979,8 +5979,8 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6052,7 +6052,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1">
+    <row r="2" spans="1:18">
       <c r="A2" s="22">
         <v>60</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1">
+    <row r="4" spans="1:18">
       <c r="A4" s="22">
         <v>366</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1">
+    <row r="6" spans="1:18">
       <c r="A6" s="22">
         <v>1658</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:18" hidden="1">
+    <row r="7" spans="1:18">
       <c r="A7" s="22">
         <v>1883</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1">
+    <row r="8" spans="1:18">
       <c r="A8" s="22">
         <v>1951</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1">
+    <row r="9" spans="1:18">
       <c r="A9" s="22">
         <v>2016</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1">
+    <row r="10" spans="1:18">
       <c r="A10" s="22">
         <v>2017</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1">
+    <row r="13" spans="1:18">
       <c r="A13" s="22">
         <v>2140</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1">
+    <row r="15" spans="1:18">
       <c r="A15" s="22">
         <v>2214</v>
       </c>
@@ -6684,7 +6684,7 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:18" hidden="1">
+    <row r="16" spans="1:18">
       <c r="A16" s="22">
         <v>2326</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1">
+    <row r="17" spans="1:18">
       <c r="A17" s="22">
         <v>2434</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:18" hidden="1">
+    <row r="18" spans="1:18">
       <c r="A18" s="22">
         <v>2439</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="22">
         <v>3094</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="1:18" hidden="1">
+    <row r="21" spans="1:18">
       <c r="A21" s="22">
         <v>3151</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="22" spans="1:18" s="18" customFormat="1">
       <c r="A22" s="22">
         <v>3232</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="28" spans="1:18" s="18" customFormat="1">
       <c r="A28" s="22">
         <v>3609</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="33" spans="1:18" s="18" customFormat="1">
       <c r="A33" s="22">
         <v>4799</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1">
+    <row r="38" spans="1:18">
       <c r="A38" s="22">
         <v>5245</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
     </row>
-    <row r="39" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="39" spans="1:18" s="18" customFormat="1">
       <c r="A39" s="22">
         <v>5397</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="Q39" s="22"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" hidden="1">
+    <row r="40" spans="1:18">
       <c r="A40" s="22">
         <v>5965</v>
       </c>
@@ -7807,7 +7807,7 @@
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
     </row>
-    <row r="41" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="41" spans="1:18" s="18" customFormat="1">
       <c r="A41" s="22">
         <v>6297</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="43" spans="1:18" s="18" customFormat="1">
       <c r="A43" s="22">
         <v>6536</v>
       </c>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" s="19" customFormat="1" hidden="1">
+    <row r="44" spans="1:18" s="19" customFormat="1">
       <c r="A44" s="28">
         <v>6850</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="18" customFormat="1">
+    <row r="45" spans="1:18" s="18" customFormat="1" hidden="1">
       <c r="A45" s="23">
         <v>7222</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1">
+    <row r="49" spans="1:18">
       <c r="A49" s="22">
         <v>7859</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="54" spans="1:18" s="18" customFormat="1">
       <c r="A54" s="28">
         <v>8467</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1">
+    <row r="55" spans="1:18">
       <c r="A55" s="22">
         <v>8481</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
     </row>
-    <row r="60" spans="1:18" hidden="1">
+    <row r="60" spans="1:18">
       <c r="A60" s="22">
         <v>9466</v>
       </c>
@@ -8703,7 +8703,7 @@
       <c r="P60" s="22"/>
       <c r="Q60" s="23"/>
     </row>
-    <row r="61" spans="1:18" hidden="1">
+    <row r="61" spans="1:18">
       <c r="A61" s="22">
         <v>9740</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1">
+    <row r="62" spans="1:18">
       <c r="A62" s="22">
         <v>9740</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1">
+    <row r="64" spans="1:18">
       <c r="A64" s="22">
         <v>9759</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1">
+    <row r="67" spans="1:18">
       <c r="A67" s="22">
         <v>10068</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="68" spans="1:18" s="18" customFormat="1">
       <c r="A68" s="22">
         <v>10170</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="Q68" s="22"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" hidden="1">
+    <row r="69" spans="1:18">
       <c r="A69" s="22">
         <v>10181</v>
       </c>
@@ -9087,7 +9087,7 @@
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
     </row>
-    <row r="70" spans="1:18" s="19" customFormat="1" hidden="1">
+    <row r="70" spans="1:18" s="19" customFormat="1">
       <c r="A70" s="22">
         <v>10182</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1">
+    <row r="72" spans="1:18">
       <c r="A72" s="22">
         <v>10280</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="74" spans="1:18" s="18" customFormat="1">
       <c r="A74" s="22">
         <v>10288</v>
       </c>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" hidden="1">
+    <row r="75" spans="1:18">
       <c r="A75" s="28">
         <v>10312</v>
       </c>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="R75" s="19"/>
     </row>
-    <row r="76" spans="1:18" hidden="1">
+    <row r="76" spans="1:18">
       <c r="A76" s="22">
         <v>10314</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="77" spans="1:18" s="18" customFormat="1">
       <c r="A77" s="22">
         <v>10321</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="80" spans="1:18" s="18" customFormat="1">
       <c r="A80" s="22">
         <v>10327</v>
       </c>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="81" spans="1:18" s="18" customFormat="1">
       <c r="A81" s="22">
         <v>10454</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1">
+    <row r="83" spans="1:18">
       <c r="A83" s="22">
         <v>10562</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1">
+    <row r="87" spans="1:18">
       <c r="A87" s="22">
         <v>11282</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="89" spans="1:18" s="18" customFormat="1">
       <c r="A89" s="22">
         <v>12093</v>
       </c>
@@ -9967,7 +9967,7 @@
       <c r="Q89" s="22"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="90" spans="1:18" s="18" customFormat="1">
       <c r="A90" s="22">
         <v>12134</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="92" spans="1:18" s="18" customFormat="1">
       <c r="A92" s="22">
         <v>13313</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="Q92" s="22"/>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" hidden="1">
+    <row r="93" spans="1:18">
       <c r="A93" s="22">
         <v>13401</v>
       </c>
@@ -10146,7 +10146,7 @@
       <c r="P93" s="22"/>
       <c r="Q93" s="22"/>
     </row>
-    <row r="94" spans="1:18" hidden="1">
+    <row r="94" spans="1:18">
       <c r="A94" s="22">
         <v>13401</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="98" spans="1:18" s="18" customFormat="1">
       <c r="A98" s="22">
         <v>13724</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1">
+    <row r="100" spans="1:18">
       <c r="A100" s="22">
         <v>13777</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
     </row>
-    <row r="101" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="101" spans="1:18" s="18" customFormat="1">
       <c r="A101" s="22">
         <v>14202</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="19" customFormat="1" hidden="1">
+    <row r="103" spans="1:18" s="19" customFormat="1">
       <c r="A103" s="22">
         <v>14206</v>
       </c>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" s="19" customFormat="1" hidden="1">
+    <row r="104" spans="1:18" s="19" customFormat="1">
       <c r="A104" s="28">
         <v>14209</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="20" customFormat="1" hidden="1">
+    <row r="107" spans="1:18" s="20" customFormat="1">
       <c r="A107" s="22">
         <v>14295</v>
       </c>
@@ -10897,7 +10897,7 @@
       <c r="Q110" s="28"/>
       <c r="R110" s="19"/>
     </row>
-    <row r="111" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="111" spans="1:18" s="18" customFormat="1">
       <c r="A111" s="28">
         <v>14621</v>
       </c>
@@ -10946,7 +10946,7 @@
       <c r="Q111" s="28"/>
       <c r="R111" s="19"/>
     </row>
-    <row r="112" spans="1:18" hidden="1">
+    <row r="112" spans="1:18">
       <c r="A112" s="28">
         <v>14628</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="Q112" s="28"/>
       <c r="R112" s="19"/>
     </row>
-    <row r="113" spans="1:18" hidden="1">
+    <row r="113" spans="1:18">
       <c r="A113" s="22">
         <v>14632</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1">
+    <row r="117" spans="1:18">
       <c r="A117" s="22">
         <v>14658</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1">
+    <row r="119" spans="1:18">
       <c r="A119" s="22">
         <v>14664</v>
       </c>
@@ -11285,7 +11285,7 @@
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
     </row>
-    <row r="120" spans="1:18" hidden="1">
+    <row r="120" spans="1:18">
       <c r="A120" s="22">
         <v>14665</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1">
+    <row r="121" spans="1:18">
       <c r="A121" s="22">
         <v>14670</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1">
+    <row r="123" spans="1:18">
       <c r="A123" s="22">
         <v>14709</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="P123" s="22"/>
       <c r="Q123" s="22"/>
     </row>
-    <row r="124" spans="1:18" hidden="1">
+    <row r="124" spans="1:18">
       <c r="A124" s="22">
         <v>14709</v>
       </c>
@@ -11508,7 +11508,7 @@
       <c r="P124" s="22"/>
       <c r="Q124" s="22"/>
     </row>
-    <row r="125" spans="1:18" hidden="1">
+    <row r="125" spans="1:18">
       <c r="A125" s="22">
         <v>14714</v>
       </c>
@@ -11556,7 +11556,7 @@
       <c r="P125" s="22"/>
       <c r="Q125" s="22"/>
     </row>
-    <row r="126" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="126" spans="1:18" s="18" customFormat="1">
       <c r="A126" s="22">
         <v>14715</v>
       </c>
@@ -11600,7 +11600,7 @@
       <c r="Q126" s="22"/>
       <c r="R126"/>
     </row>
-    <row r="127" spans="1:18" hidden="1">
+    <row r="127" spans="1:18">
       <c r="A127" s="22">
         <v>14720</v>
       </c>
@@ -11646,7 +11646,7 @@
       <c r="P127" s="22"/>
       <c r="Q127" s="22"/>
     </row>
-    <row r="128" spans="1:18" hidden="1">
+    <row r="128" spans="1:18">
       <c r="A128" s="22">
         <v>14754</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="129" spans="1:18" s="18" customFormat="1">
       <c r="A129" s="22">
         <v>14755</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="Q129" s="22"/>
       <c r="R129"/>
     </row>
-    <row r="130" spans="1:18" hidden="1">
+    <row r="130" spans="1:18">
       <c r="A130" s="22">
         <v>14761</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1">
+    <row r="131" spans="1:18">
       <c r="A131" s="22">
         <v>14763</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1">
+    <row r="133" spans="1:18">
       <c r="A133" s="22">
         <v>15548</v>
       </c>
@@ -11933,7 +11933,7 @@
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
     </row>
-    <row r="134" spans="1:18" hidden="1">
+    <row r="134" spans="1:18">
       <c r="A134" s="22">
         <v>15647</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1">
+    <row r="136" spans="1:18">
       <c r="A136" s="22">
         <v>15652</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="P136" s="22"/>
       <c r="Q136" s="22"/>
     </row>
-    <row r="137" spans="1:18" hidden="1">
+    <row r="137" spans="1:18">
       <c r="A137" s="22">
         <v>15791</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="139" spans="1:18" s="19" customFormat="1" hidden="1">
+    <row r="139" spans="1:18" s="19" customFormat="1">
       <c r="A139" s="22">
         <v>15837</v>
       </c>
@@ -12205,7 +12205,7 @@
       <c r="Q139" s="22"/>
       <c r="R139"/>
     </row>
-    <row r="140" spans="1:18" hidden="1">
+    <row r="140" spans="1:18">
       <c r="A140" s="22">
         <v>15849</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1">
+    <row r="143" spans="1:18">
       <c r="A143" s="22">
         <v>90001</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1">
+    <row r="144" spans="1:18">
       <c r="A144" s="22">
         <v>90002</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="A145" s="22">
         <v>90003</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" s="22">
         <v>90004</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" s="22">
         <v>90005</v>
       </c>
@@ -12534,14 +12534,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R147" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Ancelin"/>
-      </filters>
+    <filterColumn colId="15">
+      <filters blank="1"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R147">
-      <sortCondition ref="A1:A147"/>
-    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="Q70" r:id="rId1" xr:uid="{DFF7838C-47E7-4D73-A6A7-980C4DA74190}"/>
@@ -43932,7 +43927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB0A56-3DC8-4E26-A609-4CFF3B927907}">
   <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36:J37"/>
     </sheetView>
   </sheetViews>

--- a/data/sys-rev/data_extraction_main.xlsx
+++ b/data/sys-rev/data_extraction_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7552" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD29721-0D4A-4AC6-A7EE-6F6EEA6B73A5}"/>
+  <xr:revisionPtr revIDLastSave="7657" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{723FBB5B-3FAD-4870-BEFA-1721B65A5524}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Outcomes!$A$1:$AS$547</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Risk of bias'!$A$1:$M$172</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Studies!$A$1:$R$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Studies!$A$1:$S$1</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Endnote Data'!$A$1:$D$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9224" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9366" uniqueCount="1840">
   <si>
     <t>Ancelin</t>
   </si>
@@ -5232,9 +5232,6 @@
     <t>GLGC/IGAP</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>GLGC/ADGC</t>
   </si>
   <si>
@@ -5338,6 +5335,258 @@
   </si>
   <si>
     <t>Modet</t>
+  </si>
+  <si>
+    <t>Larsson</t>
+  </si>
+  <si>
+    <t>Modifiable pathways in Alzheimer’s disease: Mendelian randomisation analysis</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>ancelin2012</t>
+  </si>
+  <si>
+    <t>ancelin2013</t>
+  </si>
+  <si>
+    <t>arvanitakis2008</t>
+  </si>
+  <si>
+    <t>batty2014</t>
+  </si>
+  <si>
+    <t>bettermann2012</t>
+  </si>
+  <si>
+    <t>beydoun2011</t>
+  </si>
+  <si>
+    <t>bruce2017</t>
+  </si>
+  <si>
+    <t>burgess2017</t>
+  </si>
+  <si>
+    <t>chen2014</t>
+  </si>
+  <si>
+    <t>chiang2007</t>
+  </si>
+  <si>
+    <t>chitnis2015</t>
+  </si>
+  <si>
+    <t>chuang2015</t>
+  </si>
+  <si>
+    <t>cramer2008</t>
+  </si>
+  <si>
+    <t>dodge2011</t>
+  </si>
+  <si>
+    <t>forti2010</t>
+  </si>
+  <si>
+    <t>gnjidic2016</t>
+  </si>
+  <si>
+    <t>gottesman2017</t>
+  </si>
+  <si>
+    <t>gustafson2012</t>
+  </si>
+  <si>
+    <t>haag2009</t>
+  </si>
+  <si>
+    <t>hayden2006</t>
+  </si>
+  <si>
+    <t>hendrie2015</t>
+  </si>
+  <si>
+    <t>jick2000</t>
+  </si>
+  <si>
+    <t>kimm2011</t>
+  </si>
+  <si>
+    <t>kivipelto2001</t>
+  </si>
+  <si>
+    <t>kuo2015</t>
+  </si>
+  <si>
+    <t>andrews2021</t>
+  </si>
+  <si>
+    <t>benn2017b</t>
+  </si>
+  <si>
+    <t>chao2015a</t>
+  </si>
+  <si>
+    <t>chou2014a</t>
+  </si>
+  <si>
+    <t>heartprotectionstudycollaborativegroup2002</t>
+  </si>
+  <si>
+    <t>hippisley-cox2010a</t>
+  </si>
+  <si>
+    <t>kivipelto2005a</t>
+  </si>
+  <si>
+    <t>larsson2017a</t>
+  </si>
+  <si>
+    <t>li2004</t>
+  </si>
+  <si>
+    <t>li2005a</t>
+  </si>
+  <si>
+    <t>li2010</t>
+  </si>
+  <si>
+    <t>liao2013</t>
+  </si>
+  <si>
+    <t>liu2019a</t>
+  </si>
+  <si>
+    <t>mainousa.g.2005</t>
+  </si>
+  <si>
+    <t>mielke2005a</t>
+  </si>
+  <si>
+    <t>mielke2010a</t>
+  </si>
+  <si>
+    <t>mielke2011</t>
+  </si>
+  <si>
+    <t>mukherjee2013</t>
+  </si>
+  <si>
+    <t>muller2007</t>
+  </si>
+  <si>
+    <t>noale2013</t>
+  </si>
+  <si>
+    <t>notkola1998</t>
+  </si>
+  <si>
+    <t>ostergaard2017</t>
+  </si>
+  <si>
+    <t>pan2018</t>
+  </si>
+  <si>
+    <t>parikh2011</t>
+  </si>
+  <si>
+    <t>peters2009</t>
+  </si>
+  <si>
+    <t>raffaitin2009</t>
+  </si>
+  <si>
+    <t>rantanen2017</t>
+  </si>
+  <si>
+    <t>rea2005a</t>
+  </si>
+  <si>
+    <t>redelmeier2019</t>
+  </si>
+  <si>
+    <t>reitz2004a</t>
+  </si>
+  <si>
+    <t>reitz2010</t>
+  </si>
+  <si>
+    <t>ridker2008</t>
+  </si>
+  <si>
+    <t>ronnemaa2011</t>
+  </si>
+  <si>
+    <t>schilling2017a</t>
+  </si>
+  <si>
+    <t>smeeth2009a</t>
+  </si>
+  <si>
+    <t>so2017</t>
+  </si>
+  <si>
+    <t>solomon2007</t>
+  </si>
+  <si>
+    <t>solomon2009a</t>
+  </si>
+  <si>
+    <t>solomon2010</t>
+  </si>
+  <si>
+    <t>sparks2008</t>
+  </si>
+  <si>
+    <t>strand2013</t>
+  </si>
+  <si>
+    <t>su2017</t>
+  </si>
+  <si>
+    <t>svensson2019</t>
+  </si>
+  <si>
+    <t>szwast2007</t>
+  </si>
+  <si>
+    <t>tan2003a</t>
+  </si>
+  <si>
+    <t>tynkkynen2016</t>
+  </si>
+  <si>
+    <t>tynkkynen2018</t>
+  </si>
+  <si>
+    <t>wang2012</t>
+  </si>
+  <si>
+    <t>whitmer2005a</t>
+  </si>
+  <si>
+    <t>yamada2009b</t>
+  </si>
+  <si>
+    <t>yang2015</t>
+  </si>
+  <si>
+    <t>yoshitake1995</t>
+  </si>
+  <si>
+    <t>zamrini2004</t>
+  </si>
+  <si>
+    <t>zandi2005</t>
+  </si>
+  <si>
+    <t>zimetbaum1992</t>
+  </si>
+  <si>
+    <t>zhu2018</t>
   </si>
 </sst>
 </file>
@@ -5976,27 +6225,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:R147"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="7" width="20.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="137.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="137.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
@@ -6049,10 +6298,13 @@
         <v>432</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>1746</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="22">
         <v>60</v>
       </c>
@@ -6091,7 +6343,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>914</v>
@@ -6099,8 +6351,11 @@
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S2" s="18" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1">
       <c r="A3" s="23">
         <v>126</v>
       </c>
@@ -6136,10 +6391,10 @@
         <v>488</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="22">
         <v>366</v>
       </c>
@@ -6186,8 +6441,11 @@
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S4" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="18" customFormat="1">
       <c r="A5" s="23">
         <v>1118</v>
       </c>
@@ -6235,10 +6493,10 @@
         <v>457</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="22">
         <v>1658</v>
       </c>
@@ -6285,8 +6543,11 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="22">
         <v>1883</v>
       </c>
@@ -6331,8 +6592,11 @@
       <c r="Q7" s="22" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="22">
         <v>1951</v>
       </c>
@@ -6375,8 +6639,11 @@
       <c r="Q8" s="22" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="22">
         <v>2016</v>
       </c>
@@ -6413,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
@@ -6421,8 +6688,11 @@
       <c r="Q9" s="22" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="22">
         <v>2017</v>
       </c>
@@ -6461,14 +6731,17 @@
         <v>61.3</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S10" s="19" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="18" customFormat="1">
       <c r="A11" s="23">
         <v>2066</v>
       </c>
@@ -6502,10 +6775,10 @@
         <v>478</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="18" customFormat="1">
       <c r="A12" s="23">
         <v>2132</v>
       </c>
@@ -6539,10 +6812,11 @@
         <v>479</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1745</v>
+      </c>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="22">
         <v>2140</v>
       </c>
@@ -6587,8 +6861,11 @@
       </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S13" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="18" customFormat="1">
       <c r="A14" s="23">
         <v>2149</v>
       </c>
@@ -6640,8 +6917,9 @@
       <c r="R14" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="22">
         <v>2214</v>
       </c>
@@ -6683,8 +6961,11 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="20" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="22">
         <v>2326</v>
       </c>
@@ -6731,8 +7012,11 @@
       <c r="Q16" s="22" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="22">
         <v>2434</v>
       </c>
@@ -6777,8 +7061,11 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="18" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="22">
         <v>2439</v>
       </c>
@@ -6819,8 +7106,11 @@
       <c r="Q18" s="22" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S18" s="18" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="18" customFormat="1">
       <c r="A19" s="23">
         <v>2838</v>
       </c>
@@ -6858,10 +7148,11 @@
         <v>504</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1745</v>
+      </c>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="22">
         <v>3094</v>
       </c>
@@ -6906,8 +7197,11 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="18" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="22">
         <v>3151</v>
       </c>
@@ -6946,14 +7240,17 @@
         <v>0</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
-    </row>
-    <row r="22" spans="1:18" s="18" customFormat="1">
+      <c r="S21" s="18" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="18" customFormat="1">
       <c r="A22" s="22">
         <v>3232</v>
       </c>
@@ -6995,8 +7292,11 @@
         <v>509</v>
       </c>
       <c r="R22"/>
-    </row>
-    <row r="23" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S22" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="18" customFormat="1">
       <c r="A23" s="23">
         <v>3413</v>
       </c>
@@ -7030,10 +7330,10 @@
         <v>510</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="23">
         <v>3587</v>
       </c>
@@ -7070,7 +7370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="25" spans="1:19" s="18" customFormat="1">
       <c r="A25" s="23">
         <v>3588</v>
       </c>
@@ -7120,10 +7420,10 @@
         <v>972</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="18" customFormat="1">
       <c r="A26" s="23">
         <v>3593</v>
       </c>
@@ -7173,10 +7473,11 @@
         <v>767</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:19" s="18" customFormat="1">
       <c r="A27" s="23">
         <v>3602</v>
       </c>
@@ -7224,10 +7525,11 @@
         <v>973</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="18" customFormat="1">
+        <v>1745</v>
+      </c>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:19" s="18" customFormat="1">
       <c r="A28" s="22">
         <v>3609</v>
       </c>
@@ -7272,8 +7574,11 @@
         <v>979</v>
       </c>
       <c r="R28"/>
-    </row>
-    <row r="29" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S28" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="18" customFormat="1">
       <c r="A29" s="23">
         <v>3653</v>
       </c>
@@ -7307,10 +7612,11 @@
         <v>520</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="23">
         <v>4301</v>
       </c>
@@ -7352,10 +7658,11 @@
         <v>768</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S30" s="19"/>
+    </row>
+    <row r="31" spans="1:19" s="18" customFormat="1">
       <c r="A31" s="23">
         <v>4460</v>
       </c>
@@ -7392,7 +7699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1">
+    <row r="32" spans="1:19">
       <c r="A32" s="23">
         <v>4463</v>
       </c>
@@ -7428,8 +7735,9 @@
       <c r="R32" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="18" customFormat="1">
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="1:19" s="18" customFormat="1">
       <c r="A33" s="22">
         <v>4799</v>
       </c>
@@ -7476,8 +7784,11 @@
         <v>717</v>
       </c>
       <c r="R33"/>
-    </row>
-    <row r="34" spans="1:18" s="19" customFormat="1" hidden="1">
+      <c r="S33" s="18" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="19" customFormat="1">
       <c r="A34" s="23">
         <v>4974</v>
       </c>
@@ -7515,10 +7826,11 @@
         <v>523</v>
       </c>
       <c r="R34" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:19" s="18" customFormat="1">
       <c r="A35" s="23">
         <v>4984</v>
       </c>
@@ -7568,10 +7880,11 @@
         <v>982</v>
       </c>
       <c r="R35" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="23">
         <v>5007</v>
       </c>
@@ -7609,10 +7922,11 @@
         <v>526</v>
       </c>
       <c r="R36" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="1:19" s="18" customFormat="1">
       <c r="A37" s="23">
         <v>5046</v>
       </c>
@@ -7664,10 +7978,10 @@
         <v>983</v>
       </c>
       <c r="R37" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="22">
         <v>5245</v>
       </c>
@@ -7711,8 +8025,11 @@
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
-    </row>
-    <row r="39" spans="1:18" s="18" customFormat="1">
+      <c r="S38" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="18" customFormat="1">
       <c r="A39" s="22">
         <v>5397</v>
       </c>
@@ -7758,8 +8075,11 @@
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
       <c r="R39"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="22">
         <v>5965</v>
       </c>
@@ -7798,7 +8118,7 @@
         <v>535</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22" t="s">
@@ -7806,8 +8126,11 @@
       </c>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
-    </row>
-    <row r="41" spans="1:18" s="18" customFormat="1">
+      <c r="S40" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="18" customFormat="1">
       <c r="A41" s="22">
         <v>6297</v>
       </c>
@@ -7854,8 +8177,11 @@
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
       <c r="R41"/>
-    </row>
-    <row r="42" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S41" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="18" customFormat="1">
       <c r="A42" s="23">
         <v>6298</v>
       </c>
@@ -7892,7 +8218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="18" customFormat="1">
+    <row r="43" spans="1:19" s="18" customFormat="1">
       <c r="A43" s="22">
         <v>6536</v>
       </c>
@@ -7940,8 +8266,11 @@
         <v>542</v>
       </c>
       <c r="R43"/>
-    </row>
-    <row r="44" spans="1:18" s="19" customFormat="1">
+      <c r="S43" s="18" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="19" customFormat="1">
       <c r="A44" s="28">
         <v>6850</v>
       </c>
@@ -7968,7 +8297,7 @@
         <v>534</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J44" s="34" t="s">
         <v>450</v>
@@ -7989,10 +8318,13 @@
         <v>545</v>
       </c>
       <c r="R44" s="19" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S44" s="18" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="18" customFormat="1">
       <c r="A45" s="23">
         <v>7222</v>
       </c>
@@ -8026,10 +8358,10 @@
         <v>546</v>
       </c>
       <c r="R45" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="23">
         <v>7223</v>
       </c>
@@ -8079,10 +8411,11 @@
         <v>545</v>
       </c>
       <c r="R46" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="1:19" s="18" customFormat="1">
       <c r="A47" s="22">
         <v>7354</v>
       </c>
@@ -8134,10 +8467,10 @@
         <v>991</v>
       </c>
       <c r="R47" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="18" customFormat="1">
       <c r="A48" s="23">
         <v>7851</v>
       </c>
@@ -8173,8 +8506,9 @@
       <c r="R48" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="19"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="22">
         <v>7859</v>
       </c>
@@ -8219,8 +8553,11 @@
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
-    </row>
-    <row r="50" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S49" s="18" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="18" customFormat="1">
       <c r="A50" s="23">
         <v>8074</v>
       </c>
@@ -8251,13 +8588,13 @@
         <v>49</v>
       </c>
       <c r="Q50" s="23" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="R50" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="18" customFormat="1">
       <c r="A51" s="23">
         <v>8255</v>
       </c>
@@ -8303,10 +8640,10 @@
         <v>555</v>
       </c>
       <c r="R51" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="18" customFormat="1">
       <c r="A52" s="23">
         <v>8290</v>
       </c>
@@ -8346,8 +8683,9 @@
       <c r="R52" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S52"/>
+    </row>
+    <row r="53" spans="1:19" s="18" customFormat="1">
       <c r="A53" s="23">
         <v>8327</v>
       </c>
@@ -8385,10 +8723,11 @@
         <v>556</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="18" customFormat="1">
+        <v>1745</v>
+      </c>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="1:19" s="18" customFormat="1">
       <c r="A54" s="28">
         <v>8467</v>
       </c>
@@ -8415,7 +8754,7 @@
         <v>470</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J54" s="28">
         <v>5.9</v>
@@ -8436,10 +8775,13 @@
         <v>579</v>
       </c>
       <c r="R54" s="19" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>1745</v>
+      </c>
+      <c r="S54" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="22">
         <v>8481</v>
       </c>
@@ -8483,8 +8825,11 @@
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
-    </row>
-    <row r="56" spans="1:18" hidden="1">
+      <c r="S55" s="18" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="23">
         <v>8870</v>
       </c>
@@ -8518,10 +8863,11 @@
         <v>561</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S56" s="18"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="23">
         <v>8878</v>
       </c>
@@ -8557,8 +8903,9 @@
       <c r="R57" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" hidden="1">
+      <c r="S57" s="18"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="22">
         <v>9179</v>
       </c>
@@ -8608,10 +8955,11 @@
         <v>1133</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>1745</v>
+      </c>
+      <c r="S58" s="18"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="22">
         <v>9429</v>
       </c>
@@ -8654,8 +9002,11 @@
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="22">
         <v>9466</v>
       </c>
@@ -8702,8 +9053,11 @@
       </c>
       <c r="P60" s="22"/>
       <c r="Q60" s="23"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="22">
         <v>9740</v>
       </c>
@@ -8742,8 +9096,11 @@
       <c r="Q61" s="22" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="22">
         <v>9740</v>
       </c>
@@ -8778,14 +9135,17 @@
         <v>55</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
       <c r="Q62" s="22"/>
-    </row>
-    <row r="63" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S62" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="18" customFormat="1">
       <c r="A63" s="23">
         <v>9746</v>
       </c>
@@ -8823,10 +9183,10 @@
         <v>891</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="22">
         <v>9759</v>
       </c>
@@ -8871,8 +9231,11 @@
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
-    </row>
-    <row r="65" spans="1:18" hidden="1">
+      <c r="S64" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="22">
         <v>9770</v>
       </c>
@@ -8922,10 +9285,10 @@
         <v>1016</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="18" customFormat="1">
       <c r="A66" s="23">
         <v>9944</v>
       </c>
@@ -8959,10 +9322,11 @@
         <v>591</v>
       </c>
       <c r="R66" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>1745</v>
+      </c>
+      <c r="S66"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="22">
         <v>10068</v>
       </c>
@@ -8996,8 +9360,11 @@
       <c r="O67" s="22" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" s="18" customFormat="1">
+      <c r="S67" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="18" customFormat="1">
       <c r="A68" s="22">
         <v>10170</v>
       </c>
@@ -9040,8 +9407,11 @@
       <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
       <c r="R68"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="22">
         <v>10181</v>
       </c>
@@ -9086,8 +9456,11 @@
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
-    </row>
-    <row r="70" spans="1:18" s="19" customFormat="1">
+      <c r="S69" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="19" customFormat="1">
       <c r="A70" s="22">
         <v>10182</v>
       </c>
@@ -9134,8 +9507,11 @@
         <v>716</v>
       </c>
       <c r="R70"/>
-    </row>
-    <row r="71" spans="1:18" hidden="1">
+      <c r="S70" s="18" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="23">
         <v>10184</v>
       </c>
@@ -9177,10 +9553,10 @@
         <v>594</v>
       </c>
       <c r="R71" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="22">
         <v>10280</v>
       </c>
@@ -9229,8 +9605,11 @@
       <c r="Q72" s="22" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S72" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="18" customFormat="1">
       <c r="A73" s="23">
         <v>10287</v>
       </c>
@@ -9268,10 +9647,11 @@
         <v>600</v>
       </c>
       <c r="R73" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="18" customFormat="1">
+        <v>1745</v>
+      </c>
+      <c r="S73"/>
+    </row>
+    <row r="74" spans="1:19" s="18" customFormat="1">
       <c r="A74" s="22">
         <v>10288</v>
       </c>
@@ -9321,8 +9701,11 @@
         <v>604</v>
       </c>
       <c r="R74"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="28">
         <v>10312</v>
       </c>
@@ -9372,8 +9755,11 @@
         <v>597</v>
       </c>
       <c r="R75" s="19"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="22">
         <v>10314</v>
       </c>
@@ -9422,8 +9808,11 @@
       <c r="Q76" s="28" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" s="18" customFormat="1">
+      <c r="S76" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="18" customFormat="1">
       <c r="A77" s="22">
         <v>10321</v>
       </c>
@@ -9469,8 +9858,11 @@
       <c r="P77" s="22"/>
       <c r="Q77" s="22"/>
       <c r="R77"/>
-    </row>
-    <row r="78" spans="1:18" hidden="1">
+      <c r="S77" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="23">
         <v>10324</v>
       </c>
@@ -9508,10 +9900,10 @@
         <v>615</v>
       </c>
       <c r="R78" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="18" customFormat="1">
       <c r="A79" s="23">
         <v>10325</v>
       </c>
@@ -9549,10 +9941,11 @@
         <v>600</v>
       </c>
       <c r="R79" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="18" customFormat="1">
+        <v>1745</v>
+      </c>
+      <c r="S79"/>
+    </row>
+    <row r="80" spans="1:19" s="18" customFormat="1">
       <c r="A80" s="22">
         <v>10327</v>
       </c>
@@ -9600,8 +9993,11 @@
         <v>597</v>
       </c>
       <c r="R80"/>
-    </row>
-    <row r="81" spans="1:18" s="18" customFormat="1">
+      <c r="S80" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="18" customFormat="1">
       <c r="A81" s="22">
         <v>10454</v>
       </c>
@@ -9640,15 +10036,18 @@
         <v>55</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
       <c r="Q81" s="22"/>
       <c r="R81"/>
-    </row>
-    <row r="82" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S81" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="18" customFormat="1">
       <c r="A82" s="23">
         <v>10460</v>
       </c>
@@ -9682,10 +10081,10 @@
         <v>619</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="22">
         <v>10562</v>
       </c>
@@ -9730,8 +10129,11 @@
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
       <c r="Q83" s="22"/>
-    </row>
-    <row r="84" spans="1:18" hidden="1">
+      <c r="S83" s="18" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="23">
         <v>10563</v>
       </c>
@@ -9768,7 +10170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="85" spans="1:19" s="18" customFormat="1">
       <c r="A85" s="23">
         <v>10564</v>
       </c>
@@ -9800,10 +10202,10 @@
       </c>
       <c r="Q85" s="23"/>
       <c r="R85" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="23">
         <v>10565</v>
       </c>
@@ -9835,10 +10237,10 @@
       </c>
       <c r="Q86" s="23"/>
       <c r="R86" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="22">
         <v>11282</v>
       </c>
@@ -9874,7 +10276,7 @@
         <v>62</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
@@ -9882,8 +10284,11 @@
       <c r="Q87" s="27" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S87" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" s="18" customFormat="1">
       <c r="A88" s="23">
         <v>12081</v>
       </c>
@@ -9917,10 +10322,10 @@
         <v>600</v>
       </c>
       <c r="R88" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="18" customFormat="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="18" customFormat="1">
       <c r="A89" s="22">
         <v>12093</v>
       </c>
@@ -9959,15 +10364,18 @@
         <v>64.5</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
       <c r="Q89" s="22"/>
       <c r="R89"/>
-    </row>
-    <row r="90" spans="1:18" s="18" customFormat="1">
+      <c r="S89" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" s="18" customFormat="1">
       <c r="A90" s="22">
         <v>12134</v>
       </c>
@@ -10013,8 +10421,11 @@
       <c r="P90" s="22"/>
       <c r="Q90" s="22"/>
       <c r="R90"/>
-    </row>
-    <row r="91" spans="1:18" hidden="1">
+      <c r="S90" s="18" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="23">
         <v>12412</v>
       </c>
@@ -10048,10 +10459,11 @@
         <v>624</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" s="18" customFormat="1">
+        <v>1745</v>
+      </c>
+      <c r="S91" s="18"/>
+    </row>
+    <row r="92" spans="1:19" s="18" customFormat="1">
       <c r="A92" s="22">
         <v>13313</v>
       </c>
@@ -10099,8 +10511,11 @@
       <c r="P92" s="22"/>
       <c r="Q92" s="22"/>
       <c r="R92"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="22">
         <v>13401</v>
       </c>
@@ -10139,14 +10554,17 @@
         <v>68.3</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
       <c r="Q93" s="22"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="22">
         <v>13401</v>
       </c>
@@ -10185,14 +10603,17 @@
         <v>68.3</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
       <c r="P94" s="22"/>
       <c r="Q94" s="22"/>
-    </row>
-    <row r="95" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S94" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" s="18" customFormat="1">
       <c r="A95" s="23">
         <v>13402</v>
       </c>
@@ -10226,10 +10647,10 @@
         <v>630</v>
       </c>
       <c r="R95" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="23">
         <v>13682</v>
       </c>
@@ -10263,10 +10684,10 @@
         <v>631</v>
       </c>
       <c r="R96" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" s="19" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" s="19" customFormat="1">
       <c r="A97" s="23">
         <v>13716</v>
       </c>
@@ -10300,10 +10721,11 @@
         <v>631</v>
       </c>
       <c r="R97" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" s="18" customFormat="1">
+        <v>1745</v>
+      </c>
+      <c r="S97"/>
+    </row>
+    <row r="98" spans="1:19" s="18" customFormat="1">
       <c r="A98" s="22">
         <v>13724</v>
       </c>
@@ -10342,15 +10764,18 @@
         <v>2</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
       <c r="Q98" s="22"/>
       <c r="R98"/>
-    </row>
-    <row r="99" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S98" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" s="18" customFormat="1">
       <c r="A99" s="23">
         <v>13739</v>
       </c>
@@ -10384,10 +10809,11 @@
         <v>600</v>
       </c>
       <c r="R99" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+        <v>1745</v>
+      </c>
+      <c r="S99"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="22">
         <v>13777</v>
       </c>
@@ -10426,14 +10852,17 @@
         <v>64.400000000000006</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="N100" s="22"/>
       <c r="O100" s="22"/>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
-    </row>
-    <row r="101" spans="1:18" s="18" customFormat="1">
+      <c r="S100" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" s="18" customFormat="1">
       <c r="A101" s="22">
         <v>14202</v>
       </c>
@@ -10478,8 +10907,11 @@
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
       <c r="R101"/>
-    </row>
-    <row r="102" spans="1:18" s="19" customFormat="1" hidden="1">
+      <c r="S101" s="18" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" s="19" customFormat="1">
       <c r="A102" s="23">
         <v>14205</v>
       </c>
@@ -10517,10 +10949,10 @@
         <v>635</v>
       </c>
       <c r="R102" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" s="19" customFormat="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" s="19" customFormat="1">
       <c r="A103" s="22">
         <v>14206</v>
       </c>
@@ -10568,8 +11000,11 @@
         <v>637</v>
       </c>
       <c r="R103"/>
-    </row>
-    <row r="104" spans="1:18" s="19" customFormat="1">
+      <c r="S103" s="19" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" s="19" customFormat="1">
       <c r="A104" s="28">
         <v>14209</v>
       </c>
@@ -10614,8 +11049,11 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
       <c r="Q104" s="28"/>
-    </row>
-    <row r="105" spans="1:18" s="19" customFormat="1" hidden="1">
+      <c r="S104" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="19" customFormat="1">
       <c r="A105" s="23">
         <v>14218</v>
       </c>
@@ -10659,10 +11097,11 @@
         <v>642</v>
       </c>
       <c r="R105" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S105"/>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="23">
         <v>14271</v>
       </c>
@@ -10706,10 +11145,10 @@
         <v>644</v>
       </c>
       <c r="R106" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" s="20" customFormat="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" s="20" customFormat="1">
       <c r="A107" s="22">
         <v>14295</v>
       </c>
@@ -10748,15 +11187,18 @@
         <v>0</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="N107" s="22"/>
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="22"/>
       <c r="R107"/>
-    </row>
-    <row r="108" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S107" s="18" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" s="18" customFormat="1">
       <c r="A108" s="23">
         <v>14296</v>
       </c>
@@ -10793,7 +11235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="18" customFormat="1" hidden="1">
+    <row r="109" spans="1:19" s="18" customFormat="1">
       <c r="A109" s="28">
         <v>14333</v>
       </c>
@@ -10845,10 +11287,10 @@
         <v>802</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="28">
         <v>14346</v>
       </c>
@@ -10896,8 +11338,11 @@
       <c r="P110" s="28"/>
       <c r="Q110" s="28"/>
       <c r="R110" s="19"/>
-    </row>
-    <row r="111" spans="1:18" s="18" customFormat="1">
+      <c r="S110" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" s="18" customFormat="1">
       <c r="A111" s="28">
         <v>14621</v>
       </c>
@@ -10945,8 +11390,11 @@
       <c r="P111" s="28"/>
       <c r="Q111" s="28"/>
       <c r="R111" s="19"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="28">
         <v>14628</v>
       </c>
@@ -10992,8 +11440,11 @@
       <c r="P112" s="28"/>
       <c r="Q112" s="28"/>
       <c r="R112" s="19"/>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="22">
         <v>14632</v>
       </c>
@@ -11032,14 +11483,17 @@
         <v>59.8</v>
       </c>
       <c r="M113" s="28" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="22"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
-    </row>
-    <row r="114" spans="1:18" hidden="1">
+      <c r="S113" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="29">
         <v>14641</v>
       </c>
@@ -11073,10 +11527,11 @@
         <v>655</v>
       </c>
       <c r="R114" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" s="18" customFormat="1" hidden="1">
+        <v>1745</v>
+      </c>
+      <c r="S114" s="18"/>
+    </row>
+    <row r="115" spans="1:19" s="18" customFormat="1">
       <c r="A115" s="23">
         <v>14642</v>
       </c>
@@ -11112,8 +11567,9 @@
       <c r="R115" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" hidden="1">
+      <c r="S115"/>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="23">
         <v>14657</v>
       </c>
@@ -11150,7 +11606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:19">
       <c r="A117" s="22">
         <v>14658</v>
       </c>
@@ -11195,8 +11651,11 @@
       <c r="O117" s="22"/>
       <c r="P117" s="22"/>
       <c r="Q117" s="22"/>
-    </row>
-    <row r="118" spans="1:18" hidden="1">
+      <c r="S117" s="18" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="23">
         <v>14663</v>
       </c>
@@ -11234,10 +11693,10 @@
         <v>658</v>
       </c>
       <c r="R118" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="22">
         <v>14664</v>
       </c>
@@ -11284,8 +11743,11 @@
       </c>
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="22">
         <v>14665</v>
       </c>
@@ -11332,8 +11794,11 @@
       <c r="Q120" s="28" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="19" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="22">
         <v>14670</v>
       </c>
@@ -11378,8 +11843,11 @@
       <c r="O121" s="22"/>
       <c r="P121" s="22"/>
       <c r="Q121" s="22"/>
-    </row>
-    <row r="122" spans="1:18" hidden="1">
+      <c r="S121" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="23">
         <v>14700</v>
       </c>
@@ -11415,8 +11883,9 @@
       <c r="R122" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="20"/>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="22">
         <v>14709</v>
       </c>
@@ -11455,14 +11924,17 @@
         <v>38.5</v>
       </c>
       <c r="M123" s="22" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="N123" s="22"/>
       <c r="O123" s="22"/>
       <c r="P123" s="22"/>
       <c r="Q123" s="22"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="22">
         <v>14709</v>
       </c>
@@ -11501,14 +11973,17 @@
         <v>38.5</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="N124" s="22"/>
       <c r="O124" s="22"/>
       <c r="P124" s="22"/>
       <c r="Q124" s="22"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="22">
         <v>14714</v>
       </c>
@@ -11555,8 +12030,11 @@
       </c>
       <c r="P125" s="22"/>
       <c r="Q125" s="22"/>
-    </row>
-    <row r="126" spans="1:18" s="18" customFormat="1">
+      <c r="S125" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" s="18" customFormat="1">
       <c r="A126" s="22">
         <v>14715</v>
       </c>
@@ -11592,15 +12070,18 @@
         <v>50.3</v>
       </c>
       <c r="M126" s="22" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="N126" s="22"/>
       <c r="O126" s="22"/>
       <c r="P126" s="22"/>
       <c r="Q126" s="22"/>
       <c r="R126"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="22">
         <v>14720</v>
       </c>
@@ -11645,8 +12126,11 @@
       <c r="O127" s="22"/>
       <c r="P127" s="22"/>
       <c r="Q127" s="22"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="19" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="22">
         <v>14754</v>
       </c>
@@ -11693,8 +12177,11 @@
       <c r="Q128" s="22" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" s="18" customFormat="1">
+      <c r="S128" s="18" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" s="18" customFormat="1">
       <c r="A129" s="22">
         <v>14755</v>
       </c>
@@ -11742,8 +12229,11 @@
       <c r="P129" s="22"/>
       <c r="Q129" s="22"/>
       <c r="R129"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="22">
         <v>14761</v>
       </c>
@@ -11782,7 +12272,7 @@
         <v>68.7</v>
       </c>
       <c r="M130" s="22" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="N130" s="22"/>
       <c r="O130" s="22"/>
@@ -11790,8 +12280,11 @@
       <c r="Q130" s="22" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="22">
         <v>14763</v>
       </c>
@@ -11830,14 +12323,17 @@
         <v>46.2</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="N131" s="22"/>
       <c r="O131" s="22"/>
       <c r="P131" s="22"/>
       <c r="Q131" s="22"/>
-    </row>
-    <row r="132" spans="1:18" s="18" customFormat="1" hidden="1">
+      <c r="S131" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" s="18" customFormat="1">
       <c r="A132" s="22">
         <v>15476</v>
       </c>
@@ -11882,10 +12378,11 @@
         <v>1142</v>
       </c>
       <c r="R132" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18">
+        <v>1745</v>
+      </c>
+      <c r="S132"/>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="22">
         <v>15548</v>
       </c>
@@ -11932,8 +12429,11 @@
       </c>
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="22">
         <v>15647</v>
       </c>
@@ -11980,8 +12480,11 @@
       </c>
       <c r="P134" s="22"/>
       <c r="Q134" s="22"/>
-    </row>
-    <row r="135" spans="1:18" hidden="1">
+      <c r="S134" s="18" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="23">
         <v>15651</v>
       </c>
@@ -12034,7 +12537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:19">
       <c r="A136" s="22">
         <v>15652</v>
       </c>
@@ -12073,14 +12576,17 @@
         <v>53.04</v>
       </c>
       <c r="M136" s="22" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="N136" s="22"/>
       <c r="O136" s="22"/>
       <c r="P136" s="22"/>
       <c r="Q136" s="22"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="22">
         <v>15791</v>
       </c>
@@ -12123,8 +12629,11 @@
       </c>
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
-    </row>
-    <row r="138" spans="1:18" hidden="1">
+      <c r="S137" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="23">
         <v>15806</v>
       </c>
@@ -12158,10 +12667,10 @@
         <v>600</v>
       </c>
       <c r="R138" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" s="19" customFormat="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" s="19" customFormat="1">
       <c r="A139" s="22">
         <v>15837</v>
       </c>
@@ -12197,15 +12706,18 @@
         <v>0</v>
       </c>
       <c r="M139" s="22" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="N139" s="22"/>
       <c r="O139" s="22"/>
       <c r="P139" s="22"/>
       <c r="Q139" s="22"/>
       <c r="R139"/>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="22">
         <v>15849</v>
       </c>
@@ -12250,8 +12762,11 @@
       <c r="O140" s="22"/>
       <c r="P140" s="22"/>
       <c r="Q140" s="22"/>
-    </row>
-    <row r="141" spans="1:18" hidden="1">
+      <c r="S140" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="22">
         <v>15862</v>
       </c>
@@ -12301,10 +12816,10 @@
         <v>1133</v>
       </c>
       <c r="R141" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" hidden="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="23">
         <v>15865</v>
       </c>
@@ -12338,10 +12853,10 @@
         <v>702</v>
       </c>
       <c r="R142" s="18" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="22">
         <v>90001</v>
       </c>
@@ -12387,8 +12902,11 @@
       <c r="Q143" s="22" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="22">
         <v>90002</v>
       </c>
@@ -12434,8 +12952,11 @@
       <c r="Q144" s="22" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="145" spans="1:17">
+      <c r="S144" s="19" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="22">
         <v>90003</v>
       </c>
@@ -12471,7 +12992,7 @@
         <v>38</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="N145" s="22"/>
       <c r="O145" s="22"/>
@@ -12479,8 +13000,11 @@
       <c r="Q145" s="22" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="S145" s="18" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="22">
         <v>90004</v>
       </c>
@@ -12500,13 +13024,14 @@
         <v>61</v>
       </c>
       <c r="I146" s="22" t="s">
-        <v>1722</v>
-      </c>
-      <c r="J146" s="33" t="s">
         <v>1721</v>
       </c>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="J146" s="33"/>
+      <c r="S146" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="22">
         <v>90005</v>
       </c>
@@ -12528,16 +13053,48 @@
       <c r="I147" s="22" t="s">
         <v>1720</v>
       </c>
-      <c r="J147" s="33" t="s">
-        <v>1721</v>
+      <c r="J147" s="33"/>
+      <c r="S147" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="75">
+      <c r="A148" s="22">
+        <v>90006</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D148" s="22">
+        <v>2017</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I148" s="22" t="s">
+        <v>1720</v>
+      </c>
+      <c r="S148" s="18" t="s">
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R147" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
-    <filterColumn colId="15">
-      <filters blank="1"/>
-    </filterColumn>
+  <autoFilter ref="A1:S1" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S148">
+      <sortCondition ref="A1"/>
+    </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S148">
+    <sortCondition ref="P2:P148"/>
+    <sortCondition ref="B2:B148"/>
+  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q70" r:id="rId1" xr:uid="{DFF7838C-47E7-4D73-A6A7-980C4DA74190}"/>
     <hyperlink ref="Q33" r:id="rId2" xr:uid="{49C28F97-DD1C-4026-9C2F-95BF834CE27E}"/>
@@ -12572,8 +13129,8 @@
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:AR547"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="A2:AR547"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12618,7 +13175,7 @@
         <v>489</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>34</v>
@@ -12690,7 +13247,7 @@
         <v>26</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AF1" s="6" t="s">
         <v>25</v>
@@ -13355,7 +13912,7 @@
       </c>
       <c r="AQ10" s="3"/>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" hidden="1">
       <c r="A11" s="2">
         <v>366</v>
       </c>
@@ -14015,7 +14572,7 @@
       </c>
       <c r="AQ20" s="3"/>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" hidden="1">
       <c r="A21" s="2">
         <v>2016</v>
       </c>
@@ -14135,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" hidden="1">
       <c r="A23" s="2">
         <v>2017</v>
       </c>
@@ -17256,7 +17813,7 @@
       </c>
       <c r="AQ70" s="3"/>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" hidden="1">
       <c r="A71" s="2">
         <v>2326</v>
       </c>
@@ -17568,7 +18125,7 @@
         <v>15</v>
       </c>
       <c r="AE75" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF75" s="2">
         <v>17008</v>
@@ -17641,7 +18198,7 @@
         <v>15</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF76" s="2">
         <v>17008</v>
@@ -17714,7 +18271,7 @@
         <v>15</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF77" s="2">
         <v>17008</v>
@@ -17787,7 +18344,7 @@
         <v>15</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF78" s="2">
         <v>17008</v>
@@ -18332,7 +18889,7 @@
         <v>15</v>
       </c>
       <c r="AE88" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF88" s="2">
         <v>17008</v>
@@ -18405,7 +18962,7 @@
         <v>15</v>
       </c>
       <c r="AE89" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF89" s="2">
         <v>17008</v>
@@ -18478,7 +19035,7 @@
         <v>15</v>
       </c>
       <c r="AE90" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF90" s="2">
         <v>17008</v>
@@ -18850,7 +19407,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" hidden="1">
       <c r="A102" s="2">
         <v>4799</v>
       </c>
@@ -18907,7 +19464,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" hidden="1">
       <c r="A103" s="2">
         <v>4799</v>
       </c>
@@ -18967,7 +19524,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" hidden="1">
       <c r="A104" s="2">
         <v>4799</v>
       </c>
@@ -19027,7 +19584,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" hidden="1">
       <c r="A105" s="2">
         <v>4799</v>
       </c>
@@ -19087,7 +19644,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" hidden="1">
       <c r="A106" s="2">
         <v>4799</v>
       </c>
@@ -19147,7 +19704,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" hidden="1">
       <c r="A107" s="2">
         <v>4799</v>
       </c>
@@ -19207,7 +19764,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" hidden="1">
       <c r="A108" s="2">
         <v>4799</v>
       </c>
@@ -20408,7 +20965,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" hidden="1">
       <c r="A131" s="2">
         <v>5397</v>
       </c>
@@ -20468,7 +21025,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" hidden="1">
       <c r="A132" s="2">
         <v>5397</v>
       </c>
@@ -20528,7 +21085,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" hidden="1">
       <c r="A133" s="2">
         <v>5965</v>
       </c>
@@ -20591,7 +21148,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" hidden="1">
       <c r="A134" s="2">
         <v>5965</v>
       </c>
@@ -20654,7 +21211,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" hidden="1">
       <c r="A135" s="2">
         <v>5965</v>
       </c>
@@ -21937,7 +22494,7 @@
       </c>
       <c r="AR164" s="17"/>
     </row>
-    <row r="165" spans="1:44">
+    <row r="165" spans="1:44" hidden="1">
       <c r="A165" s="2">
         <v>9429</v>
       </c>
@@ -22007,7 +22564,7 @@
       </c>
       <c r="AR165" s="17"/>
     </row>
-    <row r="166" spans="1:44">
+    <row r="166" spans="1:44" hidden="1">
       <c r="A166" s="2">
         <v>9429</v>
       </c>
@@ -22077,7 +22634,7 @@
       </c>
       <c r="AR166" s="17"/>
     </row>
-    <row r="167" spans="1:44">
+    <row r="167" spans="1:44" hidden="1">
       <c r="A167" s="2">
         <v>9429</v>
       </c>
@@ -22147,7 +22704,7 @@
       </c>
       <c r="AR167" s="17"/>
     </row>
-    <row r="168" spans="1:44">
+    <row r="168" spans="1:44" hidden="1">
       <c r="A168" s="2">
         <v>9429</v>
       </c>
@@ -22217,7 +22774,7 @@
       </c>
       <c r="AR168" s="17"/>
     </row>
-    <row r="169" spans="1:44">
+    <row r="169" spans="1:44" hidden="1">
       <c r="A169" s="2">
         <v>9466</v>
       </c>
@@ -22280,7 +22837,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="170" spans="1:44" hidden="1">
+    <row r="170" spans="1:44">
       <c r="A170" s="2">
         <v>9740</v>
       </c>
@@ -23347,7 +23904,7 @@
         <v>15</v>
       </c>
       <c r="AE185" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF185" s="2">
         <v>17008</v>
@@ -23780,7 +24337,7 @@
         <v>15</v>
       </c>
       <c r="AE193" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF193" s="2">
         <v>17008</v>
@@ -23852,7 +24409,7 @@
         <v>15</v>
       </c>
       <c r="AE194" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF194" s="2">
         <v>17008</v>
@@ -23924,7 +24481,7 @@
         <v>15</v>
       </c>
       <c r="AE195" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AF195" s="2">
         <v>17008</v>
@@ -30436,7 +30993,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="304" spans="1:41">
+    <row r="304" spans="1:41" hidden="1">
       <c r="A304" s="2">
         <v>13401</v>
       </c>
@@ -30493,7 +31050,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="305" spans="1:42">
+    <row r="305" spans="1:42" hidden="1">
       <c r="A305" s="2">
         <v>13401</v>
       </c>
@@ -31589,7 +32146,7 @@
       </c>
       <c r="AQ324" s="3"/>
     </row>
-    <row r="325" spans="1:43">
+    <row r="325" spans="1:43" hidden="1">
       <c r="A325" s="2">
         <v>13724</v>
       </c>
@@ -35462,7 +36019,7 @@
       </c>
       <c r="AR392" s="11"/>
     </row>
-    <row r="393" spans="1:44">
+    <row r="393" spans="1:44" hidden="1">
       <c r="A393" s="2">
         <v>14621</v>
       </c>
@@ -35522,7 +36079,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="394" spans="1:44">
+    <row r="394" spans="1:44" hidden="1">
       <c r="A394" s="2">
         <v>14628</v>
       </c>
@@ -35690,7 +36247,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="397" spans="1:44">
+    <row r="397" spans="1:44" hidden="1">
       <c r="A397" s="2">
         <v>14632</v>
       </c>
@@ -35747,7 +36304,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="398" spans="1:44">
+    <row r="398" spans="1:44" hidden="1">
       <c r="A398" s="2">
         <v>14632</v>
       </c>
@@ -35915,7 +36472,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="403" spans="1:43">
+    <row r="403" spans="1:43" hidden="1">
       <c r="A403" s="2">
         <v>14658</v>
       </c>
@@ -35975,7 +36532,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="404" spans="1:43">
+    <row r="404" spans="1:43" hidden="1">
       <c r="A404" s="2">
         <v>14658</v>
       </c>
@@ -36035,7 +36592,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="405" spans="1:43">
+    <row r="405" spans="1:43" hidden="1">
       <c r="A405" s="2">
         <v>14658</v>
       </c>
@@ -36095,7 +36652,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="406" spans="1:43">
+    <row r="406" spans="1:43" hidden="1">
       <c r="A406" s="2">
         <v>14658</v>
       </c>
@@ -36155,7 +36712,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="407" spans="1:43">
+    <row r="407" spans="1:43" hidden="1">
       <c r="A407" s="2">
         <v>14658</v>
       </c>
@@ -36218,7 +36775,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="408" spans="1:43">
+    <row r="408" spans="1:43" hidden="1">
       <c r="A408" s="2">
         <v>14658</v>
       </c>
@@ -36281,7 +36838,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="409" spans="1:43">
+    <row r="409" spans="1:43" hidden="1">
       <c r="A409" s="2">
         <v>14658</v>
       </c>
@@ -36344,7 +36901,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="410" spans="1:43">
+    <row r="410" spans="1:43" hidden="1">
       <c r="A410" s="2">
         <v>14658</v>
       </c>
@@ -36407,7 +36964,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="411" spans="1:43">
+    <row r="411" spans="1:43" hidden="1">
       <c r="A411" s="2">
         <v>14658</v>
       </c>
@@ -36933,7 +37490,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="421" spans="1:43">
+    <row r="421" spans="1:43" hidden="1">
       <c r="A421" s="2">
         <v>14664</v>
       </c>
@@ -38163,7 +38720,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="442" spans="1:41">
+    <row r="442" spans="1:41" hidden="1">
       <c r="A442" s="2">
         <v>14665</v>
       </c>
@@ -38223,7 +38780,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="443" spans="1:41">
+    <row r="443" spans="1:41" hidden="1">
       <c r="A443" s="2">
         <v>14665</v>
       </c>
@@ -38283,7 +38840,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="444" spans="1:41">
+    <row r="444" spans="1:41" hidden="1">
       <c r="A444" s="2">
         <v>14665</v>
       </c>
@@ -38343,7 +38900,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="445" spans="1:41">
+    <row r="445" spans="1:41" hidden="1">
       <c r="A445" s="2">
         <v>14665</v>
       </c>
@@ -38847,7 +39404,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="454" spans="1:44">
+    <row r="454" spans="1:44" hidden="1">
       <c r="A454" s="2">
         <v>14670</v>
       </c>
@@ -38904,7 +39461,7 @@
       <c r="AQ454" s="3"/>
       <c r="AR454" s="2"/>
     </row>
-    <row r="455" spans="1:44">
+    <row r="455" spans="1:44" hidden="1">
       <c r="A455" s="2">
         <v>14670</v>
       </c>
@@ -38977,7 +39534,7 @@
       </c>
       <c r="AQ456" s="3"/>
     </row>
-    <row r="457" spans="1:44" ht="18.75" customHeight="1">
+    <row r="457" spans="1:44" ht="18.75" hidden="1" customHeight="1">
       <c r="A457" s="2">
         <v>14709</v>
       </c>
@@ -39499,7 +40056,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:43">
+    <row r="466" spans="1:43" hidden="1">
       <c r="A466" s="2">
         <v>14715</v>
       </c>
@@ -39901,7 +40458,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="473" spans="1:43">
+    <row r="473" spans="1:43" hidden="1">
       <c r="A473" s="2">
         <v>14720</v>
       </c>
@@ -40075,7 +40632,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="476" spans="1:43">
+    <row r="476" spans="1:43" hidden="1">
       <c r="A476" s="2">
         <v>14754</v>
       </c>
@@ -40240,7 +40797,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:43">
+    <row r="479" spans="1:43" hidden="1">
       <c r="A479" s="2">
         <v>14755</v>
       </c>
@@ -40300,7 +40857,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="480" spans="1:43">
+    <row r="480" spans="1:43" hidden="1">
       <c r="A480" s="2">
         <v>14761</v>
       </c>
@@ -40747,7 +41304,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="488" spans="1:43">
+    <row r="488" spans="1:43" hidden="1">
       <c r="A488" s="2">
         <v>14763</v>
       </c>
@@ -40804,7 +41361,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="489" spans="1:43">
+    <row r="489" spans="1:43" hidden="1">
       <c r="A489" s="2">
         <v>14763</v>
       </c>
@@ -40858,7 +41415,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="490" spans="1:43">
+    <row r="490" spans="1:43" hidden="1">
       <c r="A490" s="2">
         <v>14763</v>
       </c>
@@ -41768,7 +42325,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="508" spans="1:43">
+    <row r="508" spans="1:43" hidden="1">
       <c r="A508" s="2">
         <v>15647</v>
       </c>
@@ -43662,10 +44219,10 @@
         <v>15</v>
       </c>
       <c r="AE542" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AI542" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="AJ542" s="3" t="s">
         <v>1169</v>
@@ -43677,7 +44234,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:43">
+    <row r="543" spans="1:43" hidden="1">
       <c r="A543" s="2">
         <v>99999</v>
       </c>
@@ -43718,11 +44275,9 @@
       <c r="AO543" s="2">
         <v>1.19</v>
       </c>
-      <c r="AQ543" s="3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="544" spans="1:43">
+      <c r="AQ543" s="3"/>
+    </row>
+    <row r="544" spans="1:43" hidden="1">
       <c r="A544" s="2">
         <v>99999</v>
       </c>
@@ -43764,7 +44319,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="545" spans="1:41">
+    <row r="545" spans="1:41" hidden="1">
       <c r="A545" s="2">
         <v>99999</v>
       </c>
@@ -43806,7 +44361,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="546" spans="1:41">
+    <row r="546" spans="1:41" hidden="1">
       <c r="A546" s="2">
         <v>99999</v>
       </c>
@@ -43849,34 +44404,68 @@
       </c>
     </row>
     <row r="547" spans="1:41" hidden="1">
+      <c r="A547" s="2">
+        <v>90006</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D547" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F547" s="2">
+        <v>0</v>
+      </c>
+      <c r="L547" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="N547" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O547" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="U547" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="X547" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Z547" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE547" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AI547" s="2">
+        <v>56</v>
+      </c>
       <c r="AJ547" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AL547" s="2">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AN547" s="2">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AO547" s="2">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AS547" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}">
-    <filterColumn colId="13">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Statin - Ever"/>
+        <filter val="9740-16"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="20">
-      <filters>
-        <filter val="Drug"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR547">
-      <sortCondition ref="A1:A547"/>
-    </sortState>
   </autoFilter>
   <conditionalFormatting sqref="T12">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -43925,10 +44514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB0A56-3DC8-4E26-A609-4CFF3B927907}">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:J37"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171:K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44106,7 +44695,7 @@
         <v>1174</v>
       </c>
       <c r="E6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F6" t="s">
         <v>1174</v>
@@ -44490,7 +45079,7 @@
         <v>1174</v>
       </c>
       <c r="E18" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F18" t="s">
         <v>1174</v>
@@ -44522,7 +45111,7 @@
         <v>1174</v>
       </c>
       <c r="E19" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F19" t="s">
         <v>1174</v>
@@ -45088,7 +45677,7 @@
         <v>1719</v>
       </c>
       <c r="M36" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -45114,13 +45703,13 @@
         <v>1719</v>
       </c>
       <c r="I37" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="K37" t="s">
         <v>1719</v>
       </c>
       <c r="M37" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -48946,6 +49535,151 @@
       </c>
       <c r="K172" t="s">
         <v>1153</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K173" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K176" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1174</v>
       </c>
     </row>
   </sheetData>
@@ -49379,7 +50113,7 @@
     </row>
     <row r="45" spans="4:11">
       <c r="D45" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="46" spans="4:11">
@@ -49472,7 +50206,7 @@
     </row>
     <row r="63" spans="4:11">
       <c r="D63" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
   </sheetData>

--- a/data/sys-rev/data_extraction_main.xlsx
+++ b/data/sys-rev/data_extraction_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7846" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D578893-2E86-48D3-ACD7-90890C0DF933}"/>
+  <xr:revisionPtr revIDLastSave="7853" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09212E1-7895-4FE0-B512-4A81D391621E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -6212,8 +6212,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13196,8 +13196,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AR547"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="A548" sqref="A548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44529,11 +44529,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS547" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR547">
-      <sortCondition ref="C1:C547"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AS547" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}"/>
   <conditionalFormatting sqref="T12">
     <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C12="D"</formula>
@@ -44584,7 +44580,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>

--- a/data/sys-rev/data_extraction_main.xlsx
+++ b/data/sys-rev/data_extraction_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7886" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93EA444C-BF25-4E30-A67F-73D6F868001C}"/>
+  <xr:revisionPtr revIDLastSave="7890" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A656555-9A6C-4152-A883-288FE58ECAC4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -5388,9 +5388,6 @@
     <t>szwast2007</t>
   </si>
   <si>
-    <t>tan2003a</t>
-  </si>
-  <si>
     <t>tynkkynen2016</t>
   </si>
   <si>
@@ -5482,6 +5479,9 @@
   </si>
   <si>
     <t>mainous2005</t>
+  </si>
+  <si>
+    <t>tan2003</t>
   </si>
 </sst>
 </file>
@@ -6126,21 +6126,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R10" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="R81" workbookViewId="0">
+      <selection activeCell="S90" sqref="S90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="7" width="20.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="5" max="7" width="20.1796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" customWidth="1"/>
     <col min="13" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="137.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="137.81640625" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="19" customFormat="1">
@@ -6250,7 +6250,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="S2" s="19" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="19" customFormat="1">
@@ -6420,7 +6420,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="S6" s="19" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="19" customFormat="1">
@@ -6565,7 +6565,7 @@
         <v>471</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="19" customFormat="1">
@@ -6731,7 +6731,7 @@
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
       <c r="S13" s="19" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="19" customFormat="1">
@@ -6811,7 +6811,7 @@
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
       <c r="S15" s="33" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="19" customFormat="1">
@@ -6941,7 +6941,7 @@
         <v>476</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>65</v>
@@ -6964,7 +6964,7 @@
         <v>497</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="19" customFormat="1">
@@ -7126,7 +7126,7 @@
         <v>476</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>65</v>
@@ -7149,7 +7149,7 @@
         <v>504</v>
       </c>
       <c r="S22" s="19" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="19" customFormat="1">
@@ -7367,7 +7367,7 @@
         <v>947</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="19" customFormat="1">
@@ -7738,7 +7738,7 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="S38" s="19" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="19" customFormat="1">
@@ -7787,7 +7787,7 @@
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
       <c r="S39" s="19" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="19" customFormat="1">
@@ -7838,7 +7838,7 @@
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="S40" s="19" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="19" customFormat="1">
@@ -8212,7 +8212,7 @@
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="S49" s="19" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="19" customFormat="1">
@@ -8402,7 +8402,7 @@
         <v>1709</v>
       </c>
       <c r="S54" s="19" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="19" customFormat="1">
@@ -8680,7 +8680,7 @@
         <v>476</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J61" s="23" t="s">
         <v>65</v>
@@ -8701,7 +8701,7 @@
         <v>612</v>
       </c>
       <c r="S61" s="19" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="62" spans="1:19" s="19" customFormat="1">
@@ -8746,7 +8746,7 @@
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
       <c r="S62" s="19" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="19" customFormat="1">
@@ -9264,7 +9264,7 @@
         <v>579</v>
       </c>
       <c r="S74" s="19" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="75" spans="1:19" s="19" customFormat="1">
@@ -9370,7 +9370,7 @@
         <v>584</v>
       </c>
       <c r="S76" s="19" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="77" spans="1:19" s="19" customFormat="1">
@@ -9816,7 +9816,7 @@
         <v>690</v>
       </c>
       <c r="S87" s="19" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="19" customFormat="1">
@@ -9899,7 +9899,7 @@
       <c r="P89" s="23"/>
       <c r="Q89" s="23"/>
       <c r="S89" s="19" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="19" customFormat="1">
@@ -9948,7 +9948,7 @@
       <c r="P90" s="23"/>
       <c r="Q90" s="23"/>
       <c r="S90" s="19" t="s">
-        <v>1773</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="19" customFormat="1">
@@ -10498,7 +10498,7 @@
         <v>612</v>
       </c>
       <c r="S103" s="19" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="19" customFormat="1">
@@ -10835,7 +10835,7 @@
       <c r="P111" s="23"/>
       <c r="Q111" s="23"/>
       <c r="S111" s="19" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="19" customFormat="1">
@@ -11084,7 +11084,7 @@
       <c r="P117" s="23"/>
       <c r="Q117" s="23"/>
       <c r="S117" s="19" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="118" spans="1:19" s="19" customFormat="1">
@@ -11220,7 +11220,7 @@
         <v>638</v>
       </c>
       <c r="S120" s="19" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="121" spans="1:19" s="19" customFormat="1">
@@ -11499,7 +11499,7 @@
       <c r="P126" s="23"/>
       <c r="Q126" s="23"/>
       <c r="S126" s="19" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="19" customFormat="1">
@@ -11650,7 +11650,7 @@
       <c r="P129" s="23"/>
       <c r="Q129" s="23"/>
       <c r="S129" s="19" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="130" spans="1:19" s="19" customFormat="1">
@@ -11833,7 +11833,7 @@
       <c r="P133" s="23"/>
       <c r="Q133" s="23"/>
       <c r="S133" s="19" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="134" spans="1:19" s="19" customFormat="1">
@@ -11997,7 +11997,7 @@
         <v>476</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J137" s="23" t="s">
         <v>65</v>
@@ -12265,7 +12265,7 @@
         <v>703</v>
       </c>
       <c r="S143" s="19" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="144" spans="1:19" s="19" customFormat="1">
@@ -12315,7 +12315,7 @@
         <v>703</v>
       </c>
       <c r="S144" s="19" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="145" spans="1:19" s="19" customFormat="1">
@@ -12389,7 +12389,7 @@
         <v>476</v>
       </c>
       <c r="I146" s="23" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J146" s="23" t="s">
         <v>65</v>
@@ -12430,7 +12430,7 @@
         <v>476</v>
       </c>
       <c r="I147" s="23" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J147" s="23" t="s">
         <v>65</v>
@@ -12472,7 +12472,7 @@
         <v>476</v>
       </c>
       <c r="I148" s="23" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J148" s="23" t="s">
         <v>65</v>
@@ -12492,7 +12492,7 @@
       <c r="Q148" s="23"/>
       <c r="R148" s="23"/>
       <c r="S148" s="23" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
   </sheetData>
@@ -12537,36 +12537,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:AR547"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="A548" sqref="A548"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AL482" sqref="AL482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="13" customWidth="1"/>
-    <col min="11" max="13" width="15.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="18.140625" style="13" customWidth="1"/>
-    <col min="21" max="24" width="15.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="15.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="15.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="15.7265625" style="13" customWidth="1"/>
+    <col min="11" max="13" width="15.7265625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="18.1796875" style="13" customWidth="1"/>
+    <col min="21" max="24" width="15.7265625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.7265625" style="4" customWidth="1"/>
     <col min="26" max="26" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="15.7109375" style="2" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" style="3" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" style="13" customWidth="1"/>
-    <col min="38" max="42" width="15.7109375" style="2" customWidth="1"/>
-    <col min="43" max="43" width="15.7109375" style="15" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" style="13" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="2"/>
+    <col min="27" max="35" width="15.7265625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="15.7265625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="15.7265625" style="13" customWidth="1"/>
+    <col min="38" max="42" width="15.7265625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="15.7265625" style="15" customWidth="1"/>
+    <col min="44" max="44" width="15.7265625" style="13" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="45">
+    <row r="1" spans="1:44" ht="43.5">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" hidden="1">
       <c r="A2" s="2">
         <v>10563</v>
       </c>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="AQ2" s="3"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" hidden="1">
       <c r="A3" s="2">
         <v>7222</v>
       </c>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="AQ3" s="3"/>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" hidden="1">
       <c r="A4" s="2">
         <v>9429</v>
       </c>
@@ -12808,7 +12808,7 @@
       </c>
       <c r="AR4" s="17"/>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" hidden="1">
       <c r="A5" s="2">
         <v>9429</v>
       </c>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="AR5" s="17"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" hidden="1">
       <c r="A6" s="2">
         <v>9429</v>
       </c>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="AR6" s="17"/>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" hidden="1">
       <c r="A7" s="2">
         <v>9429</v>
       </c>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="AR7" s="17"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" hidden="1">
       <c r="A8" s="2">
         <v>9429</v>
       </c>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="AR8" s="17"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" hidden="1">
       <c r="A9" s="2">
         <v>9429</v>
       </c>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="AR9" s="17"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" hidden="1">
       <c r="A10" s="2">
         <v>9429</v>
       </c>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="AR10" s="17"/>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" hidden="1">
       <c r="A11" s="2">
         <v>9429</v>
       </c>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="AR11" s="17"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" hidden="1">
       <c r="A12" s="2">
         <v>14346</v>
       </c>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" hidden="1">
       <c r="A13" s="2">
         <v>14346</v>
       </c>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" hidden="1">
       <c r="A14" s="2">
         <v>14346</v>
       </c>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" hidden="1">
       <c r="A15" s="2">
         <v>14346</v>
       </c>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" hidden="1">
       <c r="A16" s="2">
         <v>14346</v>
       </c>
@@ -13592,7 +13592,7 @@
       </c>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" hidden="1">
       <c r="A17" s="2">
         <v>14346</v>
       </c>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="AR17" s="11"/>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" hidden="1">
       <c r="A18" s="2">
         <v>14346</v>
       </c>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="AR18" s="11"/>
     </row>
-    <row r="19" spans="1:44" ht="14.25" customHeight="1">
+    <row r="19" spans="1:44" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="2">
         <v>14346</v>
       </c>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="AR19" s="11"/>
     </row>
-    <row r="20" spans="1:44" ht="14.25" customHeight="1">
+    <row r="20" spans="1:44" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="2">
         <v>14346</v>
       </c>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="AR20" s="11"/>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" hidden="1">
       <c r="A21" s="2">
         <v>14346</v>
       </c>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="AR21" s="11"/>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" hidden="1">
       <c r="A22" s="2">
         <v>14346</v>
       </c>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="AR22" s="11"/>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" hidden="1">
       <c r="A23" s="2">
         <v>14346</v>
       </c>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="AR23" s="11"/>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" hidden="1">
       <c r="A24" s="2">
         <v>14346</v>
       </c>
@@ -14059,7 +14059,7 @@
       </c>
       <c r="AR24" s="11"/>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" hidden="1">
       <c r="A25" s="2">
         <v>14346</v>
       </c>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="AR25" s="11"/>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" hidden="1">
       <c r="A26" s="2">
         <v>14346</v>
       </c>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="AR26" s="11"/>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" hidden="1">
       <c r="A27" s="2">
         <v>14346</v>
       </c>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="AR27" s="11"/>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" hidden="1">
       <c r="A28" s="2">
         <v>14346</v>
       </c>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="AR28" s="11"/>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" hidden="1">
       <c r="A29" s="2">
         <v>14346</v>
       </c>
@@ -14362,7 +14362,7 @@
       </c>
       <c r="AR29" s="11"/>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" hidden="1">
       <c r="A30" s="2">
         <v>14346</v>
       </c>
@@ -14426,7 +14426,7 @@
       </c>
       <c r="AR30" s="11"/>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" hidden="1">
       <c r="A31" s="2">
         <v>14346</v>
       </c>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="AR31" s="11"/>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" hidden="1">
       <c r="A32" s="2">
         <v>14346</v>
       </c>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="AR32" s="11"/>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" hidden="1">
       <c r="A33" s="2">
         <v>14346</v>
       </c>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="AR33" s="11"/>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" hidden="1">
       <c r="A34" s="2">
         <v>14346</v>
       </c>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="AR34" s="11"/>
     </row>
-    <row r="35" spans="1:44" ht="15.75" customHeight="1">
+    <row r="35" spans="1:44" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="2">
         <v>90004</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" hidden="1">
       <c r="A36" s="2">
         <v>90004</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" hidden="1">
       <c r="A37" s="2">
         <v>90004</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" hidden="1">
       <c r="A38" s="2">
         <v>90004</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:44" ht="15.75" customHeight="1">
+    <row r="39" spans="1:44" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="2">
         <v>14761</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" hidden="1">
       <c r="A40" s="2">
         <v>14761</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" hidden="1">
       <c r="A41" s="2">
         <v>14761</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" hidden="1">
       <c r="A42" s="2">
         <v>10454</v>
       </c>
@@ -15148,7 +15148,7 @@
       </c>
       <c r="AQ42" s="3"/>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" hidden="1">
       <c r="A43" s="2">
         <v>10454</v>
       </c>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="AQ43" s="3"/>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" hidden="1">
       <c r="A44" s="2">
         <v>9740</v>
       </c>
@@ -15288,7 +15288,7 @@
       </c>
       <c r="AQ44" s="3"/>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" hidden="1">
       <c r="A45" s="2">
         <v>9740</v>
       </c>
@@ -15358,7 +15358,7 @@
       </c>
       <c r="AQ45" s="3"/>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" hidden="1">
       <c r="A46" s="2">
         <v>9740</v>
       </c>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="AQ46" s="3"/>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" hidden="1">
       <c r="A47" s="2">
         <v>9740</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" hidden="1">
       <c r="A48" s="2">
         <v>9740</v>
       </c>
@@ -15564,7 +15564,7 @@
       </c>
       <c r="AQ48" s="3"/>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" hidden="1">
       <c r="A49" s="2">
         <v>9740</v>
       </c>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="AQ49" s="3"/>
     </row>
-    <row r="50" spans="1:43" ht="15.75" customHeight="1">
+    <row r="50" spans="1:43" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="2">
         <v>9740</v>
       </c>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="AQ50" s="3"/>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" hidden="1">
       <c r="A51" s="2">
         <v>9740</v>
       </c>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="AQ51" s="3"/>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" hidden="1">
       <c r="A52" s="2">
         <v>9740</v>
       </c>
@@ -15832,7 +15832,7 @@
       </c>
       <c r="AQ52" s="3"/>
     </row>
-    <row r="53" spans="1:43" ht="15.75" customHeight="1">
+    <row r="53" spans="1:43" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="2">
         <v>9740</v>
       </c>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="AQ53" s="3"/>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" hidden="1">
       <c r="A54" s="2">
         <v>9740</v>
       </c>
@@ -15966,7 +15966,7 @@
       </c>
       <c r="AQ54" s="3"/>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" hidden="1">
       <c r="A55" s="2">
         <v>9740</v>
       </c>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="AQ55" s="3"/>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" hidden="1">
       <c r="A56" s="2">
         <v>9740</v>
       </c>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="AQ56" s="3"/>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" hidden="1">
       <c r="A57" s="2">
         <v>9740</v>
       </c>
@@ -16167,7 +16167,7 @@
       </c>
       <c r="AQ57" s="3"/>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" hidden="1">
       <c r="A58" s="2">
         <v>9740</v>
       </c>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="AQ58" s="3"/>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" hidden="1">
       <c r="A59" s="2">
         <v>9740</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" hidden="1">
       <c r="A60" s="2">
         <v>9740</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="AQ60" s="3"/>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" hidden="1">
       <c r="A61" s="2">
         <v>9740</v>
       </c>
@@ -16449,7 +16449,7 @@
       </c>
       <c r="AQ61" s="3"/>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" hidden="1">
       <c r="A62" s="2">
         <v>9740</v>
       </c>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="AQ62" s="3"/>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" hidden="1">
       <c r="A63" s="2">
         <v>14763</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" hidden="1">
       <c r="A64" s="2">
         <v>14763</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" hidden="1">
       <c r="A65" s="2">
         <v>14763</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" hidden="1">
       <c r="A66" s="2">
         <v>14763</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" hidden="1">
       <c r="A67" s="2">
         <v>14763</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" hidden="1">
       <c r="A68" s="2">
         <v>14763</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" hidden="1">
       <c r="A69" s="2">
         <v>14763</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" hidden="1">
       <c r="A70" s="2">
         <v>14763</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" hidden="1">
       <c r="A71" s="2">
         <v>14763</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" hidden="1">
       <c r="A72" s="2">
         <v>14763</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" hidden="1">
       <c r="A73" s="2">
         <v>14763</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" hidden="1">
       <c r="A74" s="2">
         <v>14763</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" hidden="1">
       <c r="A75" s="2">
         <v>14763</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" hidden="1">
       <c r="A76" s="2">
         <v>14763</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" hidden="1">
       <c r="A77" s="2">
         <v>14709</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" hidden="1">
       <c r="A78" s="2">
         <v>14709</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" hidden="1">
       <c r="A79" s="2">
         <v>14709</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" hidden="1">
       <c r="A80" s="2">
         <v>14709</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" hidden="1">
       <c r="A81" s="2">
         <v>14709</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" hidden="1">
       <c r="A82" s="2">
         <v>5046</v>
       </c>
@@ -17594,7 +17594,7 @@
       </c>
       <c r="AQ82" s="3"/>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" hidden="1">
       <c r="A83" s="2">
         <v>9759</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" hidden="1">
       <c r="A84" s="2">
         <v>9759</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" hidden="1">
       <c r="A85" s="2">
         <v>9759</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" hidden="1">
       <c r="A86" s="2">
         <v>5007</v>
       </c>
@@ -17748,7 +17748,7 @@
       </c>
       <c r="AQ86" s="3"/>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" hidden="1">
       <c r="A87" s="2">
         <v>10068</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" hidden="1">
       <c r="A88" s="2">
         <v>10068</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" hidden="1">
       <c r="A89" s="2">
         <v>10068</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" hidden="1">
       <c r="A90" s="2">
         <v>3653</v>
       </c>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="AQ90" s="3"/>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" hidden="1">
       <c r="A91" s="2">
         <v>14715</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" hidden="1">
       <c r="A92" s="2">
         <v>14715</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" hidden="1">
       <c r="A93" s="2">
         <v>14715</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" hidden="1">
       <c r="A94" s="2">
         <v>14715</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" hidden="1">
       <c r="A95" s="2">
         <v>14715</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" hidden="1">
       <c r="A96" s="2">
         <v>14715</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" hidden="1">
       <c r="A97" s="2">
         <v>14715</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" hidden="1">
       <c r="A98" s="2">
         <v>4460</v>
       </c>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="AQ98" s="3"/>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" hidden="1">
       <c r="A99" s="2">
         <v>4463</v>
       </c>
@@ -18423,7 +18423,7 @@
       </c>
       <c r="AQ99" s="3"/>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" hidden="1">
       <c r="A100" s="2">
         <v>6297</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" hidden="1">
       <c r="A101" s="2">
         <v>6297</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" hidden="1">
       <c r="A102" s="2">
         <v>6297</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" hidden="1">
       <c r="A103" s="2">
         <v>10312</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" hidden="1">
       <c r="A104" s="2">
         <v>10312</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" hidden="1">
       <c r="A105" s="2">
         <v>10312</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" hidden="1">
       <c r="A106" s="2">
         <v>10312</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" hidden="1">
       <c r="A107" s="2">
         <v>10312</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" hidden="1">
       <c r="A108" s="2">
         <v>10312</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" hidden="1">
       <c r="A109" s="2">
         <v>15651</v>
       </c>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="AQ109" s="3"/>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" hidden="1">
       <c r="A110" s="2">
         <v>15652</v>
       </c>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="AQ110" s="3"/>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" hidden="1">
       <c r="A111" s="2">
         <v>15652</v>
       </c>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="AQ111" s="3"/>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" hidden="1">
       <c r="A112" s="2">
         <v>14658</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" hidden="1">
       <c r="A113" s="2">
         <v>14658</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" hidden="1">
       <c r="A114" s="2">
         <v>14658</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" hidden="1">
       <c r="A115" s="2">
         <v>14658</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" hidden="1">
       <c r="A116" s="2">
         <v>14658</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" hidden="1">
       <c r="A117" s="2">
         <v>14658</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" hidden="1">
       <c r="A118" s="2">
         <v>14658</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" hidden="1">
       <c r="A119" s="2">
         <v>14658</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" hidden="1">
       <c r="A120" s="2">
         <v>14658</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" hidden="1">
       <c r="A121" s="2">
         <v>14658</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" hidden="1">
       <c r="A122" s="2">
         <v>14658</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" hidden="1">
       <c r="A123" s="2">
         <v>14658</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" hidden="1">
       <c r="A124" s="2">
         <v>14658</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" hidden="1">
       <c r="A125" s="2">
         <v>14658</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" hidden="1">
       <c r="A126" s="2">
         <v>14658</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" hidden="1">
       <c r="A127" s="2">
         <v>14658</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" hidden="1">
       <c r="A128" s="2">
         <v>14658</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" hidden="1">
       <c r="A129" s="2">
         <v>4799</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:43" hidden="1">
       <c r="A130" s="2">
         <v>4799</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" hidden="1">
       <c r="A131" s="2">
         <v>4799</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" hidden="1">
       <c r="A132" s="2">
         <v>4799</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" hidden="1">
       <c r="A133" s="2">
         <v>4799</v>
       </c>
@@ -20319,7 +20319,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" hidden="1">
       <c r="A134" s="2">
         <v>4799</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" hidden="1">
       <c r="A135" s="2">
         <v>4799</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:43" hidden="1">
       <c r="A136" s="2">
         <v>4799</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:43" hidden="1">
       <c r="A137" s="2">
         <v>4799</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:43" hidden="1">
       <c r="A138" s="2">
         <v>4799</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:43" hidden="1">
       <c r="A139" s="2">
         <v>4799</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:43" hidden="1">
       <c r="A140" s="2">
         <v>4799</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:43" hidden="1">
       <c r="A141" s="2">
         <v>4799</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:43" hidden="1">
       <c r="A142" s="2">
         <v>10564</v>
       </c>
@@ -20788,7 +20788,7 @@
       </c>
       <c r="AQ142" s="3"/>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:43" hidden="1">
       <c r="A143" s="2">
         <v>10565</v>
       </c>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="AQ143" s="3"/>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:43" hidden="1">
       <c r="A144" s="2">
         <v>8290</v>
       </c>
@@ -20829,7 +20829,7 @@
       </c>
       <c r="AQ144" s="3"/>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:43" hidden="1">
       <c r="A145" s="2">
         <v>15647</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:43" hidden="1">
       <c r="A146" s="2">
         <v>15806</v>
       </c>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="AQ146" s="3"/>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:43" hidden="1">
       <c r="A147" s="2">
         <v>13777</v>
       </c>
@@ -20963,7 +20963,7 @@
       </c>
       <c r="AQ147" s="3"/>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:43" hidden="1">
       <c r="A148" s="2">
         <v>13777</v>
       </c>
@@ -21021,7 +21021,7 @@
       </c>
       <c r="AQ148" s="3"/>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:43" hidden="1">
       <c r="A149" s="2">
         <v>1118</v>
       </c>
@@ -21041,7 +21041,7 @@
       <c r="T149"/>
       <c r="AQ149" s="3"/>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:43" hidden="1">
       <c r="A150" s="2">
         <v>14218</v>
       </c>
@@ -21060,7 +21060,7 @@
       </c>
       <c r="AQ150" s="3"/>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:43" hidden="1">
       <c r="A151" s="2">
         <v>14296</v>
       </c>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="AQ151" s="3"/>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:43" hidden="1">
       <c r="A152" s="2">
         <v>7223</v>
       </c>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="AQ152" s="3"/>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:43" hidden="1">
       <c r="A153" s="2">
         <v>7223</v>
       </c>
@@ -21153,7 +21153,7 @@
       </c>
       <c r="AQ153" s="3"/>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:43" hidden="1">
       <c r="A154" s="2">
         <v>10182</v>
       </c>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="AQ154" s="3"/>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:43" hidden="1">
       <c r="A155" s="2">
         <v>10182</v>
       </c>
@@ -21299,7 +21299,7 @@
       </c>
       <c r="AQ155" s="3"/>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:43" hidden="1">
       <c r="A156" s="2">
         <v>10182</v>
       </c>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="AQ156" s="3"/>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:43" hidden="1">
       <c r="A157" s="2">
         <v>10182</v>
       </c>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="AQ157" s="3"/>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:43" hidden="1">
       <c r="A158" s="2">
         <v>10182</v>
       </c>
@@ -21518,7 +21518,7 @@
       </c>
       <c r="AQ158" s="3"/>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:43" hidden="1">
       <c r="A159" s="2">
         <v>10182</v>
       </c>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="AQ159" s="3"/>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:43" hidden="1">
       <c r="A160" s="2">
         <v>10182</v>
       </c>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="AQ160" s="3"/>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:43" hidden="1">
       <c r="A161" s="2">
         <v>10182</v>
       </c>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="AQ161" s="3"/>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:43" hidden="1">
       <c r="A162" s="2">
         <v>10182</v>
       </c>
@@ -21792,7 +21792,7 @@
       </c>
       <c r="AQ162" s="3"/>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:43" hidden="1">
       <c r="A163" s="2">
         <v>10182</v>
       </c>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="AQ163" s="3"/>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:43" hidden="1">
       <c r="A164" s="2">
         <v>10182</v>
       </c>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="AQ164" s="3"/>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:43" hidden="1">
       <c r="A165" s="2">
         <v>10182</v>
       </c>
@@ -21993,7 +21993,7 @@
       </c>
       <c r="AQ165" s="3"/>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:43" hidden="1">
       <c r="A166" s="2">
         <v>14628</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:43" hidden="1">
       <c r="A167" s="2">
         <v>2434</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:43" hidden="1">
       <c r="A168" s="2">
         <v>2434</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:43" hidden="1">
       <c r="A169" s="2">
         <v>2434</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:43" hidden="1">
       <c r="A170" s="2">
         <v>14663</v>
       </c>
@@ -22279,7 +22279,7 @@
       </c>
       <c r="AQ170" s="3"/>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:43" hidden="1">
       <c r="A171" s="2">
         <v>6536</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:43" hidden="1">
       <c r="A172" s="2">
         <v>14720</v>
       </c>
@@ -22384,7 +22384,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:43" hidden="1">
       <c r="A173" s="2">
         <v>14720</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:43" hidden="1">
       <c r="A174" s="2">
         <v>14720</v>
       </c>
@@ -22501,7 +22501,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:43" hidden="1">
       <c r="A175" s="2">
         <v>14720</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:43" hidden="1">
       <c r="A176" s="2">
         <v>14657</v>
       </c>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="AQ176" s="3"/>
     </row>
-    <row r="177" spans="1:44">
+    <row r="177" spans="1:44" hidden="1">
       <c r="A177" s="2">
         <v>3602</v>
       </c>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="AQ177" s="3"/>
     </row>
-    <row r="178" spans="1:44">
+    <row r="178" spans="1:44" hidden="1">
       <c r="A178" s="2">
         <v>8327</v>
       </c>
@@ -22618,7 +22618,7 @@
       </c>
       <c r="AQ178" s="3"/>
     </row>
-    <row r="179" spans="1:44">
+    <row r="179" spans="1:44" hidden="1">
       <c r="A179" s="2">
         <v>15849</v>
       </c>
@@ -22673,7 +22673,7 @@
       </c>
       <c r="AQ179" s="3"/>
     </row>
-    <row r="180" spans="1:44">
+    <row r="180" spans="1:44" hidden="1">
       <c r="A180" s="2">
         <v>15849</v>
       </c>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="AQ180" s="3"/>
     </row>
-    <row r="181" spans="1:44">
+    <row r="181" spans="1:44" hidden="1">
       <c r="A181" s="2">
         <v>15849</v>
       </c>
@@ -22783,7 +22783,7 @@
       </c>
       <c r="AQ181" s="3"/>
     </row>
-    <row r="182" spans="1:44">
+    <row r="182" spans="1:44" hidden="1">
       <c r="A182" s="2">
         <v>15849</v>
       </c>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="AQ182" s="3"/>
     </row>
-    <row r="183" spans="1:44">
+    <row r="183" spans="1:44" hidden="1">
       <c r="A183" s="2">
         <v>15849</v>
       </c>
@@ -22899,7 +22899,7 @@
       </c>
       <c r="AQ183" s="3"/>
     </row>
-    <row r="184" spans="1:44">
+    <row r="184" spans="1:44" hidden="1">
       <c r="A184" s="2">
         <v>15849</v>
       </c>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="AQ184" s="3"/>
     </row>
-    <row r="185" spans="1:44">
+    <row r="185" spans="1:44" hidden="1">
       <c r="A185" s="2">
         <v>15849</v>
       </c>
@@ -23015,7 +23015,7 @@
       </c>
       <c r="AQ185" s="3"/>
     </row>
-    <row r="186" spans="1:44">
+    <row r="186" spans="1:44" hidden="1">
       <c r="A186" s="2">
         <v>10562</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="189" spans="1:44">
+    <row r="189" spans="1:44" hidden="1">
       <c r="A189" s="2">
         <v>15548</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="190" spans="1:44">
+    <row r="190" spans="1:44" hidden="1">
       <c r="A190" s="2">
         <v>15548</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:44">
+    <row r="191" spans="1:44" hidden="1">
       <c r="A191" s="2">
         <v>15548</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="192" spans="1:44">
+    <row r="192" spans="1:44" hidden="1">
       <c r="A192" s="2">
         <v>15548</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="193" spans="1:43">
+    <row r="193" spans="1:43" hidden="1">
       <c r="A193" s="2">
         <v>15548</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="194" spans="1:43">
+    <row r="194" spans="1:43" hidden="1">
       <c r="A194" s="2">
         <v>15548</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="195" spans="1:43">
+    <row r="195" spans="1:43" hidden="1">
       <c r="A195" s="2">
         <v>15548</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="196" spans="1:43">
+    <row r="196" spans="1:43" hidden="1">
       <c r="A196" s="2">
         <v>15548</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="197" spans="1:43">
+    <row r="197" spans="1:43" hidden="1">
       <c r="A197" s="2">
         <v>15548</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="198" spans="1:43">
+    <row r="198" spans="1:43" hidden="1">
       <c r="A198" s="2">
         <v>15548</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="199" spans="1:43">
+    <row r="199" spans="1:43" hidden="1">
       <c r="A199" s="2">
         <v>6298</v>
       </c>
@@ -23730,7 +23730,7 @@
       </c>
       <c r="AQ199" s="3"/>
     </row>
-    <row r="200" spans="1:43">
+    <row r="200" spans="1:43" hidden="1">
       <c r="A200" s="2">
         <v>14714</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="201" spans="1:43">
+    <row r="201" spans="1:43" hidden="1">
       <c r="A201" s="2">
         <v>14714</v>
       </c>
@@ -23838,7 +23838,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="202" spans="1:43">
+    <row r="202" spans="1:43" hidden="1">
       <c r="A202" s="2">
         <v>14714</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="203" spans="1:43">
+    <row r="203" spans="1:43" hidden="1">
       <c r="A203" s="2">
         <v>90003</v>
       </c>
@@ -23970,7 +23970,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="1:43">
+    <row r="204" spans="1:43" hidden="1">
       <c r="A204" s="2">
         <v>10280</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="205" spans="1:43">
+    <row r="205" spans="1:43" hidden="1">
       <c r="A205" s="2">
         <v>10280</v>
       </c>
@@ -24108,7 +24108,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="206" spans="1:43">
+    <row r="206" spans="1:43" hidden="1">
       <c r="A206" s="2">
         <v>10280</v>
       </c>
@@ -24177,7 +24177,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="207" spans="1:43">
+    <row r="207" spans="1:43" hidden="1">
       <c r="A207" s="2">
         <v>10280</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="208" spans="1:43">
+    <row r="208" spans="1:43" hidden="1">
       <c r="A208" s="2">
         <v>10280</v>
       </c>
@@ -24315,7 +24315,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="209" spans="1:43">
+    <row r="209" spans="1:43" hidden="1">
       <c r="A209" s="2">
         <v>10280</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="210" spans="1:43">
+    <row r="210" spans="1:43" hidden="1">
       <c r="A210" s="2">
         <v>10280</v>
       </c>
@@ -24453,7 +24453,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="211" spans="1:43">
+    <row r="211" spans="1:43" hidden="1">
       <c r="A211" s="2">
         <v>10280</v>
       </c>
@@ -24522,7 +24522,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="212" spans="1:43">
+    <row r="212" spans="1:43" hidden="1">
       <c r="A212" s="2">
         <v>10280</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="213" spans="1:43">
+    <row r="213" spans="1:43" hidden="1">
       <c r="A213" s="2">
         <v>10280</v>
       </c>
@@ -24660,7 +24660,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="214" spans="1:43">
+    <row r="214" spans="1:43" hidden="1">
       <c r="A214" s="2">
         <v>10280</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="215" spans="1:43">
+    <row r="215" spans="1:43" hidden="1">
       <c r="A215" s="2">
         <v>10280</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="216" spans="1:43">
+    <row r="216" spans="1:43" hidden="1">
       <c r="A216" s="2">
         <v>10280</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="217" spans="1:43">
+    <row r="217" spans="1:43" hidden="1">
       <c r="A217" s="2">
         <v>10280</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="218" spans="1:43">
+    <row r="218" spans="1:43" hidden="1">
       <c r="A218" s="2">
         <v>10280</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="219" spans="1:43">
+    <row r="219" spans="1:43" hidden="1">
       <c r="A219" s="2">
         <v>10280</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="220" spans="1:43">
+    <row r="220" spans="1:43" hidden="1">
       <c r="A220" s="2">
         <v>10280</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="221" spans="1:43">
+    <row r="221" spans="1:43" hidden="1">
       <c r="A221" s="2">
         <v>10280</v>
       </c>
@@ -25213,7 +25213,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="222" spans="1:43">
+    <row r="222" spans="1:43" hidden="1">
       <c r="A222" s="2">
         <v>10321</v>
       </c>
@@ -25283,7 +25283,7 @@
       </c>
       <c r="AQ222" s="3"/>
     </row>
-    <row r="223" spans="1:43">
+    <row r="223" spans="1:43" hidden="1">
       <c r="A223" s="2">
         <v>10324</v>
       </c>
@@ -25302,7 +25302,7 @@
       </c>
       <c r="AQ223" s="3"/>
     </row>
-    <row r="224" spans="1:43">
+    <row r="224" spans="1:43" hidden="1">
       <c r="A224" s="2">
         <v>11282</v>
       </c>
@@ -25363,7 +25363,7 @@
       </c>
       <c r="AQ224" s="3"/>
     </row>
-    <row r="225" spans="1:43">
+    <row r="225" spans="1:43" hidden="1">
       <c r="A225" s="2">
         <v>10325</v>
       </c>
@@ -25382,7 +25382,7 @@
       </c>
       <c r="AQ225" s="3"/>
     </row>
-    <row r="226" spans="1:43">
+    <row r="226" spans="1:43" hidden="1">
       <c r="A226" s="2">
         <v>1883</v>
       </c>
@@ -25454,7 +25454,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="227" spans="1:43">
+    <row r="227" spans="1:43" hidden="1">
       <c r="A227" s="2">
         <v>90006</v>
       </c>
@@ -25510,7 +25510,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="228" spans="1:43">
+    <row r="228" spans="1:43" hidden="1">
       <c r="A228" s="2">
         <v>366</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="229" spans="1:43">
+    <row r="229" spans="1:43" hidden="1">
       <c r="A229" s="2">
         <v>9179</v>
       </c>
@@ -25589,7 +25589,7 @@
       </c>
       <c r="AQ229" s="3"/>
     </row>
-    <row r="230" spans="1:43">
+    <row r="230" spans="1:43" hidden="1">
       <c r="A230" s="2">
         <v>14206</v>
       </c>
@@ -25656,7 +25656,7 @@
       </c>
       <c r="AQ230" s="3"/>
     </row>
-    <row r="231" spans="1:43">
+    <row r="231" spans="1:43" hidden="1">
       <c r="A231" s="2">
         <v>14206</v>
       </c>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="AQ231" s="3"/>
     </row>
-    <row r="232" spans="1:43">
+    <row r="232" spans="1:43" hidden="1">
       <c r="A232" s="2">
         <v>14206</v>
       </c>
@@ -25784,7 +25784,7 @@
       </c>
       <c r="AQ232" s="3"/>
     </row>
-    <row r="233" spans="1:43">
+    <row r="233" spans="1:43" hidden="1">
       <c r="A233" s="2">
         <v>14206</v>
       </c>
@@ -25848,7 +25848,7 @@
       </c>
       <c r="AQ233" s="3"/>
     </row>
-    <row r="234" spans="1:43">
+    <row r="234" spans="1:43" hidden="1">
       <c r="A234" s="2">
         <v>14206</v>
       </c>
@@ -25915,7 +25915,7 @@
       </c>
       <c r="AQ234" s="3"/>
     </row>
-    <row r="235" spans="1:43">
+    <row r="235" spans="1:43" hidden="1">
       <c r="A235" s="2">
         <v>14206</v>
       </c>
@@ -25979,7 +25979,7 @@
       </c>
       <c r="AQ235" s="3"/>
     </row>
-    <row r="236" spans="1:43">
+    <row r="236" spans="1:43" hidden="1">
       <c r="A236" s="2">
         <v>14206</v>
       </c>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="AQ236" s="3"/>
     </row>
-    <row r="237" spans="1:43">
+    <row r="237" spans="1:43" hidden="1">
       <c r="A237" s="2">
         <v>14206</v>
       </c>
@@ -26107,7 +26107,7 @@
       </c>
       <c r="AQ237" s="3"/>
     </row>
-    <row r="238" spans="1:43">
+    <row r="238" spans="1:43" hidden="1">
       <c r="A238" s="2">
         <v>14206</v>
       </c>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="AQ238" s="3"/>
     </row>
-    <row r="239" spans="1:43">
+    <row r="239" spans="1:43" hidden="1">
       <c r="A239" s="2">
         <v>14206</v>
       </c>
@@ -26229,7 +26229,7 @@
       </c>
       <c r="AQ239" s="3"/>
     </row>
-    <row r="240" spans="1:43">
+    <row r="240" spans="1:43" hidden="1">
       <c r="A240" s="2">
         <v>14206</v>
       </c>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="AQ240" s="3"/>
     </row>
-    <row r="241" spans="1:43">
+    <row r="241" spans="1:43" hidden="1">
       <c r="A241" s="2">
         <v>14206</v>
       </c>
@@ -26354,7 +26354,7 @@
       </c>
       <c r="AQ241" s="3"/>
     </row>
-    <row r="242" spans="1:43">
+    <row r="242" spans="1:43" hidden="1">
       <c r="A242" s="2">
         <v>14206</v>
       </c>
@@ -26415,7 +26415,7 @@
       </c>
       <c r="AQ242" s="3"/>
     </row>
-    <row r="243" spans="1:43">
+    <row r="243" spans="1:43" hidden="1">
       <c r="A243" s="2">
         <v>14206</v>
       </c>
@@ -26476,7 +26476,7 @@
       </c>
       <c r="AQ243" s="3"/>
     </row>
-    <row r="244" spans="1:43">
+    <row r="244" spans="1:43" hidden="1">
       <c r="A244" s="2">
         <v>14206</v>
       </c>
@@ -26537,7 +26537,7 @@
       </c>
       <c r="AQ244" s="3"/>
     </row>
-    <row r="245" spans="1:43">
+    <row r="245" spans="1:43" hidden="1">
       <c r="A245" s="2">
         <v>14206</v>
       </c>
@@ -26601,7 +26601,7 @@
       </c>
       <c r="AQ245" s="3"/>
     </row>
-    <row r="246" spans="1:43">
+    <row r="246" spans="1:43" hidden="1">
       <c r="A246" s="2">
         <v>14632</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="247" spans="1:43">
+    <row r="247" spans="1:43" hidden="1">
       <c r="A247" s="2">
         <v>14632</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="248" spans="1:43">
+    <row r="248" spans="1:43" hidden="1">
       <c r="A248" s="2">
         <v>14632</v>
       </c>
@@ -26766,7 +26766,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="249" spans="1:43">
+    <row r="249" spans="1:43" hidden="1">
       <c r="A249" s="2">
         <v>14632</v>
       </c>
@@ -26823,7 +26823,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="250" spans="1:43">
+    <row r="250" spans="1:43" hidden="1">
       <c r="A250" s="2">
         <v>14641</v>
       </c>
@@ -26842,7 +26842,7 @@
       </c>
       <c r="AQ250" s="3"/>
     </row>
-    <row r="251" spans="1:43">
+    <row r="251" spans="1:43" hidden="1">
       <c r="A251" s="2">
         <v>14642</v>
       </c>
@@ -26912,7 +26912,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:43">
+    <row r="253" spans="1:43" hidden="1">
       <c r="A253" s="2">
         <v>4301</v>
       </c>
@@ -26931,7 +26931,7 @@
       </c>
       <c r="AQ253" s="3"/>
     </row>
-    <row r="254" spans="1:43">
+    <row r="254" spans="1:43" hidden="1">
       <c r="A254" s="2">
         <v>14621</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="255" spans="1:43">
+    <row r="255" spans="1:43" hidden="1">
       <c r="A255" s="2">
         <v>3609</v>
       </c>
@@ -27057,7 +27057,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="256" spans="1:43">
+    <row r="256" spans="1:43" hidden="1">
       <c r="A256" s="2">
         <v>3609</v>
       </c>
@@ -27126,7 +27126,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="257" spans="1:44">
+    <row r="257" spans="1:44" hidden="1">
       <c r="A257" s="2">
         <v>14205</v>
       </c>
@@ -27145,7 +27145,7 @@
       </c>
       <c r="AQ257" s="3"/>
     </row>
-    <row r="258" spans="1:44">
+    <row r="258" spans="1:44" hidden="1">
       <c r="A258" s="2">
         <v>2066</v>
       </c>
@@ -27164,7 +27164,7 @@
       </c>
       <c r="AQ258" s="3"/>
     </row>
-    <row r="259" spans="1:44">
+    <row r="259" spans="1:44" hidden="1">
       <c r="A259" s="2">
         <v>99999</v>
       </c>
@@ -27208,7 +27208,7 @@
       </c>
       <c r="AQ259" s="3"/>
     </row>
-    <row r="260" spans="1:44">
+    <row r="260" spans="1:44" hidden="1">
       <c r="A260" s="2">
         <v>99999</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="261" spans="1:44">
+    <row r="261" spans="1:44" hidden="1">
       <c r="A261" s="2">
         <v>99999</v>
       </c>
@@ -27294,7 +27294,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="262" spans="1:44">
+    <row r="262" spans="1:44" hidden="1">
       <c r="A262" s="2">
         <v>99999</v>
       </c>
@@ -27337,7 +27337,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="263" spans="1:44">
+    <row r="263" spans="1:44" hidden="1">
       <c r="A263" s="2">
         <v>60</v>
       </c>
@@ -27410,7 +27410,7 @@
       </c>
       <c r="AQ263" s="3"/>
     </row>
-    <row r="264" spans="1:44">
+    <row r="264" spans="1:44" hidden="1">
       <c r="A264" s="2">
         <v>60</v>
       </c>
@@ -27486,7 +27486,7 @@
       </c>
       <c r="AR264" s="17"/>
     </row>
-    <row r="265" spans="1:44">
+    <row r="265" spans="1:44" hidden="1">
       <c r="A265" s="2">
         <v>60</v>
       </c>
@@ -27562,7 +27562,7 @@
       </c>
       <c r="AR265" s="17"/>
     </row>
-    <row r="266" spans="1:44">
+    <row r="266" spans="1:44" hidden="1">
       <c r="A266" s="2">
         <v>60</v>
       </c>
@@ -27639,7 +27639,7 @@
       </c>
       <c r="AR266" s="17"/>
     </row>
-    <row r="267" spans="1:44">
+    <row r="267" spans="1:44" hidden="1">
       <c r="A267" s="2">
         <v>60</v>
       </c>
@@ -27712,7 +27712,7 @@
       </c>
       <c r="AR267" s="17"/>
     </row>
-    <row r="268" spans="1:44">
+    <row r="268" spans="1:44" hidden="1">
       <c r="A268" s="2">
         <v>60</v>
       </c>
@@ -27788,7 +27788,7 @@
       </c>
       <c r="AR268" s="17"/>
     </row>
-    <row r="269" spans="1:44">
+    <row r="269" spans="1:44" hidden="1">
       <c r="A269" s="2">
         <v>60</v>
       </c>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="AR269" s="17"/>
     </row>
-    <row r="270" spans="1:44">
+    <row r="270" spans="1:44" hidden="1">
       <c r="A270" s="2">
         <v>60</v>
       </c>
@@ -27941,7 +27941,7 @@
       </c>
       <c r="AR270" s="17"/>
     </row>
-    <row r="271" spans="1:44">
+    <row r="271" spans="1:44" hidden="1">
       <c r="A271" s="2">
         <v>2838</v>
       </c>
@@ -27963,7 +27963,7 @@
       </c>
       <c r="AQ271" s="3"/>
     </row>
-    <row r="272" spans="1:44">
+    <row r="272" spans="1:44" hidden="1">
       <c r="A272" s="2">
         <v>7851</v>
       </c>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="AQ272" s="3"/>
     </row>
-    <row r="273" spans="1:43">
+    <row r="273" spans="1:43" hidden="1">
       <c r="A273" s="2">
         <v>7859</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="274" spans="1:43">
+    <row r="274" spans="1:43" hidden="1">
       <c r="A274" s="2">
         <v>7859</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="275" spans="1:43">
+    <row r="275" spans="1:43" hidden="1">
       <c r="A275" s="2">
         <v>14202</v>
       </c>
@@ -28166,7 +28166,7 @@
       </c>
       <c r="AQ275" s="3"/>
     </row>
-    <row r="276" spans="1:43">
+    <row r="276" spans="1:43" hidden="1">
       <c r="A276" s="2">
         <v>14202</v>
       </c>
@@ -28224,7 +28224,7 @@
       </c>
       <c r="AQ276" s="3"/>
     </row>
-    <row r="277" spans="1:43">
+    <row r="277" spans="1:43" hidden="1">
       <c r="A277" s="2">
         <v>14202</v>
       </c>
@@ -28285,7 +28285,7 @@
       </c>
       <c r="AQ277" s="3"/>
     </row>
-    <row r="278" spans="1:43">
+    <row r="278" spans="1:43" hidden="1">
       <c r="A278" s="2">
         <v>14202</v>
       </c>
@@ -28343,7 +28343,7 @@
       </c>
       <c r="AQ278" s="3"/>
     </row>
-    <row r="279" spans="1:43">
+    <row r="279" spans="1:43" hidden="1">
       <c r="A279" s="2">
         <v>14202</v>
       </c>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="AQ279" s="3"/>
     </row>
-    <row r="280" spans="1:43">
+    <row r="280" spans="1:43" hidden="1">
       <c r="A280" s="2">
         <v>14202</v>
       </c>
@@ -28462,7 +28462,7 @@
       </c>
       <c r="AQ280" s="3"/>
     </row>
-    <row r="281" spans="1:43">
+    <row r="281" spans="1:43" hidden="1">
       <c r="A281" s="2">
         <v>14202</v>
       </c>
@@ -28520,7 +28520,7 @@
       </c>
       <c r="AQ281" s="3"/>
     </row>
-    <row r="282" spans="1:43">
+    <row r="282" spans="1:43" hidden="1">
       <c r="A282" s="2">
         <v>14202</v>
       </c>
@@ -28578,7 +28578,7 @@
       </c>
       <c r="AQ282" s="3"/>
     </row>
-    <row r="283" spans="1:43">
+    <row r="283" spans="1:43" hidden="1">
       <c r="A283" s="2">
         <v>14202</v>
       </c>
@@ -28639,7 +28639,7 @@
       </c>
       <c r="AQ283" s="3"/>
     </row>
-    <row r="284" spans="1:43">
+    <row r="284" spans="1:43" hidden="1">
       <c r="A284" s="2">
         <v>14202</v>
       </c>
@@ -28697,7 +28697,7 @@
       </c>
       <c r="AQ284" s="3"/>
     </row>
-    <row r="285" spans="1:43">
+    <row r="285" spans="1:43" hidden="1">
       <c r="A285" s="2">
         <v>14202</v>
       </c>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="AQ285" s="3"/>
     </row>
-    <row r="286" spans="1:43">
+    <row r="286" spans="1:43" hidden="1">
       <c r="A286" s="2">
         <v>14202</v>
       </c>
@@ -28816,7 +28816,7 @@
       </c>
       <c r="AQ286" s="3"/>
     </row>
-    <row r="287" spans="1:43">
+    <row r="287" spans="1:43" hidden="1">
       <c r="A287" s="2">
         <v>14202</v>
       </c>
@@ -28874,7 +28874,7 @@
       </c>
       <c r="AQ287" s="3"/>
     </row>
-    <row r="288" spans="1:43">
+    <row r="288" spans="1:43" hidden="1">
       <c r="A288" s="2">
         <v>14202</v>
       </c>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="AQ288" s="3"/>
     </row>
-    <row r="289" spans="1:43">
+    <row r="289" spans="1:43" hidden="1">
       <c r="A289" s="2">
         <v>14202</v>
       </c>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="AQ289" s="3"/>
     </row>
-    <row r="290" spans="1:43">
+    <row r="290" spans="1:43" hidden="1">
       <c r="A290" s="2">
         <v>14202</v>
       </c>
@@ -29051,7 +29051,7 @@
       </c>
       <c r="AQ290" s="3"/>
     </row>
-    <row r="291" spans="1:43">
+    <row r="291" spans="1:43" hidden="1">
       <c r="A291" s="2">
         <v>14202</v>
       </c>
@@ -29109,7 +29109,7 @@
       </c>
       <c r="AQ291" s="3"/>
     </row>
-    <row r="292" spans="1:43">
+    <row r="292" spans="1:43" hidden="1">
       <c r="A292" s="2">
         <v>14202</v>
       </c>
@@ -29170,7 +29170,7 @@
       </c>
       <c r="AQ292" s="3"/>
     </row>
-    <row r="293" spans="1:43">
+    <row r="293" spans="1:43" hidden="1">
       <c r="A293" s="2">
         <v>15791</v>
       </c>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="AQ293" s="3"/>
     </row>
-    <row r="294" spans="1:43">
+    <row r="294" spans="1:43" hidden="1">
       <c r="A294" s="2">
         <v>15791</v>
       </c>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="AQ294" s="3"/>
     </row>
-    <row r="295" spans="1:43">
+    <row r="295" spans="1:43" hidden="1">
       <c r="A295" s="2">
         <v>15791</v>
       </c>
@@ -29353,7 +29353,7 @@
       </c>
       <c r="AQ295" s="3"/>
     </row>
-    <row r="296" spans="1:43">
+    <row r="296" spans="1:43" hidden="1">
       <c r="A296" s="2">
         <v>10170</v>
       </c>
@@ -29410,7 +29410,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="297" spans="1:43">
+    <row r="297" spans="1:43" hidden="1">
       <c r="A297" s="2">
         <v>10170</v>
       </c>
@@ -29467,7 +29467,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="298" spans="1:43">
+    <row r="298" spans="1:43" hidden="1">
       <c r="A298" s="2">
         <v>10170</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="299" spans="1:43">
+    <row r="299" spans="1:43" hidden="1">
       <c r="A299" s="2">
         <v>10170</v>
       </c>
@@ -29575,7 +29575,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="300" spans="1:43">
+    <row r="300" spans="1:43" hidden="1">
       <c r="A300" s="2">
         <v>10184</v>
       </c>
@@ -29594,7 +29594,7 @@
       </c>
       <c r="AQ300" s="3"/>
     </row>
-    <row r="301" spans="1:43">
+    <row r="301" spans="1:43" hidden="1">
       <c r="A301" s="2">
         <v>2132</v>
       </c>
@@ -29613,7 +29613,7 @@
       </c>
       <c r="AQ301" s="3"/>
     </row>
-    <row r="302" spans="1:43">
+    <row r="302" spans="1:43" hidden="1">
       <c r="A302" s="2">
         <v>8481</v>
       </c>
@@ -29680,7 +29680,7 @@
       </c>
       <c r="AQ302" s="3"/>
     </row>
-    <row r="303" spans="1:43">
+    <row r="303" spans="1:43" hidden="1">
       <c r="A303" s="2">
         <v>8481</v>
       </c>
@@ -29744,7 +29744,7 @@
       </c>
       <c r="AQ303" s="3"/>
     </row>
-    <row r="304" spans="1:43">
+    <row r="304" spans="1:43" hidden="1">
       <c r="A304" s="2">
         <v>8481</v>
       </c>
@@ -29808,7 +29808,7 @@
       </c>
       <c r="AQ304" s="3"/>
     </row>
-    <row r="305" spans="1:43">
+    <row r="305" spans="1:43" hidden="1">
       <c r="A305" s="2">
         <v>14295</v>
       </c>
@@ -29871,7 +29871,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="306" spans="1:43">
+    <row r="306" spans="1:43" hidden="1">
       <c r="A306" s="2">
         <v>13739</v>
       </c>
@@ -29890,7 +29890,7 @@
       </c>
       <c r="AQ306" s="3"/>
     </row>
-    <row r="307" spans="1:43">
+    <row r="307" spans="1:43" hidden="1">
       <c r="A307" s="2">
         <v>2439</v>
       </c>
@@ -29963,7 +29963,7 @@
       </c>
       <c r="AQ307" s="3"/>
     </row>
-    <row r="308" spans="1:43">
+    <row r="308" spans="1:43" hidden="1">
       <c r="A308" s="2">
         <v>2439</v>
       </c>
@@ -30036,7 +30036,7 @@
       </c>
       <c r="AQ308" s="3"/>
     </row>
-    <row r="309" spans="1:43">
+    <row r="309" spans="1:43" hidden="1">
       <c r="A309" s="2">
         <v>2439</v>
       </c>
@@ -30109,7 +30109,7 @@
       </c>
       <c r="AQ309" s="3"/>
     </row>
-    <row r="310" spans="1:43">
+    <row r="310" spans="1:43" hidden="1">
       <c r="A310" s="2">
         <v>2439</v>
       </c>
@@ -30182,7 +30182,7 @@
       </c>
       <c r="AQ310" s="3"/>
     </row>
-    <row r="311" spans="1:43">
+    <row r="311" spans="1:43" hidden="1">
       <c r="A311" s="2">
         <v>8870</v>
       </c>
@@ -30201,7 +30201,7 @@
       </c>
       <c r="AQ311" s="3"/>
     </row>
-    <row r="312" spans="1:43">
+    <row r="312" spans="1:43" hidden="1">
       <c r="A312" s="2">
         <v>14664</v>
       </c>
@@ -30261,7 +30261,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="313" spans="1:43">
+    <row r="313" spans="1:43" hidden="1">
       <c r="A313" s="2">
         <v>14664</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="314" spans="1:43">
+    <row r="314" spans="1:43" hidden="1">
       <c r="A314" s="2">
         <v>14664</v>
       </c>
@@ -30384,7 +30384,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:43">
+    <row r="315" spans="1:43" hidden="1">
       <c r="A315" s="2">
         <v>14664</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="316" spans="1:43">
+    <row r="316" spans="1:43" hidden="1">
       <c r="A316" s="2">
         <v>14664</v>
       </c>
@@ -30510,7 +30510,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="317" spans="1:43">
+    <row r="317" spans="1:43" hidden="1">
       <c r="A317" s="2">
         <v>14664</v>
       </c>
@@ -30570,7 +30570,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="318" spans="1:43">
+    <row r="318" spans="1:43" hidden="1">
       <c r="A318" s="2">
         <v>14664</v>
       </c>
@@ -30630,7 +30630,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="319" spans="1:43">
+    <row r="319" spans="1:43" hidden="1">
       <c r="A319" s="2">
         <v>14664</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="320" spans="1:43">
+    <row r="320" spans="1:43" hidden="1">
       <c r="A320" s="2">
         <v>14664</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="321" spans="1:43">
+    <row r="321" spans="1:43" hidden="1">
       <c r="A321" s="2">
         <v>13724</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="322" spans="1:43">
+    <row r="322" spans="1:43" hidden="1">
       <c r="A322" s="2">
         <v>7354</v>
       </c>
@@ -30829,7 +30829,7 @@
       </c>
       <c r="AQ322" s="3"/>
     </row>
-    <row r="323" spans="1:43">
+    <row r="323" spans="1:43" hidden="1">
       <c r="A323" s="2">
         <v>8878</v>
       </c>
@@ -30848,7 +30848,7 @@
       </c>
       <c r="AQ323" s="3"/>
     </row>
-    <row r="324" spans="1:43">
+    <row r="324" spans="1:43" hidden="1">
       <c r="A324" s="2">
         <v>3094</v>
       </c>
@@ -30911,7 +30911,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="325" spans="1:43">
+    <row r="325" spans="1:43" hidden="1">
       <c r="A325" s="2">
         <v>3094</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="326" spans="1:43">
+    <row r="326" spans="1:43" hidden="1">
       <c r="A326" s="2">
         <v>15862</v>
       </c>
@@ -30996,7 +30996,7 @@
       </c>
       <c r="AQ326" s="3"/>
     </row>
-    <row r="327" spans="1:43">
+    <row r="327" spans="1:43" hidden="1">
       <c r="A327" s="2">
         <v>3413</v>
       </c>
@@ -31015,7 +31015,7 @@
       </c>
       <c r="AQ327" s="3"/>
     </row>
-    <row r="328" spans="1:43">
+    <row r="328" spans="1:43" hidden="1">
       <c r="A328" s="2">
         <v>10181</v>
       </c>
@@ -31082,7 +31082,7 @@
       </c>
       <c r="AQ328" s="3"/>
     </row>
-    <row r="329" spans="1:43">
+    <row r="329" spans="1:43" hidden="1">
       <c r="A329" s="2">
         <v>10181</v>
       </c>
@@ -31146,7 +31146,7 @@
       </c>
       <c r="AQ329" s="3"/>
     </row>
-    <row r="330" spans="1:43">
+    <row r="330" spans="1:43" hidden="1">
       <c r="A330" s="2">
         <v>10181</v>
       </c>
@@ -31210,7 +31210,7 @@
       </c>
       <c r="AQ330" s="3"/>
     </row>
-    <row r="331" spans="1:43">
+    <row r="331" spans="1:43" hidden="1">
       <c r="A331" s="2">
         <v>10181</v>
       </c>
@@ -31268,7 +31268,7 @@
       </c>
       <c r="AQ331" s="3"/>
     </row>
-    <row r="332" spans="1:43">
+    <row r="332" spans="1:43" hidden="1">
       <c r="A332" s="2">
         <v>10181</v>
       </c>
@@ -31326,7 +31326,7 @@
       </c>
       <c r="AQ332" s="3"/>
     </row>
-    <row r="333" spans="1:43">
+    <row r="333" spans="1:43" hidden="1">
       <c r="A333" s="2">
         <v>10181</v>
       </c>
@@ -31384,7 +31384,7 @@
       </c>
       <c r="AQ333" s="3"/>
     </row>
-    <row r="334" spans="1:43">
+    <row r="334" spans="1:43" hidden="1">
       <c r="A334" s="2">
         <v>3151</v>
       </c>
@@ -31435,7 +31435,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="335" spans="1:43">
+    <row r="335" spans="1:43" hidden="1">
       <c r="A335" s="2">
         <v>3151</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="336" spans="1:43">
+    <row r="336" spans="1:43" hidden="1">
       <c r="A336" s="2">
         <v>3151</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="337" spans="1:43">
+    <row r="337" spans="1:43" hidden="1">
       <c r="A337" s="2">
         <v>3151</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="338" spans="1:43">
+    <row r="338" spans="1:43" hidden="1">
       <c r="A338" s="2">
         <v>3151</v>
       </c>
@@ -31651,7 +31651,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="339" spans="1:43">
+    <row r="339" spans="1:43" hidden="1">
       <c r="A339" s="2">
         <v>3151</v>
       </c>
@@ -31708,7 +31708,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="340" spans="1:43">
+    <row r="340" spans="1:43" hidden="1">
       <c r="A340" s="2">
         <v>3587</v>
       </c>
@@ -31727,7 +31727,7 @@
       </c>
       <c r="AQ340" s="3"/>
     </row>
-    <row r="341" spans="1:43">
+    <row r="341" spans="1:43" hidden="1">
       <c r="A341" s="2">
         <v>126</v>
       </c>
@@ -31746,7 +31746,7 @@
       </c>
       <c r="AQ341" s="3"/>
     </row>
-    <row r="342" spans="1:43">
+    <row r="342" spans="1:43" hidden="1">
       <c r="A342" s="2">
         <v>14665</v>
       </c>
@@ -31803,7 +31803,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="343" spans="1:43">
+    <row r="343" spans="1:43" hidden="1">
       <c r="A343" s="2">
         <v>14665</v>
       </c>
@@ -31860,7 +31860,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="344" spans="1:43">
+    <row r="344" spans="1:43" hidden="1">
       <c r="A344" s="2">
         <v>14665</v>
       </c>
@@ -31917,7 +31917,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="345" spans="1:43">
+    <row r="345" spans="1:43" hidden="1">
       <c r="A345" s="2">
         <v>14665</v>
       </c>
@@ -31974,7 +31974,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="346" spans="1:43">
+    <row r="346" spans="1:43" hidden="1">
       <c r="A346" s="2">
         <v>14665</v>
       </c>
@@ -32031,7 +32031,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="347" spans="1:43">
+    <row r="347" spans="1:43" hidden="1">
       <c r="A347" s="2">
         <v>14665</v>
       </c>
@@ -32088,7 +32088,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="348" spans="1:43">
+    <row r="348" spans="1:43" hidden="1">
       <c r="A348" s="2">
         <v>14665</v>
       </c>
@@ -32145,7 +32145,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="349" spans="1:43">
+    <row r="349" spans="1:43" hidden="1">
       <c r="A349" s="2">
         <v>14665</v>
       </c>
@@ -32202,7 +32202,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="350" spans="1:43">
+    <row r="350" spans="1:43" hidden="1">
       <c r="A350" s="2">
         <v>14665</v>
       </c>
@@ -32259,7 +32259,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="351" spans="1:43">
+    <row r="351" spans="1:43" hidden="1">
       <c r="A351" s="2">
         <v>14665</v>
       </c>
@@ -32316,7 +32316,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="352" spans="1:43">
+    <row r="352" spans="1:43" hidden="1">
       <c r="A352" s="2">
         <v>14665</v>
       </c>
@@ -32373,7 +32373,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="353" spans="1:41">
+    <row r="353" spans="1:41" hidden="1">
       <c r="A353" s="2">
         <v>14665</v>
       </c>
@@ -32430,7 +32430,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="354" spans="1:41">
+    <row r="354" spans="1:41" hidden="1">
       <c r="A354" s="2">
         <v>14665</v>
       </c>
@@ -32487,7 +32487,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="355" spans="1:41">
+    <row r="355" spans="1:41" hidden="1">
       <c r="A355" s="2">
         <v>14665</v>
       </c>
@@ -32547,7 +32547,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="356" spans="1:41" ht="15.75" customHeight="1">
+    <row r="356" spans="1:41" ht="15.75" hidden="1" customHeight="1">
       <c r="A356" s="2">
         <v>14665</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="357" spans="1:41">
+    <row r="357" spans="1:41" hidden="1">
       <c r="A357" s="2">
         <v>14665</v>
       </c>
@@ -32667,7 +32667,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="358" spans="1:41">
+    <row r="358" spans="1:41" hidden="1">
       <c r="A358" s="2">
         <v>14665</v>
       </c>
@@ -32727,7 +32727,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="359" spans="1:41">
+    <row r="359" spans="1:41" hidden="1">
       <c r="A359" s="2">
         <v>14665</v>
       </c>
@@ -32784,7 +32784,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="360" spans="1:41">
+    <row r="360" spans="1:41" hidden="1">
       <c r="A360" s="2">
         <v>14665</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="361" spans="1:41">
+    <row r="361" spans="1:41" hidden="1">
       <c r="A361" s="2">
         <v>14665</v>
       </c>
@@ -32898,7 +32898,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="362" spans="1:41">
+    <row r="362" spans="1:41" hidden="1">
       <c r="A362" s="2">
         <v>14665</v>
       </c>
@@ -32955,7 +32955,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="363" spans="1:41">
+    <row r="363" spans="1:41" hidden="1">
       <c r="A363" s="2">
         <v>14665</v>
       </c>
@@ -33009,7 +33009,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="364" spans="1:41">
+    <row r="364" spans="1:41" hidden="1">
       <c r="A364" s="2">
         <v>14665</v>
       </c>
@@ -33063,7 +33063,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="365" spans="1:41">
+    <row r="365" spans="1:41" hidden="1">
       <c r="A365" s="2">
         <v>14665</v>
       </c>
@@ -33117,7 +33117,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="366" spans="1:41">
+    <row r="366" spans="1:41" hidden="1">
       <c r="A366" s="2">
         <v>14665</v>
       </c>
@@ -33171,7 +33171,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="367" spans="1:41">
+    <row r="367" spans="1:41" hidden="1">
       <c r="A367" s="2">
         <v>2017</v>
       </c>
@@ -33228,7 +33228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:41">
+    <row r="368" spans="1:41" hidden="1">
       <c r="A368" s="2">
         <v>2017</v>
       </c>
@@ -33288,7 +33288,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="369" spans="1:43">
+    <row r="369" spans="1:43" hidden="1">
       <c r="A369" s="2">
         <v>2017</v>
       </c>
@@ -33345,7 +33345,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="370" spans="1:43">
+    <row r="370" spans="1:43" hidden="1">
       <c r="A370" s="2">
         <v>2017</v>
       </c>
@@ -33402,7 +33402,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="371" spans="1:43">
+    <row r="371" spans="1:43" hidden="1">
       <c r="A371" s="2">
         <v>2017</v>
       </c>
@@ -33459,7 +33459,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="372" spans="1:43">
+    <row r="372" spans="1:43" hidden="1">
       <c r="A372" s="2">
         <v>2017</v>
       </c>
@@ -33516,7 +33516,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="373" spans="1:43">
+    <row r="373" spans="1:43" hidden="1">
       <c r="A373" s="2">
         <v>2214</v>
       </c>
@@ -33580,7 +33580,7 @@
       </c>
       <c r="AQ373" s="3"/>
     </row>
-    <row r="374" spans="1:43">
+    <row r="374" spans="1:43" hidden="1">
       <c r="A374" s="2">
         <v>2214</v>
       </c>
@@ -33644,7 +33644,7 @@
       </c>
       <c r="AQ374" s="3"/>
     </row>
-    <row r="375" spans="1:43">
+    <row r="375" spans="1:43" hidden="1">
       <c r="A375" s="2">
         <v>2214</v>
       </c>
@@ -33708,7 +33708,7 @@
       </c>
       <c r="AQ375" s="3"/>
     </row>
-    <row r="376" spans="1:43">
+    <row r="376" spans="1:43" hidden="1">
       <c r="A376" s="2">
         <v>2214</v>
       </c>
@@ -33772,7 +33772,7 @@
       </c>
       <c r="AQ376" s="3"/>
     </row>
-    <row r="377" spans="1:43">
+    <row r="377" spans="1:43" hidden="1">
       <c r="A377" s="2">
         <v>2214</v>
       </c>
@@ -33836,7 +33836,7 @@
       </c>
       <c r="AQ377" s="3"/>
     </row>
-    <row r="378" spans="1:43">
+    <row r="378" spans="1:43" hidden="1">
       <c r="A378" s="2">
         <v>2214</v>
       </c>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="AQ378" s="3"/>
     </row>
-    <row r="379" spans="1:43">
+    <row r="379" spans="1:43" hidden="1">
       <c r="A379" s="2">
         <v>2214</v>
       </c>
@@ -33964,7 +33964,7 @@
       </c>
       <c r="AQ379" s="3"/>
     </row>
-    <row r="380" spans="1:43">
+    <row r="380" spans="1:43" hidden="1">
       <c r="A380" s="2">
         <v>2214</v>
       </c>
@@ -34028,7 +34028,7 @@
       </c>
       <c r="AQ380" s="3"/>
     </row>
-    <row r="381" spans="1:43">
+    <row r="381" spans="1:43" hidden="1">
       <c r="A381" s="2">
         <v>2214</v>
       </c>
@@ -34092,7 +34092,7 @@
       </c>
       <c r="AQ381" s="3"/>
     </row>
-    <row r="382" spans="1:43">
+    <row r="382" spans="1:43" hidden="1">
       <c r="A382" s="2">
         <v>2214</v>
       </c>
@@ -34156,7 +34156,7 @@
       </c>
       <c r="AQ382" s="3"/>
     </row>
-    <row r="383" spans="1:43">
+    <row r="383" spans="1:43" hidden="1">
       <c r="A383" s="2">
         <v>2214</v>
       </c>
@@ -34220,7 +34220,7 @@
       </c>
       <c r="AQ383" s="3"/>
     </row>
-    <row r="384" spans="1:43">
+    <row r="384" spans="1:43" hidden="1">
       <c r="A384" s="2">
         <v>2214</v>
       </c>
@@ -34284,7 +34284,7 @@
       </c>
       <c r="AQ384" s="3"/>
     </row>
-    <row r="385" spans="1:43">
+    <row r="385" spans="1:43" hidden="1">
       <c r="A385" s="2">
         <v>12081</v>
       </c>
@@ -34303,7 +34303,7 @@
       </c>
       <c r="AQ385" s="3"/>
     </row>
-    <row r="386" spans="1:43">
+    <row r="386" spans="1:43" hidden="1">
       <c r="A386" s="2">
         <v>13401</v>
       </c>
@@ -34366,7 +34366,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="387" spans="1:43">
+    <row r="387" spans="1:43" hidden="1">
       <c r="A387" s="2">
         <v>13401</v>
       </c>
@@ -34431,7 +34431,7 @@
       <c r="AP387" s="3"/>
       <c r="AQ387" s="17"/>
     </row>
-    <row r="388" spans="1:43">
+    <row r="388" spans="1:43" hidden="1">
       <c r="A388" s="2">
         <v>13401</v>
       </c>
@@ -34494,7 +34494,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="389" spans="1:43">
+    <row r="389" spans="1:43" hidden="1">
       <c r="A389" s="2">
         <v>13401</v>
       </c>
@@ -34557,7 +34557,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:43">
+    <row r="390" spans="1:43" hidden="1">
       <c r="A390" s="2">
         <v>13401</v>
       </c>
@@ -34617,7 +34617,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="391" spans="1:43">
+    <row r="391" spans="1:43" hidden="1">
       <c r="A391" s="2">
         <v>13401</v>
       </c>
@@ -34677,7 +34677,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="392" spans="1:43">
+    <row r="392" spans="1:43" hidden="1">
       <c r="A392" s="2">
         <v>13401</v>
       </c>
@@ -34737,7 +34737,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="393" spans="1:43">
+    <row r="393" spans="1:43" hidden="1">
       <c r="A393" s="2">
         <v>13401</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="394" spans="1:43">
+    <row r="394" spans="1:43" hidden="1">
       <c r="A394" s="2">
         <v>13401</v>
       </c>
@@ -34860,7 +34860,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="395" spans="1:43">
+    <row r="395" spans="1:43" hidden="1">
       <c r="A395" s="2">
         <v>13401</v>
       </c>
@@ -34923,7 +34923,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="396" spans="1:43">
+    <row r="396" spans="1:43" hidden="1">
       <c r="A396" s="2">
         <v>13401</v>
       </c>
@@ -34986,7 +34986,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="397" spans="1:43">
+    <row r="397" spans="1:43" hidden="1">
       <c r="A397" s="2">
         <v>13401</v>
       </c>
@@ -35049,7 +35049,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:43">
+    <row r="398" spans="1:43" hidden="1">
       <c r="A398" s="2">
         <v>13401</v>
       </c>
@@ -35109,7 +35109,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="399" spans="1:43">
+    <row r="399" spans="1:43" hidden="1">
       <c r="A399" s="2">
         <v>13401</v>
       </c>
@@ -35169,7 +35169,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="400" spans="1:43">
+    <row r="400" spans="1:43" hidden="1">
       <c r="A400" s="2">
         <v>13401</v>
       </c>
@@ -35229,7 +35229,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="401" spans="1:42">
+    <row r="401" spans="1:42" hidden="1">
       <c r="A401" s="2">
         <v>13401</v>
       </c>
@@ -35289,7 +35289,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="402" spans="1:42">
+    <row r="402" spans="1:42" hidden="1">
       <c r="A402" s="2">
         <v>13401</v>
       </c>
@@ -35352,7 +35352,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="403" spans="1:42">
+    <row r="403" spans="1:42" hidden="1">
       <c r="A403" s="2">
         <v>13401</v>
       </c>
@@ -35415,7 +35415,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="404" spans="1:42">
+    <row r="404" spans="1:42" hidden="1">
       <c r="A404" s="2">
         <v>13401</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="405" spans="1:42">
+    <row r="405" spans="1:42" hidden="1">
       <c r="A405" s="2">
         <v>13401</v>
       </c>
@@ -35541,7 +35541,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="406" spans="1:42">
+    <row r="406" spans="1:42" hidden="1">
       <c r="A406" s="2">
         <v>13401</v>
       </c>
@@ -35601,7 +35601,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="407" spans="1:42">
+    <row r="407" spans="1:42" hidden="1">
       <c r="A407" s="2">
         <v>13401</v>
       </c>
@@ -35661,7 +35661,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="408" spans="1:42">
+    <row r="408" spans="1:42" hidden="1">
       <c r="A408" s="2">
         <v>13401</v>
       </c>
@@ -35721,7 +35721,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="409" spans="1:42">
+    <row r="409" spans="1:42" hidden="1">
       <c r="A409" s="2">
         <v>13401</v>
       </c>
@@ -35781,7 +35781,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="410" spans="1:42">
+    <row r="410" spans="1:42" hidden="1">
       <c r="A410" s="2">
         <v>13401</v>
       </c>
@@ -35838,7 +35838,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="411" spans="1:42">
+    <row r="411" spans="1:42" hidden="1">
       <c r="A411" s="2">
         <v>13401</v>
       </c>
@@ -35892,7 +35892,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="412" spans="1:42">
+    <row r="412" spans="1:42" hidden="1">
       <c r="A412" s="2">
         <v>13401</v>
       </c>
@@ -35955,7 +35955,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="413" spans="1:42">
+    <row r="413" spans="1:42" hidden="1">
       <c r="A413" s="2">
         <v>13401</v>
       </c>
@@ -36018,7 +36018,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="414" spans="1:42">
+    <row r="414" spans="1:42" hidden="1">
       <c r="A414" s="2">
         <v>13401</v>
       </c>
@@ -36081,7 +36081,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="415" spans="1:42">
+    <row r="415" spans="1:42" hidden="1">
       <c r="A415" s="2">
         <v>13401</v>
       </c>
@@ -36144,7 +36144,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="416" spans="1:42">
+    <row r="416" spans="1:42" hidden="1">
       <c r="A416" s="2">
         <v>13401</v>
       </c>
@@ -36205,7 +36205,7 @@
       </c>
       <c r="AP416" s="13"/>
     </row>
-    <row r="417" spans="1:43">
+    <row r="417" spans="1:43" hidden="1">
       <c r="A417" s="2">
         <v>13401</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="418" spans="1:43">
+    <row r="418" spans="1:43" hidden="1">
       <c r="A418" s="2">
         <v>13401</v>
       </c>
@@ -36325,7 +36325,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="419" spans="1:43">
+    <row r="419" spans="1:43" hidden="1">
       <c r="A419" s="2">
         <v>13401</v>
       </c>
@@ -36385,7 +36385,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="420" spans="1:43">
+    <row r="420" spans="1:43" hidden="1">
       <c r="A420" s="2">
         <v>13401</v>
       </c>
@@ -36448,7 +36448,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="421" spans="1:43">
+    <row r="421" spans="1:43" hidden="1">
       <c r="A421" s="2">
         <v>13401</v>
       </c>
@@ -36511,7 +36511,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="422" spans="1:43">
+    <row r="422" spans="1:43" hidden="1">
       <c r="A422" s="2">
         <v>13401</v>
       </c>
@@ -36574,7 +36574,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="423" spans="1:43">
+    <row r="423" spans="1:43" hidden="1">
       <c r="A423" s="2">
         <v>13401</v>
       </c>
@@ -36637,7 +36637,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="424" spans="1:43">
+    <row r="424" spans="1:43" hidden="1">
       <c r="A424" s="2">
         <v>13401</v>
       </c>
@@ -36697,7 +36697,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="425" spans="1:43">
+    <row r="425" spans="1:43" hidden="1">
       <c r="A425" s="2">
         <v>13401</v>
       </c>
@@ -36757,7 +36757,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="426" spans="1:43">
+    <row r="426" spans="1:43" hidden="1">
       <c r="A426" s="2">
         <v>13401</v>
       </c>
@@ -36817,7 +36817,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="427" spans="1:43">
+    <row r="427" spans="1:43" hidden="1">
       <c r="A427" s="2">
         <v>13401</v>
       </c>
@@ -36877,7 +36877,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="428" spans="1:43">
+    <row r="428" spans="1:43" hidden="1">
       <c r="A428" s="2">
         <v>13402</v>
       </c>
@@ -36896,7 +36896,7 @@
       </c>
       <c r="AQ428" s="3"/>
     </row>
-    <row r="429" spans="1:43">
+    <row r="429" spans="1:43" hidden="1">
       <c r="A429" s="2">
         <v>4984</v>
       </c>
@@ -36918,7 +36918,7 @@
       </c>
       <c r="AQ429" s="3"/>
     </row>
-    <row r="430" spans="1:43">
+    <row r="430" spans="1:43" hidden="1">
       <c r="A430" s="2">
         <v>15837</v>
       </c>
@@ -36984,7 +36984,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="431" spans="1:43">
+    <row r="431" spans="1:43" hidden="1">
       <c r="A431" s="2">
         <v>15837</v>
       </c>
@@ -37050,7 +37050,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="432" spans="1:43">
+    <row r="432" spans="1:43" hidden="1">
       <c r="A432" s="2">
         <v>15837</v>
       </c>
@@ -37116,7 +37116,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="433" spans="1:43">
+    <row r="433" spans="1:43" hidden="1">
       <c r="A433" s="2">
         <v>5245</v>
       </c>
@@ -37177,7 +37177,7 @@
       </c>
       <c r="AQ433" s="3"/>
     </row>
-    <row r="434" spans="1:43">
+    <row r="434" spans="1:43" hidden="1">
       <c r="A434" s="2">
         <v>5245</v>
       </c>
@@ -37238,7 +37238,7 @@
       </c>
       <c r="AQ434" s="3"/>
     </row>
-    <row r="435" spans="1:43" ht="16.5" customHeight="1">
+    <row r="435" spans="1:43" ht="16.5" hidden="1" customHeight="1">
       <c r="A435" s="2">
         <v>5245</v>
       </c>
@@ -37299,7 +37299,7 @@
       </c>
       <c r="AQ435" s="3"/>
     </row>
-    <row r="436" spans="1:43">
+    <row r="436" spans="1:43" hidden="1">
       <c r="A436" s="2">
         <v>5245</v>
       </c>
@@ -37360,7 +37360,7 @@
       </c>
       <c r="AQ436" s="3"/>
     </row>
-    <row r="437" spans="1:43">
+    <row r="437" spans="1:43" hidden="1">
       <c r="A437" s="2">
         <v>5245</v>
       </c>
@@ -37421,7 +37421,7 @@
       </c>
       <c r="AQ437" s="3"/>
     </row>
-    <row r="438" spans="1:43">
+    <row r="438" spans="1:43" hidden="1">
       <c r="A438" s="2">
         <v>5245</v>
       </c>
@@ -37482,7 +37482,7 @@
       </c>
       <c r="AQ438" s="3"/>
     </row>
-    <row r="439" spans="1:43" ht="16.5" customHeight="1">
+    <row r="439" spans="1:43" ht="16.5" hidden="1" customHeight="1">
       <c r="A439" s="2">
         <v>5245</v>
       </c>
@@ -37543,7 +37543,7 @@
       </c>
       <c r="AQ439" s="3"/>
     </row>
-    <row r="440" spans="1:43">
+    <row r="440" spans="1:43" hidden="1">
       <c r="A440" s="2">
         <v>5245</v>
       </c>
@@ -37604,7 +37604,7 @@
       </c>
       <c r="AQ440" s="3"/>
     </row>
-    <row r="441" spans="1:43">
+    <row r="441" spans="1:43" hidden="1">
       <c r="A441" s="2">
         <v>5245</v>
       </c>
@@ -37665,7 +37665,7 @@
       </c>
       <c r="AQ441" s="3"/>
     </row>
-    <row r="442" spans="1:43">
+    <row r="442" spans="1:43" hidden="1">
       <c r="A442" s="2">
         <v>5245</v>
       </c>
@@ -37726,7 +37726,7 @@
       </c>
       <c r="AQ442" s="3"/>
     </row>
-    <row r="443" spans="1:43">
+    <row r="443" spans="1:43" hidden="1">
       <c r="A443" s="2">
         <v>5245</v>
       </c>
@@ -37787,7 +37787,7 @@
       </c>
       <c r="AQ443" s="3"/>
     </row>
-    <row r="444" spans="1:43">
+    <row r="444" spans="1:43" hidden="1">
       <c r="A444" s="2">
         <v>5245</v>
       </c>
@@ -37848,7 +37848,7 @@
       </c>
       <c r="AQ444" s="3"/>
     </row>
-    <row r="445" spans="1:43">
+    <row r="445" spans="1:43" hidden="1">
       <c r="A445" s="2">
         <v>4974</v>
       </c>
@@ -37867,7 +37867,7 @@
       </c>
       <c r="AQ445" s="3"/>
     </row>
-    <row r="446" spans="1:43">
+    <row r="446" spans="1:43" hidden="1">
       <c r="A446" s="2">
         <v>12412</v>
       </c>
@@ -37886,7 +37886,7 @@
       </c>
       <c r="AQ446" s="3"/>
     </row>
-    <row r="447" spans="1:43">
+    <row r="447" spans="1:43" hidden="1">
       <c r="A447" s="2">
         <v>8074</v>
       </c>
@@ -37905,7 +37905,7 @@
       </c>
       <c r="AQ447" s="3"/>
     </row>
-    <row r="448" spans="1:43">
+    <row r="448" spans="1:43" hidden="1">
       <c r="A448" s="2">
         <v>8255</v>
       </c>
@@ -37924,7 +37924,7 @@
       </c>
       <c r="AQ448" s="3"/>
     </row>
-    <row r="449" spans="1:43">
+    <row r="449" spans="1:43" hidden="1">
       <c r="A449" s="2">
         <v>5965</v>
       </c>
@@ -37987,7 +37987,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="450" spans="1:43">
+    <row r="450" spans="1:43" hidden="1">
       <c r="A450" s="2">
         <v>5965</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="451" spans="1:43">
+    <row r="451" spans="1:43" hidden="1">
       <c r="A451" s="2">
         <v>5965</v>
       </c>
@@ -38113,7 +38113,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="452" spans="1:43">
+    <row r="452" spans="1:43" hidden="1">
       <c r="A452" s="2">
         <v>90005</v>
       </c>
@@ -38167,7 +38167,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:43">
+    <row r="453" spans="1:43" hidden="1">
       <c r="A453" s="2">
         <v>15865</v>
       </c>
@@ -38186,7 +38186,7 @@
       </c>
       <c r="AQ453" s="3"/>
     </row>
-    <row r="454" spans="1:43">
+    <row r="454" spans="1:43" hidden="1">
       <c r="A454" s="2">
         <v>9466</v>
       </c>
@@ -38249,7 +38249,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="455" spans="1:43">
+    <row r="455" spans="1:43" hidden="1">
       <c r="A455" s="2">
         <v>10314</v>
       </c>
@@ -38316,7 +38316,7 @@
       </c>
       <c r="AQ455" s="3"/>
     </row>
-    <row r="456" spans="1:43">
+    <row r="456" spans="1:43" hidden="1">
       <c r="A456" s="2">
         <v>10314</v>
       </c>
@@ -38383,7 +38383,7 @@
       </c>
       <c r="AQ456" s="3"/>
     </row>
-    <row r="457" spans="1:43" ht="18.75" customHeight="1">
+    <row r="457" spans="1:43" ht="18.75" hidden="1" customHeight="1">
       <c r="A457" s="2">
         <v>10314</v>
       </c>
@@ -38450,7 +38450,7 @@
       </c>
       <c r="AQ457" s="3"/>
     </row>
-    <row r="458" spans="1:43">
+    <row r="458" spans="1:43" hidden="1">
       <c r="A458" s="2">
         <v>10314</v>
       </c>
@@ -38517,7 +38517,7 @@
       </c>
       <c r="AQ458" s="3"/>
     </row>
-    <row r="459" spans="1:43">
+    <row r="459" spans="1:43" hidden="1">
       <c r="A459" s="2">
         <v>10314</v>
       </c>
@@ -38584,7 +38584,7 @@
       </c>
       <c r="AQ459" s="3"/>
     </row>
-    <row r="460" spans="1:43">
+    <row r="460" spans="1:43" hidden="1">
       <c r="A460" s="2">
         <v>10314</v>
       </c>
@@ -38651,7 +38651,7 @@
       </c>
       <c r="AQ460" s="3"/>
     </row>
-    <row r="461" spans="1:43">
+    <row r="461" spans="1:43" hidden="1">
       <c r="A461" s="2">
         <v>13682</v>
       </c>
@@ -38670,7 +38670,7 @@
       </c>
       <c r="AQ461" s="3"/>
     </row>
-    <row r="462" spans="1:43">
+    <row r="462" spans="1:43" hidden="1">
       <c r="A462" s="2">
         <v>13716</v>
       </c>
@@ -38689,7 +38689,7 @@
       </c>
       <c r="AQ462" s="3"/>
     </row>
-    <row r="463" spans="1:43">
+    <row r="463" spans="1:43" hidden="1">
       <c r="A463" s="2">
         <v>14209</v>
       </c>
@@ -38743,7 +38743,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="464" spans="1:43">
+    <row r="464" spans="1:43" hidden="1">
       <c r="A464" s="2">
         <v>14700</v>
       </c>
@@ -38762,7 +38762,7 @@
       </c>
       <c r="AQ464" s="3"/>
     </row>
-    <row r="465" spans="1:43">
+    <row r="465" spans="1:43" hidden="1">
       <c r="A465" s="2">
         <v>13313</v>
       </c>
@@ -38822,7 +38822,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="466" spans="1:43">
+    <row r="466" spans="1:43" hidden="1">
       <c r="A466" s="2">
         <v>15476</v>
       </c>
@@ -38844,7 +38844,7 @@
       </c>
       <c r="AQ466" s="3"/>
     </row>
-    <row r="467" spans="1:43">
+    <row r="467" spans="1:43" hidden="1">
       <c r="A467" s="2">
         <v>10327</v>
       </c>
@@ -38919,7 +38919,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="468" spans="1:43">
+    <row r="468" spans="1:43" hidden="1">
       <c r="A468" s="2">
         <v>10327</v>
       </c>
@@ -38994,7 +38994,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="469" spans="1:43">
+    <row r="469" spans="1:43" hidden="1">
       <c r="A469" s="2">
         <v>10327</v>
       </c>
@@ -39069,7 +39069,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="470" spans="1:43">
+    <row r="470" spans="1:43" hidden="1">
       <c r="A470" s="2">
         <v>10327</v>
       </c>
@@ -39144,7 +39144,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="471" spans="1:43">
+    <row r="471" spans="1:43" hidden="1">
       <c r="A471" s="2">
         <v>10327</v>
       </c>
@@ -39219,7 +39219,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="472" spans="1:43">
+    <row r="472" spans="1:43" hidden="1">
       <c r="A472" s="2">
         <v>10327</v>
       </c>
@@ -39294,7 +39294,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="473" spans="1:43">
+    <row r="473" spans="1:43" hidden="1">
       <c r="A473" s="2">
         <v>10327</v>
       </c>
@@ -39369,7 +39369,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="474" spans="1:43">
+    <row r="474" spans="1:43" hidden="1">
       <c r="A474" s="2">
         <v>10327</v>
       </c>
@@ -39444,7 +39444,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="475" spans="1:43">
+    <row r="475" spans="1:43" hidden="1">
       <c r="A475" s="2">
         <v>2149</v>
       </c>
@@ -39463,7 +39463,7 @@
       </c>
       <c r="AQ475" s="3"/>
     </row>
-    <row r="476" spans="1:43">
+    <row r="476" spans="1:43" hidden="1">
       <c r="A476" s="2">
         <v>6850</v>
       </c>
@@ -39497,7 +39497,7 @@
       </c>
       <c r="AQ476" s="3"/>
     </row>
-    <row r="477" spans="1:43">
+    <row r="477" spans="1:43" hidden="1">
       <c r="A477" s="2">
         <v>1951</v>
       </c>
@@ -39570,7 +39570,7 @@
       </c>
       <c r="AQ477" s="3"/>
     </row>
-    <row r="478" spans="1:43">
+    <row r="478" spans="1:43" hidden="1">
       <c r="A478" s="2">
         <v>1951</v>
       </c>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="AQ478" s="3"/>
     </row>
-    <row r="479" spans="1:43">
+    <row r="479" spans="1:43" hidden="1">
       <c r="A479" s="2">
         <v>1951</v>
       </c>
@@ -39716,7 +39716,7 @@
       </c>
       <c r="AQ479" s="3"/>
     </row>
-    <row r="480" spans="1:43">
+    <row r="480" spans="1:43" hidden="1">
       <c r="A480" s="2">
         <v>1951</v>
       </c>
@@ -39789,7 +39789,7 @@
       </c>
       <c r="AQ480" s="3"/>
     </row>
-    <row r="481" spans="1:43">
+    <row r="481" spans="1:43" hidden="1">
       <c r="A481" s="2">
         <v>1951</v>
       </c>
@@ -39919,7 +39919,7 @@
         <v>6.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:43">
+    <row r="483" spans="1:43" hidden="1">
       <c r="A483" s="2">
         <v>12134</v>
       </c>
@@ -39985,7 +39985,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="484" spans="1:43">
+    <row r="484" spans="1:43" hidden="1">
       <c r="A484" s="2">
         <v>12134</v>
       </c>
@@ -40051,7 +40051,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="485" spans="1:43">
+    <row r="485" spans="1:43" hidden="1">
       <c r="A485" s="2">
         <v>12134</v>
       </c>
@@ -40117,7 +40117,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="486" spans="1:43">
+    <row r="486" spans="1:43" hidden="1">
       <c r="A486" s="2">
         <v>3588</v>
       </c>
@@ -40139,7 +40139,7 @@
       </c>
       <c r="AQ486" s="3"/>
     </row>
-    <row r="487" spans="1:43">
+    <row r="487" spans="1:43" hidden="1">
       <c r="A487" s="2">
         <v>1658</v>
       </c>
@@ -40212,7 +40212,7 @@
       </c>
       <c r="AQ487" s="3"/>
     </row>
-    <row r="488" spans="1:43">
+    <row r="488" spans="1:43" hidden="1">
       <c r="A488" s="2">
         <v>1658</v>
       </c>
@@ -40285,7 +40285,7 @@
       </c>
       <c r="AQ488" s="3"/>
     </row>
-    <row r="489" spans="1:43">
+    <row r="489" spans="1:43" hidden="1">
       <c r="A489" s="2">
         <v>2140</v>
       </c>
@@ -40358,7 +40358,7 @@
       </c>
       <c r="AQ489" s="3"/>
     </row>
-    <row r="490" spans="1:43">
+    <row r="490" spans="1:43" hidden="1">
       <c r="A490" s="2">
         <v>2140</v>
       </c>
@@ -40431,7 +40431,7 @@
       </c>
       <c r="AQ490" s="3"/>
     </row>
-    <row r="491" spans="1:43">
+    <row r="491" spans="1:43" hidden="1">
       <c r="A491" s="2">
         <v>2140</v>
       </c>
@@ -40501,7 +40501,7 @@
       </c>
       <c r="AQ491" s="3"/>
     </row>
-    <row r="492" spans="1:43">
+    <row r="492" spans="1:43" hidden="1">
       <c r="A492" s="2">
         <v>2140</v>
       </c>
@@ -40571,7 +40571,7 @@
       </c>
       <c r="AQ492" s="3"/>
     </row>
-    <row r="493" spans="1:43">
+    <row r="493" spans="1:43" hidden="1">
       <c r="A493" s="2">
         <v>2140</v>
       </c>
@@ -40644,7 +40644,7 @@
       </c>
       <c r="AQ493" s="3"/>
     </row>
-    <row r="494" spans="1:43">
+    <row r="494" spans="1:43" hidden="1">
       <c r="A494" s="2">
         <v>2140</v>
       </c>
@@ -40717,7 +40717,7 @@
       </c>
       <c r="AQ494" s="3"/>
     </row>
-    <row r="495" spans="1:43">
+    <row r="495" spans="1:43" hidden="1">
       <c r="A495" s="2">
         <v>2140</v>
       </c>
@@ -40787,7 +40787,7 @@
       </c>
       <c r="AQ495" s="3"/>
     </row>
-    <row r="496" spans="1:43">
+    <row r="496" spans="1:43" hidden="1">
       <c r="A496" s="2">
         <v>2140</v>
       </c>
@@ -40860,7 +40860,7 @@
       </c>
       <c r="AQ496" s="3"/>
     </row>
-    <row r="497" spans="1:43">
+    <row r="497" spans="1:43" hidden="1">
       <c r="A497" s="2">
         <v>2140</v>
       </c>
@@ -40933,7 +40933,7 @@
       </c>
       <c r="AQ497" s="3"/>
     </row>
-    <row r="498" spans="1:43">
+    <row r="498" spans="1:43" hidden="1">
       <c r="A498" s="2">
         <v>2140</v>
       </c>
@@ -41003,7 +41003,7 @@
       </c>
       <c r="AQ498" s="3"/>
     </row>
-    <row r="499" spans="1:43">
+    <row r="499" spans="1:43" hidden="1">
       <c r="A499" s="2">
         <v>2140</v>
       </c>
@@ -41073,7 +41073,7 @@
       </c>
       <c r="AQ499" s="3"/>
     </row>
-    <row r="500" spans="1:43">
+    <row r="500" spans="1:43" hidden="1">
       <c r="A500" s="2">
         <v>2140</v>
       </c>
@@ -41146,7 +41146,7 @@
       </c>
       <c r="AQ500" s="3"/>
     </row>
-    <row r="501" spans="1:43">
+    <row r="501" spans="1:43" hidden="1">
       <c r="A501" s="2">
         <v>2140</v>
       </c>
@@ -41219,7 +41219,7 @@
       </c>
       <c r="AQ501" s="3"/>
     </row>
-    <row r="502" spans="1:43">
+    <row r="502" spans="1:43" hidden="1">
       <c r="A502" s="2">
         <v>2140</v>
       </c>
@@ -41289,7 +41289,7 @@
       </c>
       <c r="AQ502" s="3"/>
     </row>
-    <row r="503" spans="1:43">
+    <row r="503" spans="1:43" hidden="1">
       <c r="A503" s="2">
         <v>2140</v>
       </c>
@@ -41362,7 +41362,7 @@
       </c>
       <c r="AQ503" s="3"/>
     </row>
-    <row r="504" spans="1:43">
+    <row r="504" spans="1:43" hidden="1">
       <c r="A504" s="2">
         <v>2140</v>
       </c>
@@ -41435,7 +41435,7 @@
       </c>
       <c r="AQ504" s="3"/>
     </row>
-    <row r="505" spans="1:43">
+    <row r="505" spans="1:43" hidden="1">
       <c r="A505" s="2">
         <v>2140</v>
       </c>
@@ -41505,7 +41505,7 @@
       </c>
       <c r="AQ505" s="3"/>
     </row>
-    <row r="506" spans="1:43">
+    <row r="506" spans="1:43" hidden="1">
       <c r="A506" s="2">
         <v>2140</v>
       </c>
@@ -41575,7 +41575,7 @@
       </c>
       <c r="AQ506" s="3"/>
     </row>
-    <row r="507" spans="1:43">
+    <row r="507" spans="1:43" hidden="1">
       <c r="A507" s="2">
         <v>2140</v>
       </c>
@@ -41648,7 +41648,7 @@
       </c>
       <c r="AQ507" s="3"/>
     </row>
-    <row r="508" spans="1:43">
+    <row r="508" spans="1:43" hidden="1">
       <c r="A508" s="2">
         <v>2140</v>
       </c>
@@ -41721,7 +41721,7 @@
       </c>
       <c r="AQ508" s="3"/>
     </row>
-    <row r="509" spans="1:43">
+    <row r="509" spans="1:43" hidden="1">
       <c r="A509" s="2">
         <v>2140</v>
       </c>
@@ -41791,7 +41791,7 @@
       </c>
       <c r="AQ509" s="3"/>
     </row>
-    <row r="510" spans="1:43">
+    <row r="510" spans="1:43" hidden="1">
       <c r="A510" s="2">
         <v>2140</v>
       </c>
@@ -41864,7 +41864,7 @@
       </c>
       <c r="AQ510" s="3"/>
     </row>
-    <row r="511" spans="1:43">
+    <row r="511" spans="1:43" hidden="1">
       <c r="A511" s="2">
         <v>2140</v>
       </c>
@@ -41937,7 +41937,7 @@
       </c>
       <c r="AQ511" s="3"/>
     </row>
-    <row r="512" spans="1:43">
+    <row r="512" spans="1:43" hidden="1">
       <c r="A512" s="2">
         <v>2140</v>
       </c>
@@ -42007,7 +42007,7 @@
       </c>
       <c r="AQ512" s="3"/>
     </row>
-    <row r="513" spans="1:43">
+    <row r="513" spans="1:43" hidden="1">
       <c r="A513" s="2">
         <v>2140</v>
       </c>
@@ -42077,7 +42077,7 @@
       </c>
       <c r="AQ513" s="3"/>
     </row>
-    <row r="514" spans="1:43">
+    <row r="514" spans="1:43" hidden="1">
       <c r="A514" s="2">
         <v>2140</v>
       </c>
@@ -42150,7 +42150,7 @@
       </c>
       <c r="AQ514" s="3"/>
     </row>
-    <row r="515" spans="1:43">
+    <row r="515" spans="1:43" hidden="1">
       <c r="A515" s="2">
         <v>2140</v>
       </c>
@@ -42223,7 +42223,7 @@
       </c>
       <c r="AQ515" s="3"/>
     </row>
-    <row r="516" spans="1:43">
+    <row r="516" spans="1:43" hidden="1">
       <c r="A516" s="2">
         <v>2140</v>
       </c>
@@ -42293,7 +42293,7 @@
       </c>
       <c r="AQ516" s="3"/>
     </row>
-    <row r="517" spans="1:43">
+    <row r="517" spans="1:43" hidden="1">
       <c r="A517" s="2">
         <v>10287</v>
       </c>
@@ -42312,7 +42312,7 @@
       </c>
       <c r="AQ517" s="3"/>
     </row>
-    <row r="518" spans="1:43">
+    <row r="518" spans="1:43" hidden="1">
       <c r="A518" s="2">
         <v>10460</v>
       </c>
@@ -42331,7 +42331,7 @@
       </c>
       <c r="AQ518" s="3"/>
     </row>
-    <row r="519" spans="1:43">
+    <row r="519" spans="1:43" hidden="1">
       <c r="A519" s="2">
         <v>9944</v>
       </c>
@@ -42350,7 +42350,7 @@
       </c>
       <c r="AQ519" s="3"/>
     </row>
-    <row r="520" spans="1:43">
+    <row r="520" spans="1:43" hidden="1">
       <c r="A520" s="2">
         <v>90001</v>
       </c>
@@ -42423,7 +42423,7 @@
       </c>
       <c r="AQ520" s="3"/>
     </row>
-    <row r="521" spans="1:43">
+    <row r="521" spans="1:43" hidden="1">
       <c r="A521" s="2">
         <v>10288</v>
       </c>
@@ -42487,7 +42487,7 @@
       </c>
       <c r="AQ521" s="3"/>
     </row>
-    <row r="522" spans="1:43">
+    <row r="522" spans="1:43" hidden="1">
       <c r="A522" s="2">
         <v>14271</v>
       </c>
@@ -42506,7 +42506,7 @@
       </c>
       <c r="AQ522" s="3"/>
     </row>
-    <row r="523" spans="1:43">
+    <row r="523" spans="1:43" hidden="1">
       <c r="A523" s="2">
         <v>8467</v>
       </c>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="AQ523" s="3"/>
     </row>
-    <row r="524" spans="1:43">
+    <row r="524" spans="1:43" hidden="1">
       <c r="A524" s="2">
         <v>8467</v>
       </c>
@@ -42574,7 +42574,7 @@
       </c>
       <c r="AQ524" s="3"/>
     </row>
-    <row r="525" spans="1:43">
+    <row r="525" spans="1:43" hidden="1">
       <c r="A525" s="2">
         <v>14755</v>
       </c>
@@ -42631,7 +42631,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:43">
+    <row r="526" spans="1:43" hidden="1">
       <c r="A526" s="2">
         <v>14755</v>
       </c>
@@ -42688,7 +42688,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:43">
+    <row r="527" spans="1:43" hidden="1">
       <c r="A527" s="2">
         <v>14755</v>
       </c>
@@ -42748,7 +42748,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="528" spans="1:43">
+    <row r="528" spans="1:43" hidden="1">
       <c r="A528" s="2">
         <v>90002</v>
       </c>
@@ -42806,7 +42806,7 @@
       </c>
       <c r="AQ528" s="3"/>
     </row>
-    <row r="529" spans="1:43">
+    <row r="529" spans="1:43" hidden="1">
       <c r="A529" s="2">
         <v>90002</v>
       </c>
@@ -42864,7 +42864,7 @@
       </c>
       <c r="AQ529" s="3"/>
     </row>
-    <row r="530" spans="1:43">
+    <row r="530" spans="1:43" hidden="1">
       <c r="A530" s="2">
         <v>90002</v>
       </c>
@@ -42922,7 +42922,7 @@
       </c>
       <c r="AQ530" s="3"/>
     </row>
-    <row r="531" spans="1:43">
+    <row r="531" spans="1:43" hidden="1">
       <c r="A531" s="2">
         <v>90002</v>
       </c>
@@ -42980,7 +42980,7 @@
       </c>
       <c r="AQ531" s="3"/>
     </row>
-    <row r="532" spans="1:43">
+    <row r="532" spans="1:43" hidden="1">
       <c r="A532" s="2">
         <v>90002</v>
       </c>
@@ -43038,7 +43038,7 @@
       </c>
       <c r="AQ532" s="3"/>
     </row>
-    <row r="533" spans="1:43">
+    <row r="533" spans="1:43" hidden="1">
       <c r="A533" s="2">
         <v>90002</v>
       </c>
@@ -43096,7 +43096,7 @@
       </c>
       <c r="AQ533" s="3"/>
     </row>
-    <row r="534" spans="1:43">
+    <row r="534" spans="1:43" hidden="1">
       <c r="A534" s="2">
         <v>90002</v>
       </c>
@@ -43154,7 +43154,7 @@
       </c>
       <c r="AQ534" s="3"/>
     </row>
-    <row r="535" spans="1:43">
+    <row r="535" spans="1:43" hidden="1">
       <c r="A535" s="2">
         <v>90002</v>
       </c>
@@ -43275,7 +43275,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="537" spans="1:43">
+    <row r="537" spans="1:43" hidden="1">
       <c r="A537" s="2">
         <v>5397</v>
       </c>
@@ -43332,7 +43332,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="538" spans="1:43">
+    <row r="538" spans="1:43" hidden="1">
       <c r="A538" s="2">
         <v>5397</v>
       </c>
@@ -43392,7 +43392,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="539" spans="1:43">
+    <row r="539" spans="1:43" hidden="1">
       <c r="A539" s="2">
         <v>5397</v>
       </c>
@@ -43452,7 +43452,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="540" spans="1:43">
+    <row r="540" spans="1:43" hidden="1">
       <c r="A540" s="2">
         <v>3232</v>
       </c>
@@ -43525,7 +43525,7 @@
       </c>
       <c r="AQ540" s="3"/>
     </row>
-    <row r="541" spans="1:43">
+    <row r="541" spans="1:43" hidden="1">
       <c r="A541" s="2">
         <v>3232</v>
       </c>
@@ -43598,7 +43598,7 @@
       </c>
       <c r="AQ541" s="3"/>
     </row>
-    <row r="542" spans="1:43">
+    <row r="542" spans="1:43" hidden="1">
       <c r="A542" s="2">
         <v>3232</v>
       </c>
@@ -43671,7 +43671,7 @@
       </c>
       <c r="AQ542" s="3"/>
     </row>
-    <row r="543" spans="1:43">
+    <row r="543" spans="1:43" hidden="1">
       <c r="A543" s="2">
         <v>12093</v>
       </c>
@@ -43716,7 +43716,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="544" spans="1:43">
+    <row r="544" spans="1:43" hidden="1">
       <c r="A544" s="2">
         <v>12093</v>
       </c>
@@ -43761,7 +43761,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="545" spans="1:43">
+    <row r="545" spans="1:43" hidden="1">
       <c r="A545" s="2">
         <v>12093</v>
       </c>
@@ -43806,7 +43806,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="546" spans="1:43">
+    <row r="546" spans="1:43" hidden="1">
       <c r="A546" s="2">
         <v>12093</v>
       </c>
@@ -43851,7 +43851,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="547" spans="1:43">
+    <row r="547" spans="1:43" hidden="1">
       <c r="A547" s="2">
         <v>14333</v>
       </c>
@@ -43873,7 +43873,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS547" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}"/>
+  <autoFilter ref="A1:AS547" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NRSE"/>
+        <filter val="NRSI"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Statin - Ever"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="35">
+      <filters>
+        <filter val="OR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="T12">
     <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C12="D"</formula>
@@ -43928,11 +43945,11 @@
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" style="2"/>
+    <col min="12" max="12" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -49133,9 +49150,9 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49305,7 +49322,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="58">
       <c r="A13" t="s">
         <v>839</v>
       </c>
@@ -49385,7 +49402,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="45">
+    <row r="20" spans="2:11" ht="43.5">
       <c r="B20" s="8" t="s">
         <v>756</v>
       </c>
@@ -49627,7 +49644,7 @@
     </row>
     <row r="61" spans="4:11">
       <c r="D61" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="62" spans="4:11">
@@ -49668,12 +49685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/data/sys-rev/data_extraction_main.xlsx
+++ b/data/sys-rev/data_extraction_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7890" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A656555-9A6C-4152-A883-288FE58ECAC4}"/>
+  <xr:revisionPtr revIDLastSave="7892" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB860616-0246-4D97-921C-1FF52F56B09D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -6126,8 +6126,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView topLeftCell="R81" workbookViewId="0">
-      <selection activeCell="S90" sqref="S90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62:S123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12496,11 +12496,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S148" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S148">
-      <sortCondition ref="A1:A148"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:S148" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S148">
     <sortCondition ref="P2:P148"/>
     <sortCondition ref="B2:B148"/>
@@ -12540,7 +12536,7 @@
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:AR547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AL482" sqref="AL482"/>
     </sheetView>
   </sheetViews>

--- a/data/sys-rev/data_extraction_main.xlsx
+++ b/data/sys-rev/data_extraction_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7892" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB860616-0246-4D97-921C-1FF52F56B09D}"/>
+  <xr:revisionPtr revIDLastSave="7893" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF9C26E-5672-4A58-A4F3-1E48B597EB90}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -6126,21 +6126,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S62" sqref="S62:S123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="7" width="20.1796875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="5" max="7" width="20.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
     <col min="13" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="137.81640625" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" customWidth="1"/>
+    <col min="17" max="17" width="137.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="19" customFormat="1">
@@ -12533,36 +12533,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AR547"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AL482" sqref="AL482"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="15.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="15.7265625" style="13" customWidth="1"/>
-    <col min="11" max="13" width="15.7265625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="18.1796875" style="13" customWidth="1"/>
-    <col min="21" max="24" width="15.7265625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15.7265625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" style="13" customWidth="1"/>
+    <col min="11" max="13" width="15.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="18.140625" style="13" customWidth="1"/>
+    <col min="21" max="24" width="15.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="4" customWidth="1"/>
     <col min="26" max="26" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="15.7265625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="15.7265625" style="3" customWidth="1"/>
-    <col min="37" max="37" width="15.7265625" style="13" customWidth="1"/>
-    <col min="38" max="42" width="15.7265625" style="2" customWidth="1"/>
-    <col min="43" max="43" width="15.7265625" style="15" customWidth="1"/>
-    <col min="44" max="44" width="15.7265625" style="13" customWidth="1"/>
-    <col min="45" max="16384" width="9.1796875" style="2"/>
+    <col min="27" max="35" width="15.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" style="13" customWidth="1"/>
+    <col min="38" max="42" width="15.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="15.7109375" style="15" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" style="13" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="43.5">
+    <row r="1" spans="1:44" ht="45">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:44" hidden="1">
+    <row r="2" spans="1:44">
       <c r="A2" s="2">
         <v>10563</v>
       </c>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="AQ2" s="3"/>
     </row>
-    <row r="3" spans="1:44" hidden="1">
+    <row r="3" spans="1:44">
       <c r="A3" s="2">
         <v>7222</v>
       </c>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="AQ3" s="3"/>
     </row>
-    <row r="4" spans="1:44" hidden="1">
+    <row r="4" spans="1:44">
       <c r="A4" s="2">
         <v>9429</v>
       </c>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="AR4" s="17"/>
     </row>
-    <row r="5" spans="1:44" hidden="1">
+    <row r="5" spans="1:44">
       <c r="A5" s="2">
         <v>9429</v>
       </c>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="AR5" s="17"/>
     </row>
-    <row r="6" spans="1:44" hidden="1">
+    <row r="6" spans="1:44">
       <c r="A6" s="2">
         <v>9429</v>
       </c>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="AR6" s="17"/>
     </row>
-    <row r="7" spans="1:44" hidden="1">
+    <row r="7" spans="1:44">
       <c r="A7" s="2">
         <v>9429</v>
       </c>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="AR7" s="17"/>
     </row>
-    <row r="8" spans="1:44" hidden="1">
+    <row r="8" spans="1:44">
       <c r="A8" s="2">
         <v>9429</v>
       </c>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="AR8" s="17"/>
     </row>
-    <row r="9" spans="1:44" hidden="1">
+    <row r="9" spans="1:44">
       <c r="A9" s="2">
         <v>9429</v>
       </c>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="AR9" s="17"/>
     </row>
-    <row r="10" spans="1:44" hidden="1">
+    <row r="10" spans="1:44">
       <c r="A10" s="2">
         <v>9429</v>
       </c>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="AR10" s="17"/>
     </row>
-    <row r="11" spans="1:44" hidden="1">
+    <row r="11" spans="1:44">
       <c r="A11" s="2">
         <v>9429</v>
       </c>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="AR11" s="17"/>
     </row>
-    <row r="12" spans="1:44" hidden="1">
+    <row r="12" spans="1:44">
       <c r="A12" s="2">
         <v>14346</v>
       </c>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:44" hidden="1">
+    <row r="13" spans="1:44">
       <c r="A13" s="2">
         <v>14346</v>
       </c>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:44" hidden="1">
+    <row r="14" spans="1:44">
       <c r="A14" s="2">
         <v>14346</v>
       </c>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:44" hidden="1">
+    <row r="15" spans="1:44">
       <c r="A15" s="2">
         <v>14346</v>
       </c>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:44" hidden="1">
+    <row r="16" spans="1:44">
       <c r="A16" s="2">
         <v>14346</v>
       </c>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:44" hidden="1">
+    <row r="17" spans="1:44">
       <c r="A17" s="2">
         <v>14346</v>
       </c>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="AR17" s="11"/>
     </row>
-    <row r="18" spans="1:44" hidden="1">
+    <row r="18" spans="1:44">
       <c r="A18" s="2">
         <v>14346</v>
       </c>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="AR18" s="11"/>
     </row>
-    <row r="19" spans="1:44" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:44" ht="14.25" customHeight="1">
       <c r="A19" s="2">
         <v>14346</v>
       </c>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="AR19" s="11"/>
     </row>
-    <row r="20" spans="1:44" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:44" ht="14.25" customHeight="1">
       <c r="A20" s="2">
         <v>14346</v>
       </c>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="AR20" s="11"/>
     </row>
-    <row r="21" spans="1:44" hidden="1">
+    <row r="21" spans="1:44">
       <c r="A21" s="2">
         <v>14346</v>
       </c>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="AR21" s="11"/>
     </row>
-    <row r="22" spans="1:44" hidden="1">
+    <row r="22" spans="1:44">
       <c r="A22" s="2">
         <v>14346</v>
       </c>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="AR22" s="11"/>
     </row>
-    <row r="23" spans="1:44" hidden="1">
+    <row r="23" spans="1:44">
       <c r="A23" s="2">
         <v>14346</v>
       </c>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="AR23" s="11"/>
     </row>
-    <row r="24" spans="1:44" hidden="1">
+    <row r="24" spans="1:44">
       <c r="A24" s="2">
         <v>14346</v>
       </c>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="AR24" s="11"/>
     </row>
-    <row r="25" spans="1:44" hidden="1">
+    <row r="25" spans="1:44">
       <c r="A25" s="2">
         <v>14346</v>
       </c>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="AR25" s="11"/>
     </row>
-    <row r="26" spans="1:44" hidden="1">
+    <row r="26" spans="1:44">
       <c r="A26" s="2">
         <v>14346</v>
       </c>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="AR26" s="11"/>
     </row>
-    <row r="27" spans="1:44" hidden="1">
+    <row r="27" spans="1:44">
       <c r="A27" s="2">
         <v>14346</v>
       </c>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="AR27" s="11"/>
     </row>
-    <row r="28" spans="1:44" hidden="1">
+    <row r="28" spans="1:44">
       <c r="A28" s="2">
         <v>14346</v>
       </c>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="AR28" s="11"/>
     </row>
-    <row r="29" spans="1:44" hidden="1">
+    <row r="29" spans="1:44">
       <c r="A29" s="2">
         <v>14346</v>
       </c>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="AR29" s="11"/>
     </row>
-    <row r="30" spans="1:44" hidden="1">
+    <row r="30" spans="1:44">
       <c r="A30" s="2">
         <v>14346</v>
       </c>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="AR30" s="11"/>
     </row>
-    <row r="31" spans="1:44" hidden="1">
+    <row r="31" spans="1:44">
       <c r="A31" s="2">
         <v>14346</v>
       </c>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="AR31" s="11"/>
     </row>
-    <row r="32" spans="1:44" hidden="1">
+    <row r="32" spans="1:44">
       <c r="A32" s="2">
         <v>14346</v>
       </c>
@@ -14550,7 +14550,7 @@
       </c>
       <c r="AR32" s="11"/>
     </row>
-    <row r="33" spans="1:44" hidden="1">
+    <row r="33" spans="1:44">
       <c r="A33" s="2">
         <v>14346</v>
       </c>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="AR33" s="11"/>
     </row>
-    <row r="34" spans="1:44" hidden="1">
+    <row r="34" spans="1:44">
       <c r="A34" s="2">
         <v>14346</v>
       </c>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="AR34" s="11"/>
     </row>
-    <row r="35" spans="1:44" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:44" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>90004</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:44" hidden="1">
+    <row r="36" spans="1:44">
       <c r="A36" s="2">
         <v>90004</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:44" hidden="1">
+    <row r="37" spans="1:44">
       <c r="A37" s="2">
         <v>90004</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:44" hidden="1">
+    <row r="38" spans="1:44">
       <c r="A38" s="2">
         <v>90004</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:44" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:44" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>14761</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="40" spans="1:44" hidden="1">
+    <row r="40" spans="1:44">
       <c r="A40" s="2">
         <v>14761</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="41" spans="1:44" hidden="1">
+    <row r="41" spans="1:44">
       <c r="A41" s="2">
         <v>14761</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="42" spans="1:44" hidden="1">
+    <row r="42" spans="1:44">
       <c r="A42" s="2">
         <v>10454</v>
       </c>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="AQ42" s="3"/>
     </row>
-    <row r="43" spans="1:44" hidden="1">
+    <row r="43" spans="1:44">
       <c r="A43" s="2">
         <v>10454</v>
       </c>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="AQ43" s="3"/>
     </row>
-    <row r="44" spans="1:44" hidden="1">
+    <row r="44" spans="1:44">
       <c r="A44" s="2">
         <v>9740</v>
       </c>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="AQ44" s="3"/>
     </row>
-    <row r="45" spans="1:44" hidden="1">
+    <row r="45" spans="1:44">
       <c r="A45" s="2">
         <v>9740</v>
       </c>
@@ -15354,7 +15354,7 @@
       </c>
       <c r="AQ45" s="3"/>
     </row>
-    <row r="46" spans="1:44" hidden="1">
+    <row r="46" spans="1:44">
       <c r="A46" s="2">
         <v>9740</v>
       </c>
@@ -15424,7 +15424,7 @@
       </c>
       <c r="AQ46" s="3"/>
     </row>
-    <row r="47" spans="1:44" hidden="1">
+    <row r="47" spans="1:44">
       <c r="A47" s="2">
         <v>9740</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="48" spans="1:44" hidden="1">
+    <row r="48" spans="1:44">
       <c r="A48" s="2">
         <v>9740</v>
       </c>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="AQ48" s="3"/>
     </row>
-    <row r="49" spans="1:43" hidden="1">
+    <row r="49" spans="1:43">
       <c r="A49" s="2">
         <v>9740</v>
       </c>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="AQ49" s="3"/>
     </row>
-    <row r="50" spans="1:43" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:43" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>9740</v>
       </c>
@@ -15694,7 +15694,7 @@
       </c>
       <c r="AQ50" s="3"/>
     </row>
-    <row r="51" spans="1:43" hidden="1">
+    <row r="51" spans="1:43">
       <c r="A51" s="2">
         <v>9740</v>
       </c>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="AQ51" s="3"/>
     </row>
-    <row r="52" spans="1:43" hidden="1">
+    <row r="52" spans="1:43">
       <c r="A52" s="2">
         <v>9740</v>
       </c>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="AQ52" s="3"/>
     </row>
-    <row r="53" spans="1:43" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:43" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>9740</v>
       </c>
@@ -15895,7 +15895,7 @@
       </c>
       <c r="AQ53" s="3"/>
     </row>
-    <row r="54" spans="1:43" hidden="1">
+    <row r="54" spans="1:43">
       <c r="A54" s="2">
         <v>9740</v>
       </c>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="AQ54" s="3"/>
     </row>
-    <row r="55" spans="1:43" hidden="1">
+    <row r="55" spans="1:43">
       <c r="A55" s="2">
         <v>9740</v>
       </c>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="AQ55" s="3"/>
     </row>
-    <row r="56" spans="1:43" hidden="1">
+    <row r="56" spans="1:43">
       <c r="A56" s="2">
         <v>9740</v>
       </c>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="AQ56" s="3"/>
     </row>
-    <row r="57" spans="1:43" hidden="1">
+    <row r="57" spans="1:43">
       <c r="A57" s="2">
         <v>9740</v>
       </c>
@@ -16163,7 +16163,7 @@
       </c>
       <c r="AQ57" s="3"/>
     </row>
-    <row r="58" spans="1:43" hidden="1">
+    <row r="58" spans="1:43">
       <c r="A58" s="2">
         <v>9740</v>
       </c>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="AQ58" s="3"/>
     </row>
-    <row r="59" spans="1:43" hidden="1">
+    <row r="59" spans="1:43">
       <c r="A59" s="2">
         <v>9740</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="60" spans="1:43" hidden="1">
+    <row r="60" spans="1:43">
       <c r="A60" s="2">
         <v>9740</v>
       </c>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="AQ60" s="3"/>
     </row>
-    <row r="61" spans="1:43" hidden="1">
+    <row r="61" spans="1:43">
       <c r="A61" s="2">
         <v>9740</v>
       </c>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="AQ61" s="3"/>
     </row>
-    <row r="62" spans="1:43" hidden="1">
+    <row r="62" spans="1:43">
       <c r="A62" s="2">
         <v>9740</v>
       </c>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="AQ62" s="3"/>
     </row>
-    <row r="63" spans="1:43" hidden="1">
+    <row r="63" spans="1:43">
       <c r="A63" s="2">
         <v>14763</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="64" spans="1:43" hidden="1">
+    <row r="64" spans="1:43">
       <c r="A64" s="2">
         <v>14763</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="65" spans="1:43" hidden="1">
+    <row r="65" spans="1:43">
       <c r="A65" s="2">
         <v>14763</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="66" spans="1:43" hidden="1">
+    <row r="66" spans="1:43">
       <c r="A66" s="2">
         <v>14763</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="67" spans="1:43" hidden="1">
+    <row r="67" spans="1:43">
       <c r="A67" s="2">
         <v>14763</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="68" spans="1:43" hidden="1">
+    <row r="68" spans="1:43">
       <c r="A68" s="2">
         <v>14763</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="69" spans="1:43" hidden="1">
+    <row r="69" spans="1:43">
       <c r="A69" s="2">
         <v>14763</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="70" spans="1:43" hidden="1">
+    <row r="70" spans="1:43">
       <c r="A70" s="2">
         <v>14763</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="71" spans="1:43" hidden="1">
+    <row r="71" spans="1:43">
       <c r="A71" s="2">
         <v>14763</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="72" spans="1:43" hidden="1">
+    <row r="72" spans="1:43">
       <c r="A72" s="2">
         <v>14763</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:43" hidden="1">
+    <row r="73" spans="1:43">
       <c r="A73" s="2">
         <v>14763</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="74" spans="1:43" hidden="1">
+    <row r="74" spans="1:43">
       <c r="A74" s="2">
         <v>14763</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="75" spans="1:43" hidden="1">
+    <row r="75" spans="1:43">
       <c r="A75" s="2">
         <v>14763</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="76" spans="1:43" hidden="1">
+    <row r="76" spans="1:43">
       <c r="A76" s="2">
         <v>14763</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="77" spans="1:43" hidden="1">
+    <row r="77" spans="1:43">
       <c r="A77" s="2">
         <v>14709</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="78" spans="1:43" hidden="1">
+    <row r="78" spans="1:43">
       <c r="A78" s="2">
         <v>14709</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="79" spans="1:43" hidden="1">
+    <row r="79" spans="1:43">
       <c r="A79" s="2">
         <v>14709</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="80" spans="1:43" hidden="1">
+    <row r="80" spans="1:43">
       <c r="A80" s="2">
         <v>14709</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="81" spans="1:43" hidden="1">
+    <row r="81" spans="1:43">
       <c r="A81" s="2">
         <v>14709</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="82" spans="1:43" hidden="1">
+    <row r="82" spans="1:43">
       <c r="A82" s="2">
         <v>5046</v>
       </c>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="AQ82" s="3"/>
     </row>
-    <row r="83" spans="1:43" hidden="1">
+    <row r="83" spans="1:43">
       <c r="A83" s="2">
         <v>9759</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="84" spans="1:43" hidden="1">
+    <row r="84" spans="1:43">
       <c r="A84" s="2">
         <v>9759</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="85" spans="1:43" hidden="1">
+    <row r="85" spans="1:43">
       <c r="A85" s="2">
         <v>9759</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="86" spans="1:43" hidden="1">
+    <row r="86" spans="1:43">
       <c r="A86" s="2">
         <v>5007</v>
       </c>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="AQ86" s="3"/>
     </row>
-    <row r="87" spans="1:43" hidden="1">
+    <row r="87" spans="1:43">
       <c r="A87" s="2">
         <v>10068</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="88" spans="1:43" hidden="1">
+    <row r="88" spans="1:43">
       <c r="A88" s="2">
         <v>10068</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="89" spans="1:43" hidden="1">
+    <row r="89" spans="1:43">
       <c r="A89" s="2">
         <v>10068</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:43" hidden="1">
+    <row r="90" spans="1:43">
       <c r="A90" s="2">
         <v>3653</v>
       </c>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="AQ90" s="3"/>
     </row>
-    <row r="91" spans="1:43" hidden="1">
+    <row r="91" spans="1:43">
       <c r="A91" s="2">
         <v>14715</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:43" hidden="1">
+    <row r="92" spans="1:43">
       <c r="A92" s="2">
         <v>14715</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:43" hidden="1">
+    <row r="93" spans="1:43">
       <c r="A93" s="2">
         <v>14715</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:43" hidden="1">
+    <row r="94" spans="1:43">
       <c r="A94" s="2">
         <v>14715</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="95" spans="1:43" hidden="1">
+    <row r="95" spans="1:43">
       <c r="A95" s="2">
         <v>14715</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:43" hidden="1">
+    <row r="96" spans="1:43">
       <c r="A96" s="2">
         <v>14715</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:43" hidden="1">
+    <row r="97" spans="1:43">
       <c r="A97" s="2">
         <v>14715</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:43" hidden="1">
+    <row r="98" spans="1:43">
       <c r="A98" s="2">
         <v>4460</v>
       </c>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="AQ98" s="3"/>
     </row>
-    <row r="99" spans="1:43" hidden="1">
+    <row r="99" spans="1:43">
       <c r="A99" s="2">
         <v>4463</v>
       </c>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="AQ99" s="3"/>
     </row>
-    <row r="100" spans="1:43" hidden="1">
+    <row r="100" spans="1:43">
       <c r="A100" s="2">
         <v>6297</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="101" spans="1:43" hidden="1">
+    <row r="101" spans="1:43">
       <c r="A101" s="2">
         <v>6297</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="102" spans="1:43" hidden="1">
+    <row r="102" spans="1:43">
       <c r="A102" s="2">
         <v>6297</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="103" spans="1:43" hidden="1">
+    <row r="103" spans="1:43">
       <c r="A103" s="2">
         <v>10312</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="104" spans="1:43" hidden="1">
+    <row r="104" spans="1:43">
       <c r="A104" s="2">
         <v>10312</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="105" spans="1:43" hidden="1">
+    <row r="105" spans="1:43">
       <c r="A105" s="2">
         <v>10312</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="106" spans="1:43" hidden="1">
+    <row r="106" spans="1:43">
       <c r="A106" s="2">
         <v>10312</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="107" spans="1:43" hidden="1">
+    <row r="107" spans="1:43">
       <c r="A107" s="2">
         <v>10312</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="108" spans="1:43" hidden="1">
+    <row r="108" spans="1:43">
       <c r="A108" s="2">
         <v>10312</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="109" spans="1:43" hidden="1">
+    <row r="109" spans="1:43">
       <c r="A109" s="2">
         <v>15651</v>
       </c>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="AQ109" s="3"/>
     </row>
-    <row r="110" spans="1:43" hidden="1">
+    <row r="110" spans="1:43">
       <c r="A110" s="2">
         <v>15652</v>
       </c>
@@ -18976,7 +18976,7 @@
       </c>
       <c r="AQ110" s="3"/>
     </row>
-    <row r="111" spans="1:43" hidden="1">
+    <row r="111" spans="1:43">
       <c r="A111" s="2">
         <v>15652</v>
       </c>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="AQ111" s="3"/>
     </row>
-    <row r="112" spans="1:43" hidden="1">
+    <row r="112" spans="1:43">
       <c r="A112" s="2">
         <v>14658</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="113" spans="1:41" hidden="1">
+    <row r="113" spans="1:41">
       <c r="A113" s="2">
         <v>14658</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:41" hidden="1">
+    <row r="114" spans="1:41">
       <c r="A114" s="2">
         <v>14658</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="115" spans="1:41" hidden="1">
+    <row r="115" spans="1:41">
       <c r="A115" s="2">
         <v>14658</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="116" spans="1:41" hidden="1">
+    <row r="116" spans="1:41">
       <c r="A116" s="2">
         <v>14658</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="117" spans="1:41" hidden="1">
+    <row r="117" spans="1:41">
       <c r="A117" s="2">
         <v>14658</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="118" spans="1:41" hidden="1">
+    <row r="118" spans="1:41">
       <c r="A118" s="2">
         <v>14658</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="119" spans="1:41" hidden="1">
+    <row r="119" spans="1:41">
       <c r="A119" s="2">
         <v>14658</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="120" spans="1:41" hidden="1">
+    <row r="120" spans="1:41">
       <c r="A120" s="2">
         <v>14658</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="121" spans="1:41" hidden="1">
+    <row r="121" spans="1:41">
       <c r="A121" s="2">
         <v>14658</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="122" spans="1:41" hidden="1">
+    <row r="122" spans="1:41">
       <c r="A122" s="2">
         <v>14658</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:41" hidden="1">
+    <row r="123" spans="1:41">
       <c r="A123" s="2">
         <v>14658</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="124" spans="1:41" hidden="1">
+    <row r="124" spans="1:41">
       <c r="A124" s="2">
         <v>14658</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="125" spans="1:41" hidden="1">
+    <row r="125" spans="1:41">
       <c r="A125" s="2">
         <v>14658</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:41" hidden="1">
+    <row r="126" spans="1:41">
       <c r="A126" s="2">
         <v>14658</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:41" hidden="1">
+    <row r="127" spans="1:41">
       <c r="A127" s="2">
         <v>14658</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="128" spans="1:41" hidden="1">
+    <row r="128" spans="1:41">
       <c r="A128" s="2">
         <v>14658</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="129" spans="1:43" hidden="1">
+    <row r="129" spans="1:43">
       <c r="A129" s="2">
         <v>4799</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="130" spans="1:43" hidden="1">
+    <row r="130" spans="1:43">
       <c r="A130" s="2">
         <v>4799</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:43" hidden="1">
+    <row r="131" spans="1:43">
       <c r="A131" s="2">
         <v>4799</v>
       </c>
@@ -20195,7 +20195,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="132" spans="1:43" hidden="1">
+    <row r="132" spans="1:43">
       <c r="A132" s="2">
         <v>4799</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="133" spans="1:43" hidden="1">
+    <row r="133" spans="1:43">
       <c r="A133" s="2">
         <v>4799</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="134" spans="1:43" hidden="1">
+    <row r="134" spans="1:43">
       <c r="A134" s="2">
         <v>4799</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="135" spans="1:43" hidden="1">
+    <row r="135" spans="1:43">
       <c r="A135" s="2">
         <v>4799</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="136" spans="1:43" hidden="1">
+    <row r="136" spans="1:43">
       <c r="A136" s="2">
         <v>4799</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="137" spans="1:43" hidden="1">
+    <row r="137" spans="1:43">
       <c r="A137" s="2">
         <v>4799</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:43" hidden="1">
+    <row r="138" spans="1:43">
       <c r="A138" s="2">
         <v>4799</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="139" spans="1:43" hidden="1">
+    <row r="139" spans="1:43">
       <c r="A139" s="2">
         <v>4799</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="140" spans="1:43" hidden="1">
+    <row r="140" spans="1:43">
       <c r="A140" s="2">
         <v>4799</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="141" spans="1:43" hidden="1">
+    <row r="141" spans="1:43">
       <c r="A141" s="2">
         <v>4799</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="142" spans="1:43" hidden="1">
+    <row r="142" spans="1:43">
       <c r="A142" s="2">
         <v>10564</v>
       </c>
@@ -20784,7 +20784,7 @@
       </c>
       <c r="AQ142" s="3"/>
     </row>
-    <row r="143" spans="1:43" hidden="1">
+    <row r="143" spans="1:43">
       <c r="A143" s="2">
         <v>10565</v>
       </c>
@@ -20803,7 +20803,7 @@
       </c>
       <c r="AQ143" s="3"/>
     </row>
-    <row r="144" spans="1:43" hidden="1">
+    <row r="144" spans="1:43">
       <c r="A144" s="2">
         <v>8290</v>
       </c>
@@ -20825,7 +20825,7 @@
       </c>
       <c r="AQ144" s="3"/>
     </row>
-    <row r="145" spans="1:43" hidden="1">
+    <row r="145" spans="1:43">
       <c r="A145" s="2">
         <v>15647</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="146" spans="1:43" hidden="1">
+    <row r="146" spans="1:43">
       <c r="A146" s="2">
         <v>15806</v>
       </c>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="AQ146" s="3"/>
     </row>
-    <row r="147" spans="1:43" hidden="1">
+    <row r="147" spans="1:43">
       <c r="A147" s="2">
         <v>13777</v>
       </c>
@@ -20959,7 +20959,7 @@
       </c>
       <c r="AQ147" s="3"/>
     </row>
-    <row r="148" spans="1:43" hidden="1">
+    <row r="148" spans="1:43">
       <c r="A148" s="2">
         <v>13777</v>
       </c>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="AQ148" s="3"/>
     </row>
-    <row r="149" spans="1:43" hidden="1">
+    <row r="149" spans="1:43">
       <c r="A149" s="2">
         <v>1118</v>
       </c>
@@ -21037,7 +21037,7 @@
       <c r="T149"/>
       <c r="AQ149" s="3"/>
     </row>
-    <row r="150" spans="1:43" hidden="1">
+    <row r="150" spans="1:43">
       <c r="A150" s="2">
         <v>14218</v>
       </c>
@@ -21056,7 +21056,7 @@
       </c>
       <c r="AQ150" s="3"/>
     </row>
-    <row r="151" spans="1:43" hidden="1">
+    <row r="151" spans="1:43">
       <c r="A151" s="2">
         <v>14296</v>
       </c>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="AQ151" s="3"/>
     </row>
-    <row r="152" spans="1:43" hidden="1">
+    <row r="152" spans="1:43">
       <c r="A152" s="2">
         <v>7223</v>
       </c>
@@ -21112,7 +21112,7 @@
       </c>
       <c r="AQ152" s="3"/>
     </row>
-    <row r="153" spans="1:43" hidden="1">
+    <row r="153" spans="1:43">
       <c r="A153" s="2">
         <v>7223</v>
       </c>
@@ -21149,7 +21149,7 @@
       </c>
       <c r="AQ153" s="3"/>
     </row>
-    <row r="154" spans="1:43" hidden="1">
+    <row r="154" spans="1:43">
       <c r="A154" s="2">
         <v>10182</v>
       </c>
@@ -21222,7 +21222,7 @@
       </c>
       <c r="AQ154" s="3"/>
     </row>
-    <row r="155" spans="1:43" hidden="1">
+    <row r="155" spans="1:43">
       <c r="A155" s="2">
         <v>10182</v>
       </c>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="AQ155" s="3"/>
     </row>
-    <row r="156" spans="1:43" hidden="1">
+    <row r="156" spans="1:43">
       <c r="A156" s="2">
         <v>10182</v>
       </c>
@@ -21368,7 +21368,7 @@
       </c>
       <c r="AQ156" s="3"/>
     </row>
-    <row r="157" spans="1:43" hidden="1">
+    <row r="157" spans="1:43">
       <c r="A157" s="2">
         <v>10182</v>
       </c>
@@ -21441,7 +21441,7 @@
       </c>
       <c r="AQ157" s="3"/>
     </row>
-    <row r="158" spans="1:43" hidden="1">
+    <row r="158" spans="1:43">
       <c r="A158" s="2">
         <v>10182</v>
       </c>
@@ -21514,7 +21514,7 @@
       </c>
       <c r="AQ158" s="3"/>
     </row>
-    <row r="159" spans="1:43" hidden="1">
+    <row r="159" spans="1:43">
       <c r="A159" s="2">
         <v>10182</v>
       </c>
@@ -21587,7 +21587,7 @@
       </c>
       <c r="AQ159" s="3"/>
     </row>
-    <row r="160" spans="1:43" hidden="1">
+    <row r="160" spans="1:43">
       <c r="A160" s="2">
         <v>10182</v>
       </c>
@@ -21654,7 +21654,7 @@
       </c>
       <c r="AQ160" s="3"/>
     </row>
-    <row r="161" spans="1:43" hidden="1">
+    <row r="161" spans="1:43">
       <c r="A161" s="2">
         <v>10182</v>
       </c>
@@ -21721,7 +21721,7 @@
       </c>
       <c r="AQ161" s="3"/>
     </row>
-    <row r="162" spans="1:43" hidden="1">
+    <row r="162" spans="1:43">
       <c r="A162" s="2">
         <v>10182</v>
       </c>
@@ -21788,7 +21788,7 @@
       </c>
       <c r="AQ162" s="3"/>
     </row>
-    <row r="163" spans="1:43" hidden="1">
+    <row r="163" spans="1:43">
       <c r="A163" s="2">
         <v>10182</v>
       </c>
@@ -21855,7 +21855,7 @@
       </c>
       <c r="AQ163" s="3"/>
     </row>
-    <row r="164" spans="1:43" hidden="1">
+    <row r="164" spans="1:43">
       <c r="A164" s="2">
         <v>10182</v>
       </c>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="AQ164" s="3"/>
     </row>
-    <row r="165" spans="1:43" hidden="1">
+    <row r="165" spans="1:43">
       <c r="A165" s="2">
         <v>10182</v>
       </c>
@@ -21989,7 +21989,7 @@
       </c>
       <c r="AQ165" s="3"/>
     </row>
-    <row r="166" spans="1:43" hidden="1">
+    <row r="166" spans="1:43">
       <c r="A166" s="2">
         <v>14628</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="167" spans="1:43" hidden="1">
+    <row r="167" spans="1:43">
       <c r="A167" s="2">
         <v>2434</v>
       </c>
@@ -22118,7 +22118,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="168" spans="1:43" hidden="1">
+    <row r="168" spans="1:43">
       <c r="A168" s="2">
         <v>2434</v>
       </c>
@@ -22187,7 +22187,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="169" spans="1:43" hidden="1">
+    <row r="169" spans="1:43">
       <c r="A169" s="2">
         <v>2434</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="170" spans="1:43" hidden="1">
+    <row r="170" spans="1:43">
       <c r="A170" s="2">
         <v>14663</v>
       </c>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="AQ170" s="3"/>
     </row>
-    <row r="171" spans="1:43" hidden="1">
+    <row r="171" spans="1:43">
       <c r="A171" s="2">
         <v>6536</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="172" spans="1:43" hidden="1">
+    <row r="172" spans="1:43">
       <c r="A172" s="2">
         <v>14720</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="173" spans="1:43" hidden="1">
+    <row r="173" spans="1:43">
       <c r="A173" s="2">
         <v>14720</v>
       </c>
@@ -22440,7 +22440,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="174" spans="1:43" hidden="1">
+    <row r="174" spans="1:43">
       <c r="A174" s="2">
         <v>14720</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="175" spans="1:43" hidden="1">
+    <row r="175" spans="1:43">
       <c r="A175" s="2">
         <v>14720</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="176" spans="1:43" hidden="1">
+    <row r="176" spans="1:43">
       <c r="A176" s="2">
         <v>14657</v>
       </c>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="AQ176" s="3"/>
     </row>
-    <row r="177" spans="1:44" hidden="1">
+    <row r="177" spans="1:44">
       <c r="A177" s="2">
         <v>3602</v>
       </c>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="AQ177" s="3"/>
     </row>
-    <row r="178" spans="1:44" hidden="1">
+    <row r="178" spans="1:44">
       <c r="A178" s="2">
         <v>8327</v>
       </c>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="AQ178" s="3"/>
     </row>
-    <row r="179" spans="1:44" hidden="1">
+    <row r="179" spans="1:44">
       <c r="A179" s="2">
         <v>15849</v>
       </c>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="AQ179" s="3"/>
     </row>
-    <row r="180" spans="1:44" hidden="1">
+    <row r="180" spans="1:44">
       <c r="A180" s="2">
         <v>15849</v>
       </c>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="AQ180" s="3"/>
     </row>
-    <row r="181" spans="1:44" hidden="1">
+    <row r="181" spans="1:44">
       <c r="A181" s="2">
         <v>15849</v>
       </c>
@@ -22779,7 +22779,7 @@
       </c>
       <c r="AQ181" s="3"/>
     </row>
-    <row r="182" spans="1:44" hidden="1">
+    <row r="182" spans="1:44">
       <c r="A182" s="2">
         <v>15849</v>
       </c>
@@ -22837,7 +22837,7 @@
       </c>
       <c r="AQ182" s="3"/>
     </row>
-    <row r="183" spans="1:44" hidden="1">
+    <row r="183" spans="1:44">
       <c r="A183" s="2">
         <v>15849</v>
       </c>
@@ -22895,7 +22895,7 @@
       </c>
       <c r="AQ183" s="3"/>
     </row>
-    <row r="184" spans="1:44" hidden="1">
+    <row r="184" spans="1:44">
       <c r="A184" s="2">
         <v>15849</v>
       </c>
@@ -22953,7 +22953,7 @@
       </c>
       <c r="AQ184" s="3"/>
     </row>
-    <row r="185" spans="1:44" hidden="1">
+    <row r="185" spans="1:44">
       <c r="A185" s="2">
         <v>15849</v>
       </c>
@@ -23011,7 +23011,7 @@
       </c>
       <c r="AQ185" s="3"/>
     </row>
-    <row r="186" spans="1:44" hidden="1">
+    <row r="186" spans="1:44">
       <c r="A186" s="2">
         <v>10562</v>
       </c>
@@ -23197,7 +23197,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="189" spans="1:44" hidden="1">
+    <row r="189" spans="1:44">
       <c r="A189" s="2">
         <v>15548</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="190" spans="1:44" hidden="1">
+    <row r="190" spans="1:44">
       <c r="A190" s="2">
         <v>15548</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:44" hidden="1">
+    <row r="191" spans="1:44">
       <c r="A191" s="2">
         <v>15548</v>
       </c>
@@ -23350,7 +23350,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="192" spans="1:44" hidden="1">
+    <row r="192" spans="1:44">
       <c r="A192" s="2">
         <v>15548</v>
       </c>
@@ -23401,7 +23401,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="193" spans="1:43" hidden="1">
+    <row r="193" spans="1:43">
       <c r="A193" s="2">
         <v>15548</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="194" spans="1:43" hidden="1">
+    <row r="194" spans="1:43">
       <c r="A194" s="2">
         <v>15548</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="195" spans="1:43" hidden="1">
+    <row r="195" spans="1:43">
       <c r="A195" s="2">
         <v>15548</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="196" spans="1:43" hidden="1">
+    <row r="196" spans="1:43">
       <c r="A196" s="2">
         <v>15548</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="197" spans="1:43" hidden="1">
+    <row r="197" spans="1:43">
       <c r="A197" s="2">
         <v>15548</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="198" spans="1:43" hidden="1">
+    <row r="198" spans="1:43">
       <c r="A198" s="2">
         <v>15548</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="199" spans="1:43" hidden="1">
+    <row r="199" spans="1:43">
       <c r="A199" s="2">
         <v>6298</v>
       </c>
@@ -23726,7 +23726,7 @@
       </c>
       <c r="AQ199" s="3"/>
     </row>
-    <row r="200" spans="1:43" hidden="1">
+    <row r="200" spans="1:43">
       <c r="A200" s="2">
         <v>14714</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="201" spans="1:43" hidden="1">
+    <row r="201" spans="1:43">
       <c r="A201" s="2">
         <v>14714</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="202" spans="1:43" hidden="1">
+    <row r="202" spans="1:43">
       <c r="A202" s="2">
         <v>14714</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="203" spans="1:43" hidden="1">
+    <row r="203" spans="1:43">
       <c r="A203" s="2">
         <v>90003</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="1:43" hidden="1">
+    <row r="204" spans="1:43">
       <c r="A204" s="2">
         <v>10280</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="205" spans="1:43" hidden="1">
+    <row r="205" spans="1:43">
       <c r="A205" s="2">
         <v>10280</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="206" spans="1:43" hidden="1">
+    <row r="206" spans="1:43">
       <c r="A206" s="2">
         <v>10280</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="207" spans="1:43" hidden="1">
+    <row r="207" spans="1:43">
       <c r="A207" s="2">
         <v>10280</v>
       </c>
@@ -24242,7 +24242,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="208" spans="1:43" hidden="1">
+    <row r="208" spans="1:43">
       <c r="A208" s="2">
         <v>10280</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="209" spans="1:43" hidden="1">
+    <row r="209" spans="1:43">
       <c r="A209" s="2">
         <v>10280</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="210" spans="1:43" hidden="1">
+    <row r="210" spans="1:43">
       <c r="A210" s="2">
         <v>10280</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="211" spans="1:43" hidden="1">
+    <row r="211" spans="1:43">
       <c r="A211" s="2">
         <v>10280</v>
       </c>
@@ -24518,7 +24518,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="212" spans="1:43" hidden="1">
+    <row r="212" spans="1:43">
       <c r="A212" s="2">
         <v>10280</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="213" spans="1:43" hidden="1">
+    <row r="213" spans="1:43">
       <c r="A213" s="2">
         <v>10280</v>
       </c>
@@ -24656,7 +24656,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="214" spans="1:43" hidden="1">
+    <row r="214" spans="1:43">
       <c r="A214" s="2">
         <v>10280</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="215" spans="1:43" hidden="1">
+    <row r="215" spans="1:43">
       <c r="A215" s="2">
         <v>10280</v>
       </c>
@@ -24794,7 +24794,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="216" spans="1:43" hidden="1">
+    <row r="216" spans="1:43">
       <c r="A216" s="2">
         <v>10280</v>
       </c>
@@ -24864,7 +24864,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="217" spans="1:43" hidden="1">
+    <row r="217" spans="1:43">
       <c r="A217" s="2">
         <v>10280</v>
       </c>
@@ -24933,7 +24933,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="218" spans="1:43" hidden="1">
+    <row r="218" spans="1:43">
       <c r="A218" s="2">
         <v>10280</v>
       </c>
@@ -25002,7 +25002,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="219" spans="1:43" hidden="1">
+    <row r="219" spans="1:43">
       <c r="A219" s="2">
         <v>10280</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="220" spans="1:43" hidden="1">
+    <row r="220" spans="1:43">
       <c r="A220" s="2">
         <v>10280</v>
       </c>
@@ -25140,7 +25140,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="221" spans="1:43" hidden="1">
+    <row r="221" spans="1:43">
       <c r="A221" s="2">
         <v>10280</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="222" spans="1:43" hidden="1">
+    <row r="222" spans="1:43">
       <c r="A222" s="2">
         <v>10321</v>
       </c>
@@ -25279,7 +25279,7 @@
       </c>
       <c r="AQ222" s="3"/>
     </row>
-    <row r="223" spans="1:43" hidden="1">
+    <row r="223" spans="1:43">
       <c r="A223" s="2">
         <v>10324</v>
       </c>
@@ -25298,7 +25298,7 @@
       </c>
       <c r="AQ223" s="3"/>
     </row>
-    <row r="224" spans="1:43" hidden="1">
+    <row r="224" spans="1:43">
       <c r="A224" s="2">
         <v>11282</v>
       </c>
@@ -25359,7 +25359,7 @@
       </c>
       <c r="AQ224" s="3"/>
     </row>
-    <row r="225" spans="1:43" hidden="1">
+    <row r="225" spans="1:43">
       <c r="A225" s="2">
         <v>10325</v>
       </c>
@@ -25378,7 +25378,7 @@
       </c>
       <c r="AQ225" s="3"/>
     </row>
-    <row r="226" spans="1:43" hidden="1">
+    <row r="226" spans="1:43">
       <c r="A226" s="2">
         <v>1883</v>
       </c>
@@ -25450,7 +25450,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="227" spans="1:43" hidden="1">
+    <row r="227" spans="1:43">
       <c r="A227" s="2">
         <v>90006</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="228" spans="1:43" hidden="1">
+    <row r="228" spans="1:43">
       <c r="A228" s="2">
         <v>366</v>
       </c>
@@ -25563,7 +25563,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="229" spans="1:43" hidden="1">
+    <row r="229" spans="1:43">
       <c r="A229" s="2">
         <v>9179</v>
       </c>
@@ -25585,7 +25585,7 @@
       </c>
       <c r="AQ229" s="3"/>
     </row>
-    <row r="230" spans="1:43" hidden="1">
+    <row r="230" spans="1:43">
       <c r="A230" s="2">
         <v>14206</v>
       </c>
@@ -25652,7 +25652,7 @@
       </c>
       <c r="AQ230" s="3"/>
     </row>
-    <row r="231" spans="1:43" hidden="1">
+    <row r="231" spans="1:43">
       <c r="A231" s="2">
         <v>14206</v>
       </c>
@@ -25716,7 +25716,7 @@
       </c>
       <c r="AQ231" s="3"/>
     </row>
-    <row r="232" spans="1:43" hidden="1">
+    <row r="232" spans="1:43">
       <c r="A232" s="2">
         <v>14206</v>
       </c>
@@ -25780,7 +25780,7 @@
       </c>
       <c r="AQ232" s="3"/>
     </row>
-    <row r="233" spans="1:43" hidden="1">
+    <row r="233" spans="1:43">
       <c r="A233" s="2">
         <v>14206</v>
       </c>
@@ -25844,7 +25844,7 @@
       </c>
       <c r="AQ233" s="3"/>
     </row>
-    <row r="234" spans="1:43" hidden="1">
+    <row r="234" spans="1:43">
       <c r="A234" s="2">
         <v>14206</v>
       </c>
@@ -25911,7 +25911,7 @@
       </c>
       <c r="AQ234" s="3"/>
     </row>
-    <row r="235" spans="1:43" hidden="1">
+    <row r="235" spans="1:43">
       <c r="A235" s="2">
         <v>14206</v>
       </c>
@@ -25975,7 +25975,7 @@
       </c>
       <c r="AQ235" s="3"/>
     </row>
-    <row r="236" spans="1:43" hidden="1">
+    <row r="236" spans="1:43">
       <c r="A236" s="2">
         <v>14206</v>
       </c>
@@ -26039,7 +26039,7 @@
       </c>
       <c r="AQ236" s="3"/>
     </row>
-    <row r="237" spans="1:43" hidden="1">
+    <row r="237" spans="1:43">
       <c r="A237" s="2">
         <v>14206</v>
       </c>
@@ -26103,7 +26103,7 @@
       </c>
       <c r="AQ237" s="3"/>
     </row>
-    <row r="238" spans="1:43" hidden="1">
+    <row r="238" spans="1:43">
       <c r="A238" s="2">
         <v>14206</v>
       </c>
@@ -26164,7 +26164,7 @@
       </c>
       <c r="AQ238" s="3"/>
     </row>
-    <row r="239" spans="1:43" hidden="1">
+    <row r="239" spans="1:43">
       <c r="A239" s="2">
         <v>14206</v>
       </c>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="AQ239" s="3"/>
     </row>
-    <row r="240" spans="1:43" hidden="1">
+    <row r="240" spans="1:43">
       <c r="A240" s="2">
         <v>14206</v>
       </c>
@@ -26286,7 +26286,7 @@
       </c>
       <c r="AQ240" s="3"/>
     </row>
-    <row r="241" spans="1:43" hidden="1">
+    <row r="241" spans="1:43">
       <c r="A241" s="2">
         <v>14206</v>
       </c>
@@ -26350,7 +26350,7 @@
       </c>
       <c r="AQ241" s="3"/>
     </row>
-    <row r="242" spans="1:43" hidden="1">
+    <row r="242" spans="1:43">
       <c r="A242" s="2">
         <v>14206</v>
       </c>
@@ -26411,7 +26411,7 @@
       </c>
       <c r="AQ242" s="3"/>
     </row>
-    <row r="243" spans="1:43" hidden="1">
+    <row r="243" spans="1:43">
       <c r="A243" s="2">
         <v>14206</v>
       </c>
@@ -26472,7 +26472,7 @@
       </c>
       <c r="AQ243" s="3"/>
     </row>
-    <row r="244" spans="1:43" hidden="1">
+    <row r="244" spans="1:43">
       <c r="A244" s="2">
         <v>14206</v>
       </c>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="AQ244" s="3"/>
     </row>
-    <row r="245" spans="1:43" hidden="1">
+    <row r="245" spans="1:43">
       <c r="A245" s="2">
         <v>14206</v>
       </c>
@@ -26597,7 +26597,7 @@
       </c>
       <c r="AQ245" s="3"/>
     </row>
-    <row r="246" spans="1:43" hidden="1">
+    <row r="246" spans="1:43">
       <c r="A246" s="2">
         <v>14632</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="247" spans="1:43" hidden="1">
+    <row r="247" spans="1:43">
       <c r="A247" s="2">
         <v>14632</v>
       </c>
@@ -26705,7 +26705,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="248" spans="1:43" hidden="1">
+    <row r="248" spans="1:43">
       <c r="A248" s="2">
         <v>14632</v>
       </c>
@@ -26762,7 +26762,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="249" spans="1:43" hidden="1">
+    <row r="249" spans="1:43">
       <c r="A249" s="2">
         <v>14632</v>
       </c>
@@ -26819,7 +26819,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="250" spans="1:43" hidden="1">
+    <row r="250" spans="1:43">
       <c r="A250" s="2">
         <v>14641</v>
       </c>
@@ -26838,7 +26838,7 @@
       </c>
       <c r="AQ250" s="3"/>
     </row>
-    <row r="251" spans="1:43" hidden="1">
+    <row r="251" spans="1:43">
       <c r="A251" s="2">
         <v>14642</v>
       </c>
@@ -26908,7 +26908,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:43" hidden="1">
+    <row r="253" spans="1:43">
       <c r="A253" s="2">
         <v>4301</v>
       </c>
@@ -26927,7 +26927,7 @@
       </c>
       <c r="AQ253" s="3"/>
     </row>
-    <row r="254" spans="1:43" hidden="1">
+    <row r="254" spans="1:43">
       <c r="A254" s="2">
         <v>14621</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="255" spans="1:43" hidden="1">
+    <row r="255" spans="1:43">
       <c r="A255" s="2">
         <v>3609</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="256" spans="1:43" hidden="1">
+    <row r="256" spans="1:43">
       <c r="A256" s="2">
         <v>3609</v>
       </c>
@@ -27122,7 +27122,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="257" spans="1:44" hidden="1">
+    <row r="257" spans="1:44">
       <c r="A257" s="2">
         <v>14205</v>
       </c>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="AQ257" s="3"/>
     </row>
-    <row r="258" spans="1:44" hidden="1">
+    <row r="258" spans="1:44">
       <c r="A258" s="2">
         <v>2066</v>
       </c>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="AQ258" s="3"/>
     </row>
-    <row r="259" spans="1:44" hidden="1">
+    <row r="259" spans="1:44">
       <c r="A259" s="2">
         <v>99999</v>
       </c>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="AQ259" s="3"/>
     </row>
-    <row r="260" spans="1:44" hidden="1">
+    <row r="260" spans="1:44">
       <c r="A260" s="2">
         <v>99999</v>
       </c>
@@ -27247,7 +27247,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="261" spans="1:44" hidden="1">
+    <row r="261" spans="1:44">
       <c r="A261" s="2">
         <v>99999</v>
       </c>
@@ -27290,7 +27290,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="262" spans="1:44" hidden="1">
+    <row r="262" spans="1:44">
       <c r="A262" s="2">
         <v>99999</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="263" spans="1:44" hidden="1">
+    <row r="263" spans="1:44">
       <c r="A263" s="2">
         <v>60</v>
       </c>
@@ -27406,7 +27406,7 @@
       </c>
       <c r="AQ263" s="3"/>
     </row>
-    <row r="264" spans="1:44" hidden="1">
+    <row r="264" spans="1:44">
       <c r="A264" s="2">
         <v>60</v>
       </c>
@@ -27482,7 +27482,7 @@
       </c>
       <c r="AR264" s="17"/>
     </row>
-    <row r="265" spans="1:44" hidden="1">
+    <row r="265" spans="1:44">
       <c r="A265" s="2">
         <v>60</v>
       </c>
@@ -27558,7 +27558,7 @@
       </c>
       <c r="AR265" s="17"/>
     </row>
-    <row r="266" spans="1:44" hidden="1">
+    <row r="266" spans="1:44">
       <c r="A266" s="2">
         <v>60</v>
       </c>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="AR266" s="17"/>
     </row>
-    <row r="267" spans="1:44" hidden="1">
+    <row r="267" spans="1:44">
       <c r="A267" s="2">
         <v>60</v>
       </c>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="AR267" s="17"/>
     </row>
-    <row r="268" spans="1:44" hidden="1">
+    <row r="268" spans="1:44">
       <c r="A268" s="2">
         <v>60</v>
       </c>
@@ -27784,7 +27784,7 @@
       </c>
       <c r="AR268" s="17"/>
     </row>
-    <row r="269" spans="1:44" hidden="1">
+    <row r="269" spans="1:44">
       <c r="A269" s="2">
         <v>60</v>
       </c>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="AR269" s="17"/>
     </row>
-    <row r="270" spans="1:44" hidden="1">
+    <row r="270" spans="1:44">
       <c r="A270" s="2">
         <v>60</v>
       </c>
@@ -27937,7 +27937,7 @@
       </c>
       <c r="AR270" s="17"/>
     </row>
-    <row r="271" spans="1:44" hidden="1">
+    <row r="271" spans="1:44">
       <c r="A271" s="2">
         <v>2838</v>
       </c>
@@ -27959,7 +27959,7 @@
       </c>
       <c r="AQ271" s="3"/>
     </row>
-    <row r="272" spans="1:44" hidden="1">
+    <row r="272" spans="1:44">
       <c r="A272" s="2">
         <v>7851</v>
       </c>
@@ -27978,7 +27978,7 @@
       </c>
       <c r="AQ272" s="3"/>
     </row>
-    <row r="273" spans="1:43" hidden="1">
+    <row r="273" spans="1:43">
       <c r="A273" s="2">
         <v>7859</v>
       </c>
@@ -28041,7 +28041,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="274" spans="1:43" hidden="1">
+    <row r="274" spans="1:43">
       <c r="A274" s="2">
         <v>7859</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="275" spans="1:43" hidden="1">
+    <row r="275" spans="1:43">
       <c r="A275" s="2">
         <v>14202</v>
       </c>
@@ -28162,7 +28162,7 @@
       </c>
       <c r="AQ275" s="3"/>
     </row>
-    <row r="276" spans="1:43" hidden="1">
+    <row r="276" spans="1:43">
       <c r="A276" s="2">
         <v>14202</v>
       </c>
@@ -28220,7 +28220,7 @@
       </c>
       <c r="AQ276" s="3"/>
     </row>
-    <row r="277" spans="1:43" hidden="1">
+    <row r="277" spans="1:43">
       <c r="A277" s="2">
         <v>14202</v>
       </c>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="AQ277" s="3"/>
     </row>
-    <row r="278" spans="1:43" hidden="1">
+    <row r="278" spans="1:43">
       <c r="A278" s="2">
         <v>14202</v>
       </c>
@@ -28339,7 +28339,7 @@
       </c>
       <c r="AQ278" s="3"/>
     </row>
-    <row r="279" spans="1:43" hidden="1">
+    <row r="279" spans="1:43">
       <c r="A279" s="2">
         <v>14202</v>
       </c>
@@ -28397,7 +28397,7 @@
       </c>
       <c r="AQ279" s="3"/>
     </row>
-    <row r="280" spans="1:43" hidden="1">
+    <row r="280" spans="1:43">
       <c r="A280" s="2">
         <v>14202</v>
       </c>
@@ -28458,7 +28458,7 @@
       </c>
       <c r="AQ280" s="3"/>
     </row>
-    <row r="281" spans="1:43" hidden="1">
+    <row r="281" spans="1:43">
       <c r="A281" s="2">
         <v>14202</v>
       </c>
@@ -28516,7 +28516,7 @@
       </c>
       <c r="AQ281" s="3"/>
     </row>
-    <row r="282" spans="1:43" hidden="1">
+    <row r="282" spans="1:43">
       <c r="A282" s="2">
         <v>14202</v>
       </c>
@@ -28574,7 +28574,7 @@
       </c>
       <c r="AQ282" s="3"/>
     </row>
-    <row r="283" spans="1:43" hidden="1">
+    <row r="283" spans="1:43">
       <c r="A283" s="2">
         <v>14202</v>
       </c>
@@ -28635,7 +28635,7 @@
       </c>
       <c r="AQ283" s="3"/>
     </row>
-    <row r="284" spans="1:43" hidden="1">
+    <row r="284" spans="1:43">
       <c r="A284" s="2">
         <v>14202</v>
       </c>
@@ -28693,7 +28693,7 @@
       </c>
       <c r="AQ284" s="3"/>
     </row>
-    <row r="285" spans="1:43" hidden="1">
+    <row r="285" spans="1:43">
       <c r="A285" s="2">
         <v>14202</v>
       </c>
@@ -28751,7 +28751,7 @@
       </c>
       <c r="AQ285" s="3"/>
     </row>
-    <row r="286" spans="1:43" hidden="1">
+    <row r="286" spans="1:43">
       <c r="A286" s="2">
         <v>14202</v>
       </c>
@@ -28812,7 +28812,7 @@
       </c>
       <c r="AQ286" s="3"/>
     </row>
-    <row r="287" spans="1:43" hidden="1">
+    <row r="287" spans="1:43">
       <c r="A287" s="2">
         <v>14202</v>
       </c>
@@ -28870,7 +28870,7 @@
       </c>
       <c r="AQ287" s="3"/>
     </row>
-    <row r="288" spans="1:43" hidden="1">
+    <row r="288" spans="1:43">
       <c r="A288" s="2">
         <v>14202</v>
       </c>
@@ -28928,7 +28928,7 @@
       </c>
       <c r="AQ288" s="3"/>
     </row>
-    <row r="289" spans="1:43" hidden="1">
+    <row r="289" spans="1:43">
       <c r="A289" s="2">
         <v>14202</v>
       </c>
@@ -28989,7 +28989,7 @@
       </c>
       <c r="AQ289" s="3"/>
     </row>
-    <row r="290" spans="1:43" hidden="1">
+    <row r="290" spans="1:43">
       <c r="A290" s="2">
         <v>14202</v>
       </c>
@@ -29047,7 +29047,7 @@
       </c>
       <c r="AQ290" s="3"/>
     </row>
-    <row r="291" spans="1:43" hidden="1">
+    <row r="291" spans="1:43">
       <c r="A291" s="2">
         <v>14202</v>
       </c>
@@ -29105,7 +29105,7 @@
       </c>
       <c r="AQ291" s="3"/>
     </row>
-    <row r="292" spans="1:43" hidden="1">
+    <row r="292" spans="1:43">
       <c r="A292" s="2">
         <v>14202</v>
       </c>
@@ -29166,7 +29166,7 @@
       </c>
       <c r="AQ292" s="3"/>
     </row>
-    <row r="293" spans="1:43" hidden="1">
+    <row r="293" spans="1:43">
       <c r="A293" s="2">
         <v>15791</v>
       </c>
@@ -29227,7 +29227,7 @@
       </c>
       <c r="AQ293" s="3"/>
     </row>
-    <row r="294" spans="1:43" hidden="1">
+    <row r="294" spans="1:43">
       <c r="A294" s="2">
         <v>15791</v>
       </c>
@@ -29288,7 +29288,7 @@
       </c>
       <c r="AQ294" s="3"/>
     </row>
-    <row r="295" spans="1:43" hidden="1">
+    <row r="295" spans="1:43">
       <c r="A295" s="2">
         <v>15791</v>
       </c>
@@ -29349,7 +29349,7 @@
       </c>
       <c r="AQ295" s="3"/>
     </row>
-    <row r="296" spans="1:43" hidden="1">
+    <row r="296" spans="1:43">
       <c r="A296" s="2">
         <v>10170</v>
       </c>
@@ -29406,7 +29406,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="297" spans="1:43" hidden="1">
+    <row r="297" spans="1:43">
       <c r="A297" s="2">
         <v>10170</v>
       </c>
@@ -29463,7 +29463,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="298" spans="1:43" hidden="1">
+    <row r="298" spans="1:43">
       <c r="A298" s="2">
         <v>10170</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="299" spans="1:43" hidden="1">
+    <row r="299" spans="1:43">
       <c r="A299" s="2">
         <v>10170</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="300" spans="1:43" hidden="1">
+    <row r="300" spans="1:43">
       <c r="A300" s="2">
         <v>10184</v>
       </c>
@@ -29590,7 +29590,7 @@
       </c>
       <c r="AQ300" s="3"/>
     </row>
-    <row r="301" spans="1:43" hidden="1">
+    <row r="301" spans="1:43">
       <c r="A301" s="2">
         <v>2132</v>
       </c>
@@ -29609,7 +29609,7 @@
       </c>
       <c r="AQ301" s="3"/>
     </row>
-    <row r="302" spans="1:43" hidden="1">
+    <row r="302" spans="1:43">
       <c r="A302" s="2">
         <v>8481</v>
       </c>
@@ -29676,7 +29676,7 @@
       </c>
       <c r="AQ302" s="3"/>
     </row>
-    <row r="303" spans="1:43" hidden="1">
+    <row r="303" spans="1:43">
       <c r="A303" s="2">
         <v>8481</v>
       </c>
@@ -29740,7 +29740,7 @@
       </c>
       <c r="AQ303" s="3"/>
     </row>
-    <row r="304" spans="1:43" hidden="1">
+    <row r="304" spans="1:43">
       <c r="A304" s="2">
         <v>8481</v>
       </c>
@@ -29804,7 +29804,7 @@
       </c>
       <c r="AQ304" s="3"/>
     </row>
-    <row r="305" spans="1:43" hidden="1">
+    <row r="305" spans="1:43">
       <c r="A305" s="2">
         <v>14295</v>
       </c>
@@ -29867,7 +29867,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="306" spans="1:43" hidden="1">
+    <row r="306" spans="1:43">
       <c r="A306" s="2">
         <v>13739</v>
       </c>
@@ -29886,7 +29886,7 @@
       </c>
       <c r="AQ306" s="3"/>
     </row>
-    <row r="307" spans="1:43" hidden="1">
+    <row r="307" spans="1:43">
       <c r="A307" s="2">
         <v>2439</v>
       </c>
@@ -29959,7 +29959,7 @@
       </c>
       <c r="AQ307" s="3"/>
     </row>
-    <row r="308" spans="1:43" hidden="1">
+    <row r="308" spans="1:43">
       <c r="A308" s="2">
         <v>2439</v>
       </c>
@@ -30032,7 +30032,7 @@
       </c>
       <c r="AQ308" s="3"/>
     </row>
-    <row r="309" spans="1:43" hidden="1">
+    <row r="309" spans="1:43">
       <c r="A309" s="2">
         <v>2439</v>
       </c>
@@ -30105,7 +30105,7 @@
       </c>
       <c r="AQ309" s="3"/>
     </row>
-    <row r="310" spans="1:43" hidden="1">
+    <row r="310" spans="1:43">
       <c r="A310" s="2">
         <v>2439</v>
       </c>
@@ -30178,7 +30178,7 @@
       </c>
       <c r="AQ310" s="3"/>
     </row>
-    <row r="311" spans="1:43" hidden="1">
+    <row r="311" spans="1:43">
       <c r="A311" s="2">
         <v>8870</v>
       </c>
@@ -30197,7 +30197,7 @@
       </c>
       <c r="AQ311" s="3"/>
     </row>
-    <row r="312" spans="1:43" hidden="1">
+    <row r="312" spans="1:43">
       <c r="A312" s="2">
         <v>14664</v>
       </c>
@@ -30257,7 +30257,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="313" spans="1:43" hidden="1">
+    <row r="313" spans="1:43">
       <c r="A313" s="2">
         <v>14664</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="314" spans="1:43" hidden="1">
+    <row r="314" spans="1:43">
       <c r="A314" s="2">
         <v>14664</v>
       </c>
@@ -30380,7 +30380,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:43" hidden="1">
+    <row r="315" spans="1:43">
       <c r="A315" s="2">
         <v>14664</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="316" spans="1:43" hidden="1">
+    <row r="316" spans="1:43">
       <c r="A316" s="2">
         <v>14664</v>
       </c>
@@ -30506,7 +30506,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="317" spans="1:43" hidden="1">
+    <row r="317" spans="1:43">
       <c r="A317" s="2">
         <v>14664</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="318" spans="1:43" hidden="1">
+    <row r="318" spans="1:43">
       <c r="A318" s="2">
         <v>14664</v>
       </c>
@@ -30626,7 +30626,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="319" spans="1:43" hidden="1">
+    <row r="319" spans="1:43">
       <c r="A319" s="2">
         <v>14664</v>
       </c>
@@ -30686,7 +30686,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="320" spans="1:43" hidden="1">
+    <row r="320" spans="1:43">
       <c r="A320" s="2">
         <v>14664</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="321" spans="1:43" hidden="1">
+    <row r="321" spans="1:43">
       <c r="A321" s="2">
         <v>13724</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="322" spans="1:43" hidden="1">
+    <row r="322" spans="1:43">
       <c r="A322" s="2">
         <v>7354</v>
       </c>
@@ -30825,7 +30825,7 @@
       </c>
       <c r="AQ322" s="3"/>
     </row>
-    <row r="323" spans="1:43" hidden="1">
+    <row r="323" spans="1:43">
       <c r="A323" s="2">
         <v>8878</v>
       </c>
@@ -30844,7 +30844,7 @@
       </c>
       <c r="AQ323" s="3"/>
     </row>
-    <row r="324" spans="1:43" hidden="1">
+    <row r="324" spans="1:43">
       <c r="A324" s="2">
         <v>3094</v>
       </c>
@@ -30907,7 +30907,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="325" spans="1:43" hidden="1">
+    <row r="325" spans="1:43">
       <c r="A325" s="2">
         <v>3094</v>
       </c>
@@ -30970,7 +30970,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="326" spans="1:43" hidden="1">
+    <row r="326" spans="1:43">
       <c r="A326" s="2">
         <v>15862</v>
       </c>
@@ -30992,7 +30992,7 @@
       </c>
       <c r="AQ326" s="3"/>
     </row>
-    <row r="327" spans="1:43" hidden="1">
+    <row r="327" spans="1:43">
       <c r="A327" s="2">
         <v>3413</v>
       </c>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="AQ327" s="3"/>
     </row>
-    <row r="328" spans="1:43" hidden="1">
+    <row r="328" spans="1:43">
       <c r="A328" s="2">
         <v>10181</v>
       </c>
@@ -31078,7 +31078,7 @@
       </c>
       <c r="AQ328" s="3"/>
     </row>
-    <row r="329" spans="1:43" hidden="1">
+    <row r="329" spans="1:43">
       <c r="A329" s="2">
         <v>10181</v>
       </c>
@@ -31142,7 +31142,7 @@
       </c>
       <c r="AQ329" s="3"/>
     </row>
-    <row r="330" spans="1:43" hidden="1">
+    <row r="330" spans="1:43">
       <c r="A330" s="2">
         <v>10181</v>
       </c>
@@ -31206,7 +31206,7 @@
       </c>
       <c r="AQ330" s="3"/>
     </row>
-    <row r="331" spans="1:43" hidden="1">
+    <row r="331" spans="1:43">
       <c r="A331" s="2">
         <v>10181</v>
       </c>
@@ -31264,7 +31264,7 @@
       </c>
       <c r="AQ331" s="3"/>
     </row>
-    <row r="332" spans="1:43" hidden="1">
+    <row r="332" spans="1:43">
       <c r="A332" s="2">
         <v>10181</v>
       </c>
@@ -31322,7 +31322,7 @@
       </c>
       <c r="AQ332" s="3"/>
     </row>
-    <row r="333" spans="1:43" hidden="1">
+    <row r="333" spans="1:43">
       <c r="A333" s="2">
         <v>10181</v>
       </c>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="AQ333" s="3"/>
     </row>
-    <row r="334" spans="1:43" hidden="1">
+    <row r="334" spans="1:43">
       <c r="A334" s="2">
         <v>3151</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="335" spans="1:43" hidden="1">
+    <row r="335" spans="1:43">
       <c r="A335" s="2">
         <v>3151</v>
       </c>
@@ -31488,7 +31488,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="336" spans="1:43" hidden="1">
+    <row r="336" spans="1:43">
       <c r="A336" s="2">
         <v>3151</v>
       </c>
@@ -31539,7 +31539,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="337" spans="1:43" hidden="1">
+    <row r="337" spans="1:43">
       <c r="A337" s="2">
         <v>3151</v>
       </c>
@@ -31596,7 +31596,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="338" spans="1:43" hidden="1">
+    <row r="338" spans="1:43">
       <c r="A338" s="2">
         <v>3151</v>
       </c>
@@ -31647,7 +31647,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="339" spans="1:43" hidden="1">
+    <row r="339" spans="1:43">
       <c r="A339" s="2">
         <v>3151</v>
       </c>
@@ -31704,7 +31704,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="340" spans="1:43" hidden="1">
+    <row r="340" spans="1:43">
       <c r="A340" s="2">
         <v>3587</v>
       </c>
@@ -31723,7 +31723,7 @@
       </c>
       <c r="AQ340" s="3"/>
     </row>
-    <row r="341" spans="1:43" hidden="1">
+    <row r="341" spans="1:43">
       <c r="A341" s="2">
         <v>126</v>
       </c>
@@ -31742,7 +31742,7 @@
       </c>
       <c r="AQ341" s="3"/>
     </row>
-    <row r="342" spans="1:43" hidden="1">
+    <row r="342" spans="1:43">
       <c r="A342" s="2">
         <v>14665</v>
       </c>
@@ -31799,7 +31799,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="343" spans="1:43" hidden="1">
+    <row r="343" spans="1:43">
       <c r="A343" s="2">
         <v>14665</v>
       </c>
@@ -31856,7 +31856,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="344" spans="1:43" hidden="1">
+    <row r="344" spans="1:43">
       <c r="A344" s="2">
         <v>14665</v>
       </c>
@@ -31913,7 +31913,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="345" spans="1:43" hidden="1">
+    <row r="345" spans="1:43">
       <c r="A345" s="2">
         <v>14665</v>
       </c>
@@ -31970,7 +31970,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="346" spans="1:43" hidden="1">
+    <row r="346" spans="1:43">
       <c r="A346" s="2">
         <v>14665</v>
       </c>
@@ -32027,7 +32027,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="347" spans="1:43" hidden="1">
+    <row r="347" spans="1:43">
       <c r="A347" s="2">
         <v>14665</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="348" spans="1:43" hidden="1">
+    <row r="348" spans="1:43">
       <c r="A348" s="2">
         <v>14665</v>
       </c>
@@ -32141,7 +32141,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="349" spans="1:43" hidden="1">
+    <row r="349" spans="1:43">
       <c r="A349" s="2">
         <v>14665</v>
       </c>
@@ -32198,7 +32198,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="350" spans="1:43" hidden="1">
+    <row r="350" spans="1:43">
       <c r="A350" s="2">
         <v>14665</v>
       </c>
@@ -32255,7 +32255,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="351" spans="1:43" hidden="1">
+    <row r="351" spans="1:43">
       <c r="A351" s="2">
         <v>14665</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="352" spans="1:43" hidden="1">
+    <row r="352" spans="1:43">
       <c r="A352" s="2">
         <v>14665</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="353" spans="1:41" hidden="1">
+    <row r="353" spans="1:41">
       <c r="A353" s="2">
         <v>14665</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="354" spans="1:41" hidden="1">
+    <row r="354" spans="1:41">
       <c r="A354" s="2">
         <v>14665</v>
       </c>
@@ -32483,7 +32483,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="355" spans="1:41" hidden="1">
+    <row r="355" spans="1:41">
       <c r="A355" s="2">
         <v>14665</v>
       </c>
@@ -32543,7 +32543,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="356" spans="1:41" ht="15.75" hidden="1" customHeight="1">
+    <row r="356" spans="1:41" ht="15.75" customHeight="1">
       <c r="A356" s="2">
         <v>14665</v>
       </c>
@@ -32603,7 +32603,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="357" spans="1:41" hidden="1">
+    <row r="357" spans="1:41">
       <c r="A357" s="2">
         <v>14665</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="358" spans="1:41" hidden="1">
+    <row r="358" spans="1:41">
       <c r="A358" s="2">
         <v>14665</v>
       </c>
@@ -32723,7 +32723,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="359" spans="1:41" hidden="1">
+    <row r="359" spans="1:41">
       <c r="A359" s="2">
         <v>14665</v>
       </c>
@@ -32780,7 +32780,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="360" spans="1:41" hidden="1">
+    <row r="360" spans="1:41">
       <c r="A360" s="2">
         <v>14665</v>
       </c>
@@ -32837,7 +32837,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="361" spans="1:41" hidden="1">
+    <row r="361" spans="1:41">
       <c r="A361" s="2">
         <v>14665</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="362" spans="1:41" hidden="1">
+    <row r="362" spans="1:41">
       <c r="A362" s="2">
         <v>14665</v>
       </c>
@@ -32951,7 +32951,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="363" spans="1:41" hidden="1">
+    <row r="363" spans="1:41">
       <c r="A363" s="2">
         <v>14665</v>
       </c>
@@ -33005,7 +33005,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="364" spans="1:41" hidden="1">
+    <row r="364" spans="1:41">
       <c r="A364" s="2">
         <v>14665</v>
       </c>
@@ -33059,7 +33059,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="365" spans="1:41" hidden="1">
+    <row r="365" spans="1:41">
       <c r="A365" s="2">
         <v>14665</v>
       </c>
@@ -33113,7 +33113,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="366" spans="1:41" hidden="1">
+    <row r="366" spans="1:41">
       <c r="A366" s="2">
         <v>14665</v>
       </c>
@@ -33167,7 +33167,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="367" spans="1:41" hidden="1">
+    <row r="367" spans="1:41">
       <c r="A367" s="2">
         <v>2017</v>
       </c>
@@ -33224,7 +33224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:41" hidden="1">
+    <row r="368" spans="1:41">
       <c r="A368" s="2">
         <v>2017</v>
       </c>
@@ -33284,7 +33284,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="369" spans="1:43" hidden="1">
+    <row r="369" spans="1:43">
       <c r="A369" s="2">
         <v>2017</v>
       </c>
@@ -33341,7 +33341,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="370" spans="1:43" hidden="1">
+    <row r="370" spans="1:43">
       <c r="A370" s="2">
         <v>2017</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="371" spans="1:43" hidden="1">
+    <row r="371" spans="1:43">
       <c r="A371" s="2">
         <v>2017</v>
       </c>
@@ -33455,7 +33455,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="372" spans="1:43" hidden="1">
+    <row r="372" spans="1:43">
       <c r="A372" s="2">
         <v>2017</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="373" spans="1:43" hidden="1">
+    <row r="373" spans="1:43">
       <c r="A373" s="2">
         <v>2214</v>
       </c>
@@ -33576,7 +33576,7 @@
       </c>
       <c r="AQ373" s="3"/>
     </row>
-    <row r="374" spans="1:43" hidden="1">
+    <row r="374" spans="1:43">
       <c r="A374" s="2">
         <v>2214</v>
       </c>
@@ -33640,7 +33640,7 @@
       </c>
       <c r="AQ374" s="3"/>
     </row>
-    <row r="375" spans="1:43" hidden="1">
+    <row r="375" spans="1:43">
       <c r="A375" s="2">
         <v>2214</v>
       </c>
@@ -33704,7 +33704,7 @@
       </c>
       <c r="AQ375" s="3"/>
     </row>
-    <row r="376" spans="1:43" hidden="1">
+    <row r="376" spans="1:43">
       <c r="A376" s="2">
         <v>2214</v>
       </c>
@@ -33768,7 +33768,7 @@
       </c>
       <c r="AQ376" s="3"/>
     </row>
-    <row r="377" spans="1:43" hidden="1">
+    <row r="377" spans="1:43">
       <c r="A377" s="2">
         <v>2214</v>
       </c>
@@ -33832,7 +33832,7 @@
       </c>
       <c r="AQ377" s="3"/>
     </row>
-    <row r="378" spans="1:43" hidden="1">
+    <row r="378" spans="1:43">
       <c r="A378" s="2">
         <v>2214</v>
       </c>
@@ -33896,7 +33896,7 @@
       </c>
       <c r="AQ378" s="3"/>
     </row>
-    <row r="379" spans="1:43" hidden="1">
+    <row r="379" spans="1:43">
       <c r="A379" s="2">
         <v>2214</v>
       </c>
@@ -33960,7 +33960,7 @@
       </c>
       <c r="AQ379" s="3"/>
     </row>
-    <row r="380" spans="1:43" hidden="1">
+    <row r="380" spans="1:43">
       <c r="A380" s="2">
         <v>2214</v>
       </c>
@@ -34024,7 +34024,7 @@
       </c>
       <c r="AQ380" s="3"/>
     </row>
-    <row r="381" spans="1:43" hidden="1">
+    <row r="381" spans="1:43">
       <c r="A381" s="2">
         <v>2214</v>
       </c>
@@ -34088,7 +34088,7 @@
       </c>
       <c r="AQ381" s="3"/>
     </row>
-    <row r="382" spans="1:43" hidden="1">
+    <row r="382" spans="1:43">
       <c r="A382" s="2">
         <v>2214</v>
       </c>
@@ -34152,7 +34152,7 @@
       </c>
       <c r="AQ382" s="3"/>
     </row>
-    <row r="383" spans="1:43" hidden="1">
+    <row r="383" spans="1:43">
       <c r="A383" s="2">
         <v>2214</v>
       </c>
@@ -34216,7 +34216,7 @@
       </c>
       <c r="AQ383" s="3"/>
     </row>
-    <row r="384" spans="1:43" hidden="1">
+    <row r="384" spans="1:43">
       <c r="A384" s="2">
         <v>2214</v>
       </c>
@@ -34280,7 +34280,7 @@
       </c>
       <c r="AQ384" s="3"/>
     </row>
-    <row r="385" spans="1:43" hidden="1">
+    <row r="385" spans="1:43">
       <c r="A385" s="2">
         <v>12081</v>
       </c>
@@ -34299,7 +34299,7 @@
       </c>
       <c r="AQ385" s="3"/>
     </row>
-    <row r="386" spans="1:43" hidden="1">
+    <row r="386" spans="1:43">
       <c r="A386" s="2">
         <v>13401</v>
       </c>
@@ -34362,7 +34362,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="387" spans="1:43" hidden="1">
+    <row r="387" spans="1:43">
       <c r="A387" s="2">
         <v>13401</v>
       </c>
@@ -34427,7 +34427,7 @@
       <c r="AP387" s="3"/>
       <c r="AQ387" s="17"/>
     </row>
-    <row r="388" spans="1:43" hidden="1">
+    <row r="388" spans="1:43">
       <c r="A388" s="2">
         <v>13401</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="389" spans="1:43" hidden="1">
+    <row r="389" spans="1:43">
       <c r="A389" s="2">
         <v>13401</v>
       </c>
@@ -34553,7 +34553,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:43" hidden="1">
+    <row r="390" spans="1:43">
       <c r="A390" s="2">
         <v>13401</v>
       </c>
@@ -34613,7 +34613,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="391" spans="1:43" hidden="1">
+    <row r="391" spans="1:43">
       <c r="A391" s="2">
         <v>13401</v>
       </c>
@@ -34673,7 +34673,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="392" spans="1:43" hidden="1">
+    <row r="392" spans="1:43">
       <c r="A392" s="2">
         <v>13401</v>
       </c>
@@ -34733,7 +34733,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="393" spans="1:43" hidden="1">
+    <row r="393" spans="1:43">
       <c r="A393" s="2">
         <v>13401</v>
       </c>
@@ -34793,7 +34793,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="394" spans="1:43" hidden="1">
+    <row r="394" spans="1:43">
       <c r="A394" s="2">
         <v>13401</v>
       </c>
@@ -34856,7 +34856,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="395" spans="1:43" hidden="1">
+    <row r="395" spans="1:43">
       <c r="A395" s="2">
         <v>13401</v>
       </c>
@@ -34919,7 +34919,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="396" spans="1:43" hidden="1">
+    <row r="396" spans="1:43">
       <c r="A396" s="2">
         <v>13401</v>
       </c>
@@ -34982,7 +34982,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="397" spans="1:43" hidden="1">
+    <row r="397" spans="1:43">
       <c r="A397" s="2">
         <v>13401</v>
       </c>
@@ -35045,7 +35045,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:43" hidden="1">
+    <row r="398" spans="1:43">
       <c r="A398" s="2">
         <v>13401</v>
       </c>
@@ -35105,7 +35105,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="399" spans="1:43" hidden="1">
+    <row r="399" spans="1:43">
       <c r="A399" s="2">
         <v>13401</v>
       </c>
@@ -35165,7 +35165,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="400" spans="1:43" hidden="1">
+    <row r="400" spans="1:43">
       <c r="A400" s="2">
         <v>13401</v>
       </c>
@@ -35225,7 +35225,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="401" spans="1:42" hidden="1">
+    <row r="401" spans="1:42">
       <c r="A401" s="2">
         <v>13401</v>
       </c>
@@ -35285,7 +35285,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="402" spans="1:42" hidden="1">
+    <row r="402" spans="1:42">
       <c r="A402" s="2">
         <v>13401</v>
       </c>
@@ -35348,7 +35348,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="403" spans="1:42" hidden="1">
+    <row r="403" spans="1:42">
       <c r="A403" s="2">
         <v>13401</v>
       </c>
@@ -35411,7 +35411,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="404" spans="1:42" hidden="1">
+    <row r="404" spans="1:42">
       <c r="A404" s="2">
         <v>13401</v>
       </c>
@@ -35474,7 +35474,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="405" spans="1:42" hidden="1">
+    <row r="405" spans="1:42">
       <c r="A405" s="2">
         <v>13401</v>
       </c>
@@ -35537,7 +35537,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="406" spans="1:42" hidden="1">
+    <row r="406" spans="1:42">
       <c r="A406" s="2">
         <v>13401</v>
       </c>
@@ -35597,7 +35597,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="407" spans="1:42" hidden="1">
+    <row r="407" spans="1:42">
       <c r="A407" s="2">
         <v>13401</v>
       </c>
@@ -35657,7 +35657,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="408" spans="1:42" hidden="1">
+    <row r="408" spans="1:42">
       <c r="A408" s="2">
         <v>13401</v>
       </c>
@@ -35717,7 +35717,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="409" spans="1:42" hidden="1">
+    <row r="409" spans="1:42">
       <c r="A409" s="2">
         <v>13401</v>
       </c>
@@ -35777,7 +35777,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="410" spans="1:42" hidden="1">
+    <row r="410" spans="1:42">
       <c r="A410" s="2">
         <v>13401</v>
       </c>
@@ -35834,7 +35834,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="411" spans="1:42" hidden="1">
+    <row r="411" spans="1:42">
       <c r="A411" s="2">
         <v>13401</v>
       </c>
@@ -35888,7 +35888,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="412" spans="1:42" hidden="1">
+    <row r="412" spans="1:42">
       <c r="A412" s="2">
         <v>13401</v>
       </c>
@@ -35951,7 +35951,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="413" spans="1:42" hidden="1">
+    <row r="413" spans="1:42">
       <c r="A413" s="2">
         <v>13401</v>
       </c>
@@ -36014,7 +36014,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="414" spans="1:42" hidden="1">
+    <row r="414" spans="1:42">
       <c r="A414" s="2">
         <v>13401</v>
       </c>
@@ -36077,7 +36077,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="415" spans="1:42" hidden="1">
+    <row r="415" spans="1:42">
       <c r="A415" s="2">
         <v>13401</v>
       </c>
@@ -36140,7 +36140,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="416" spans="1:42" hidden="1">
+    <row r="416" spans="1:42">
       <c r="A416" s="2">
         <v>13401</v>
       </c>
@@ -36201,7 +36201,7 @@
       </c>
       <c r="AP416" s="13"/>
     </row>
-    <row r="417" spans="1:43" hidden="1">
+    <row r="417" spans="1:43">
       <c r="A417" s="2">
         <v>13401</v>
       </c>
@@ -36261,7 +36261,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="418" spans="1:43" hidden="1">
+    <row r="418" spans="1:43">
       <c r="A418" s="2">
         <v>13401</v>
       </c>
@@ -36321,7 +36321,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="419" spans="1:43" hidden="1">
+    <row r="419" spans="1:43">
       <c r="A419" s="2">
         <v>13401</v>
       </c>
@@ -36381,7 +36381,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="420" spans="1:43" hidden="1">
+    <row r="420" spans="1:43">
       <c r="A420" s="2">
         <v>13401</v>
       </c>
@@ -36444,7 +36444,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="421" spans="1:43" hidden="1">
+    <row r="421" spans="1:43">
       <c r="A421" s="2">
         <v>13401</v>
       </c>
@@ -36507,7 +36507,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="422" spans="1:43" hidden="1">
+    <row r="422" spans="1:43">
       <c r="A422" s="2">
         <v>13401</v>
       </c>
@@ -36570,7 +36570,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="423" spans="1:43" hidden="1">
+    <row r="423" spans="1:43">
       <c r="A423" s="2">
         <v>13401</v>
       </c>
@@ -36633,7 +36633,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="424" spans="1:43" hidden="1">
+    <row r="424" spans="1:43">
       <c r="A424" s="2">
         <v>13401</v>
       </c>
@@ -36693,7 +36693,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="425" spans="1:43" hidden="1">
+    <row r="425" spans="1:43">
       <c r="A425" s="2">
         <v>13401</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="426" spans="1:43" hidden="1">
+    <row r="426" spans="1:43">
       <c r="A426" s="2">
         <v>13401</v>
       </c>
@@ -36813,7 +36813,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="427" spans="1:43" hidden="1">
+    <row r="427" spans="1:43">
       <c r="A427" s="2">
         <v>13401</v>
       </c>
@@ -36873,7 +36873,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="428" spans="1:43" hidden="1">
+    <row r="428" spans="1:43">
       <c r="A428" s="2">
         <v>13402</v>
       </c>
@@ -36892,7 +36892,7 @@
       </c>
       <c r="AQ428" s="3"/>
     </row>
-    <row r="429" spans="1:43" hidden="1">
+    <row r="429" spans="1:43">
       <c r="A429" s="2">
         <v>4984</v>
       </c>
@@ -36914,7 +36914,7 @@
       </c>
       <c r="AQ429" s="3"/>
     </row>
-    <row r="430" spans="1:43" hidden="1">
+    <row r="430" spans="1:43">
       <c r="A430" s="2">
         <v>15837</v>
       </c>
@@ -36980,7 +36980,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="431" spans="1:43" hidden="1">
+    <row r="431" spans="1:43">
       <c r="A431" s="2">
         <v>15837</v>
       </c>
@@ -37046,7 +37046,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="432" spans="1:43" hidden="1">
+    <row r="432" spans="1:43">
       <c r="A432" s="2">
         <v>15837</v>
       </c>
@@ -37112,7 +37112,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="433" spans="1:43" hidden="1">
+    <row r="433" spans="1:43">
       <c r="A433" s="2">
         <v>5245</v>
       </c>
@@ -37173,7 +37173,7 @@
       </c>
       <c r="AQ433" s="3"/>
     </row>
-    <row r="434" spans="1:43" hidden="1">
+    <row r="434" spans="1:43">
       <c r="A434" s="2">
         <v>5245</v>
       </c>
@@ -37234,7 +37234,7 @@
       </c>
       <c r="AQ434" s="3"/>
     </row>
-    <row r="435" spans="1:43" ht="16.5" hidden="1" customHeight="1">
+    <row r="435" spans="1:43" ht="16.5" customHeight="1">
       <c r="A435" s="2">
         <v>5245</v>
       </c>
@@ -37295,7 +37295,7 @@
       </c>
       <c r="AQ435" s="3"/>
     </row>
-    <row r="436" spans="1:43" hidden="1">
+    <row r="436" spans="1:43">
       <c r="A436" s="2">
         <v>5245</v>
       </c>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="AQ436" s="3"/>
     </row>
-    <row r="437" spans="1:43" hidden="1">
+    <row r="437" spans="1:43">
       <c r="A437" s="2">
         <v>5245</v>
       </c>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="AQ437" s="3"/>
     </row>
-    <row r="438" spans="1:43" hidden="1">
+    <row r="438" spans="1:43">
       <c r="A438" s="2">
         <v>5245</v>
       </c>
@@ -37478,7 +37478,7 @@
       </c>
       <c r="AQ438" s="3"/>
     </row>
-    <row r="439" spans="1:43" ht="16.5" hidden="1" customHeight="1">
+    <row r="439" spans="1:43" ht="16.5" customHeight="1">
       <c r="A439" s="2">
         <v>5245</v>
       </c>
@@ -37539,7 +37539,7 @@
       </c>
       <c r="AQ439" s="3"/>
     </row>
-    <row r="440" spans="1:43" hidden="1">
+    <row r="440" spans="1:43">
       <c r="A440" s="2">
         <v>5245</v>
       </c>
@@ -37600,7 +37600,7 @@
       </c>
       <c r="AQ440" s="3"/>
     </row>
-    <row r="441" spans="1:43" hidden="1">
+    <row r="441" spans="1:43">
       <c r="A441" s="2">
         <v>5245</v>
       </c>
@@ -37661,7 +37661,7 @@
       </c>
       <c r="AQ441" s="3"/>
     </row>
-    <row r="442" spans="1:43" hidden="1">
+    <row r="442" spans="1:43">
       <c r="A442" s="2">
         <v>5245</v>
       </c>
@@ -37722,7 +37722,7 @@
       </c>
       <c r="AQ442" s="3"/>
     </row>
-    <row r="443" spans="1:43" hidden="1">
+    <row r="443" spans="1:43">
       <c r="A443" s="2">
         <v>5245</v>
       </c>
@@ -37783,7 +37783,7 @@
       </c>
       <c r="AQ443" s="3"/>
     </row>
-    <row r="444" spans="1:43" hidden="1">
+    <row r="444" spans="1:43">
       <c r="A444" s="2">
         <v>5245</v>
       </c>
@@ -37844,7 +37844,7 @@
       </c>
       <c r="AQ444" s="3"/>
     </row>
-    <row r="445" spans="1:43" hidden="1">
+    <row r="445" spans="1:43">
       <c r="A445" s="2">
         <v>4974</v>
       </c>
@@ -37863,7 +37863,7 @@
       </c>
       <c r="AQ445" s="3"/>
     </row>
-    <row r="446" spans="1:43" hidden="1">
+    <row r="446" spans="1:43">
       <c r="A446" s="2">
         <v>12412</v>
       </c>
@@ -37882,7 +37882,7 @@
       </c>
       <c r="AQ446" s="3"/>
     </row>
-    <row r="447" spans="1:43" hidden="1">
+    <row r="447" spans="1:43">
       <c r="A447" s="2">
         <v>8074</v>
       </c>
@@ -37901,7 +37901,7 @@
       </c>
       <c r="AQ447" s="3"/>
     </row>
-    <row r="448" spans="1:43" hidden="1">
+    <row r="448" spans="1:43">
       <c r="A448" s="2">
         <v>8255</v>
       </c>
@@ -37920,7 +37920,7 @@
       </c>
       <c r="AQ448" s="3"/>
     </row>
-    <row r="449" spans="1:43" hidden="1">
+    <row r="449" spans="1:43">
       <c r="A449" s="2">
         <v>5965</v>
       </c>
@@ -37983,7 +37983,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="450" spans="1:43" hidden="1">
+    <row r="450" spans="1:43">
       <c r="A450" s="2">
         <v>5965</v>
       </c>
@@ -38046,7 +38046,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="451" spans="1:43" hidden="1">
+    <row r="451" spans="1:43">
       <c r="A451" s="2">
         <v>5965</v>
       </c>
@@ -38109,7 +38109,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="452" spans="1:43" hidden="1">
+    <row r="452" spans="1:43">
       <c r="A452" s="2">
         <v>90005</v>
       </c>
@@ -38163,7 +38163,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:43" hidden="1">
+    <row r="453" spans="1:43">
       <c r="A453" s="2">
         <v>15865</v>
       </c>
@@ -38182,7 +38182,7 @@
       </c>
       <c r="AQ453" s="3"/>
     </row>
-    <row r="454" spans="1:43" hidden="1">
+    <row r="454" spans="1:43">
       <c r="A454" s="2">
         <v>9466</v>
       </c>
@@ -38245,7 +38245,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="455" spans="1:43" hidden="1">
+    <row r="455" spans="1:43">
       <c r="A455" s="2">
         <v>10314</v>
       </c>
@@ -38312,7 +38312,7 @@
       </c>
       <c r="AQ455" s="3"/>
     </row>
-    <row r="456" spans="1:43" hidden="1">
+    <row r="456" spans="1:43">
       <c r="A456" s="2">
         <v>10314</v>
       </c>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="AQ456" s="3"/>
     </row>
-    <row r="457" spans="1:43" ht="18.75" hidden="1" customHeight="1">
+    <row r="457" spans="1:43" ht="18.75" customHeight="1">
       <c r="A457" s="2">
         <v>10314</v>
       </c>
@@ -38446,7 +38446,7 @@
       </c>
       <c r="AQ457" s="3"/>
     </row>
-    <row r="458" spans="1:43" hidden="1">
+    <row r="458" spans="1:43">
       <c r="A458" s="2">
         <v>10314</v>
       </c>
@@ -38513,7 +38513,7 @@
       </c>
       <c r="AQ458" s="3"/>
     </row>
-    <row r="459" spans="1:43" hidden="1">
+    <row r="459" spans="1:43">
       <c r="A459" s="2">
         <v>10314</v>
       </c>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="AQ459" s="3"/>
     </row>
-    <row r="460" spans="1:43" hidden="1">
+    <row r="460" spans="1:43">
       <c r="A460" s="2">
         <v>10314</v>
       </c>
@@ -38647,7 +38647,7 @@
       </c>
       <c r="AQ460" s="3"/>
     </row>
-    <row r="461" spans="1:43" hidden="1">
+    <row r="461" spans="1:43">
       <c r="A461" s="2">
         <v>13682</v>
       </c>
@@ -38666,7 +38666,7 @@
       </c>
       <c r="AQ461" s="3"/>
     </row>
-    <row r="462" spans="1:43" hidden="1">
+    <row r="462" spans="1:43">
       <c r="A462" s="2">
         <v>13716</v>
       </c>
@@ -38685,7 +38685,7 @@
       </c>
       <c r="AQ462" s="3"/>
     </row>
-    <row r="463" spans="1:43" hidden="1">
+    <row r="463" spans="1:43">
       <c r="A463" s="2">
         <v>14209</v>
       </c>
@@ -38739,7 +38739,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="464" spans="1:43" hidden="1">
+    <row r="464" spans="1:43">
       <c r="A464" s="2">
         <v>14700</v>
       </c>
@@ -38758,7 +38758,7 @@
       </c>
       <c r="AQ464" s="3"/>
     </row>
-    <row r="465" spans="1:43" hidden="1">
+    <row r="465" spans="1:43">
       <c r="A465" s="2">
         <v>13313</v>
       </c>
@@ -38818,7 +38818,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="466" spans="1:43" hidden="1">
+    <row r="466" spans="1:43">
       <c r="A466" s="2">
         <v>15476</v>
       </c>
@@ -38840,7 +38840,7 @@
       </c>
       <c r="AQ466" s="3"/>
     </row>
-    <row r="467" spans="1:43" hidden="1">
+    <row r="467" spans="1:43">
       <c r="A467" s="2">
         <v>10327</v>
       </c>
@@ -38915,7 +38915,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="468" spans="1:43" hidden="1">
+    <row r="468" spans="1:43">
       <c r="A468" s="2">
         <v>10327</v>
       </c>
@@ -38990,7 +38990,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="469" spans="1:43" hidden="1">
+    <row r="469" spans="1:43">
       <c r="A469" s="2">
         <v>10327</v>
       </c>
@@ -39065,7 +39065,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="470" spans="1:43" hidden="1">
+    <row r="470" spans="1:43">
       <c r="A470" s="2">
         <v>10327</v>
       </c>
@@ -39140,7 +39140,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="471" spans="1:43" hidden="1">
+    <row r="471" spans="1:43">
       <c r="A471" s="2">
         <v>10327</v>
       </c>
@@ -39215,7 +39215,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="472" spans="1:43" hidden="1">
+    <row r="472" spans="1:43">
       <c r="A472" s="2">
         <v>10327</v>
       </c>
@@ -39290,7 +39290,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="473" spans="1:43" hidden="1">
+    <row r="473" spans="1:43">
       <c r="A473" s="2">
         <v>10327</v>
       </c>
@@ -39365,7 +39365,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="474" spans="1:43" hidden="1">
+    <row r="474" spans="1:43">
       <c r="A474" s="2">
         <v>10327</v>
       </c>
@@ -39440,7 +39440,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="475" spans="1:43" hidden="1">
+    <row r="475" spans="1:43">
       <c r="A475" s="2">
         <v>2149</v>
       </c>
@@ -39459,7 +39459,7 @@
       </c>
       <c r="AQ475" s="3"/>
     </row>
-    <row r="476" spans="1:43" hidden="1">
+    <row r="476" spans="1:43">
       <c r="A476" s="2">
         <v>6850</v>
       </c>
@@ -39493,7 +39493,7 @@
       </c>
       <c r="AQ476" s="3"/>
     </row>
-    <row r="477" spans="1:43" hidden="1">
+    <row r="477" spans="1:43">
       <c r="A477" s="2">
         <v>1951</v>
       </c>
@@ -39566,7 +39566,7 @@
       </c>
       <c r="AQ477" s="3"/>
     </row>
-    <row r="478" spans="1:43" hidden="1">
+    <row r="478" spans="1:43">
       <c r="A478" s="2">
         <v>1951</v>
       </c>
@@ -39639,7 +39639,7 @@
       </c>
       <c r="AQ478" s="3"/>
     </row>
-    <row r="479" spans="1:43" hidden="1">
+    <row r="479" spans="1:43">
       <c r="A479" s="2">
         <v>1951</v>
       </c>
@@ -39712,7 +39712,7 @@
       </c>
       <c r="AQ479" s="3"/>
     </row>
-    <row r="480" spans="1:43" hidden="1">
+    <row r="480" spans="1:43">
       <c r="A480" s="2">
         <v>1951</v>
       </c>
@@ -39785,7 +39785,7 @@
       </c>
       <c r="AQ480" s="3"/>
     </row>
-    <row r="481" spans="1:43" hidden="1">
+    <row r="481" spans="1:43">
       <c r="A481" s="2">
         <v>1951</v>
       </c>
@@ -39915,7 +39915,7 @@
         <v>6.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:43" hidden="1">
+    <row r="483" spans="1:43">
       <c r="A483" s="2">
         <v>12134</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="484" spans="1:43" hidden="1">
+    <row r="484" spans="1:43">
       <c r="A484" s="2">
         <v>12134</v>
       </c>
@@ -40047,7 +40047,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="485" spans="1:43" hidden="1">
+    <row r="485" spans="1:43">
       <c r="A485" s="2">
         <v>12134</v>
       </c>
@@ -40113,7 +40113,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="486" spans="1:43" hidden="1">
+    <row r="486" spans="1:43">
       <c r="A486" s="2">
         <v>3588</v>
       </c>
@@ -40135,7 +40135,7 @@
       </c>
       <c r="AQ486" s="3"/>
     </row>
-    <row r="487" spans="1:43" hidden="1">
+    <row r="487" spans="1:43">
       <c r="A487" s="2">
         <v>1658</v>
       </c>
@@ -40208,7 +40208,7 @@
       </c>
       <c r="AQ487" s="3"/>
     </row>
-    <row r="488" spans="1:43" hidden="1">
+    <row r="488" spans="1:43">
       <c r="A488" s="2">
         <v>1658</v>
       </c>
@@ -40281,7 +40281,7 @@
       </c>
       <c r="AQ488" s="3"/>
     </row>
-    <row r="489" spans="1:43" hidden="1">
+    <row r="489" spans="1:43">
       <c r="A489" s="2">
         <v>2140</v>
       </c>
@@ -40354,7 +40354,7 @@
       </c>
       <c r="AQ489" s="3"/>
     </row>
-    <row r="490" spans="1:43" hidden="1">
+    <row r="490" spans="1:43">
       <c r="A490" s="2">
         <v>2140</v>
       </c>
@@ -40427,7 +40427,7 @@
       </c>
       <c r="AQ490" s="3"/>
     </row>
-    <row r="491" spans="1:43" hidden="1">
+    <row r="491" spans="1:43">
       <c r="A491" s="2">
         <v>2140</v>
       </c>
@@ -40497,7 +40497,7 @@
       </c>
       <c r="AQ491" s="3"/>
     </row>
-    <row r="492" spans="1:43" hidden="1">
+    <row r="492" spans="1:43">
       <c r="A492" s="2">
         <v>2140</v>
       </c>
@@ -40567,7 +40567,7 @@
       </c>
       <c r="AQ492" s="3"/>
     </row>
-    <row r="493" spans="1:43" hidden="1">
+    <row r="493" spans="1:43">
       <c r="A493" s="2">
         <v>2140</v>
       </c>
@@ -40640,7 +40640,7 @@
       </c>
       <c r="AQ493" s="3"/>
     </row>
-    <row r="494" spans="1:43" hidden="1">
+    <row r="494" spans="1:43">
       <c r="A494" s="2">
         <v>2140</v>
       </c>
@@ -40713,7 +40713,7 @@
       </c>
       <c r="AQ494" s="3"/>
     </row>
-    <row r="495" spans="1:43" hidden="1">
+    <row r="495" spans="1:43">
       <c r="A495" s="2">
         <v>2140</v>
       </c>
@@ -40783,7 +40783,7 @@
       </c>
       <c r="AQ495" s="3"/>
     </row>
-    <row r="496" spans="1:43" hidden="1">
+    <row r="496" spans="1:43">
       <c r="A496" s="2">
         <v>2140</v>
       </c>
@@ -40856,7 +40856,7 @@
       </c>
       <c r="AQ496" s="3"/>
     </row>
-    <row r="497" spans="1:43" hidden="1">
+    <row r="497" spans="1:43">
       <c r="A497" s="2">
         <v>2140</v>
       </c>
@@ -40929,7 +40929,7 @@
       </c>
       <c r="AQ497" s="3"/>
     </row>
-    <row r="498" spans="1:43" hidden="1">
+    <row r="498" spans="1:43">
       <c r="A498" s="2">
         <v>2140</v>
       </c>
@@ -40999,7 +40999,7 @@
       </c>
       <c r="AQ498" s="3"/>
     </row>
-    <row r="499" spans="1:43" hidden="1">
+    <row r="499" spans="1:43">
       <c r="A499" s="2">
         <v>2140</v>
       </c>
@@ -41069,7 +41069,7 @@
       </c>
       <c r="AQ499" s="3"/>
     </row>
-    <row r="500" spans="1:43" hidden="1">
+    <row r="500" spans="1:43">
       <c r="A500" s="2">
         <v>2140</v>
       </c>
@@ -41142,7 +41142,7 @@
       </c>
       <c r="AQ500" s="3"/>
     </row>
-    <row r="501" spans="1:43" hidden="1">
+    <row r="501" spans="1:43">
       <c r="A501" s="2">
         <v>2140</v>
       </c>
@@ -41215,7 +41215,7 @@
       </c>
       <c r="AQ501" s="3"/>
     </row>
-    <row r="502" spans="1:43" hidden="1">
+    <row r="502" spans="1:43">
       <c r="A502" s="2">
         <v>2140</v>
       </c>
@@ -41285,7 +41285,7 @@
       </c>
       <c r="AQ502" s="3"/>
     </row>
-    <row r="503" spans="1:43" hidden="1">
+    <row r="503" spans="1:43">
       <c r="A503" s="2">
         <v>2140</v>
       </c>
@@ -41358,7 +41358,7 @@
       </c>
       <c r="AQ503" s="3"/>
     </row>
-    <row r="504" spans="1:43" hidden="1">
+    <row r="504" spans="1:43">
       <c r="A504" s="2">
         <v>2140</v>
       </c>
@@ -41431,7 +41431,7 @@
       </c>
       <c r="AQ504" s="3"/>
     </row>
-    <row r="505" spans="1:43" hidden="1">
+    <row r="505" spans="1:43">
       <c r="A505" s="2">
         <v>2140</v>
       </c>
@@ -41501,7 +41501,7 @@
       </c>
       <c r="AQ505" s="3"/>
     </row>
-    <row r="506" spans="1:43" hidden="1">
+    <row r="506" spans="1:43">
       <c r="A506" s="2">
         <v>2140</v>
       </c>
@@ -41571,7 +41571,7 @@
       </c>
       <c r="AQ506" s="3"/>
     </row>
-    <row r="507" spans="1:43" hidden="1">
+    <row r="507" spans="1:43">
       <c r="A507" s="2">
         <v>2140</v>
       </c>
@@ -41644,7 +41644,7 @@
       </c>
       <c r="AQ507" s="3"/>
     </row>
-    <row r="508" spans="1:43" hidden="1">
+    <row r="508" spans="1:43">
       <c r="A508" s="2">
         <v>2140</v>
       </c>
@@ -41717,7 +41717,7 @@
       </c>
       <c r="AQ508" s="3"/>
     </row>
-    <row r="509" spans="1:43" hidden="1">
+    <row r="509" spans="1:43">
       <c r="A509" s="2">
         <v>2140</v>
       </c>
@@ -41787,7 +41787,7 @@
       </c>
       <c r="AQ509" s="3"/>
     </row>
-    <row r="510" spans="1:43" hidden="1">
+    <row r="510" spans="1:43">
       <c r="A510" s="2">
         <v>2140</v>
       </c>
@@ -41860,7 +41860,7 @@
       </c>
       <c r="AQ510" s="3"/>
     </row>
-    <row r="511" spans="1:43" hidden="1">
+    <row r="511" spans="1:43">
       <c r="A511" s="2">
         <v>2140</v>
       </c>
@@ -41933,7 +41933,7 @@
       </c>
       <c r="AQ511" s="3"/>
     </row>
-    <row r="512" spans="1:43" hidden="1">
+    <row r="512" spans="1:43">
       <c r="A512" s="2">
         <v>2140</v>
       </c>
@@ -42003,7 +42003,7 @@
       </c>
       <c r="AQ512" s="3"/>
     </row>
-    <row r="513" spans="1:43" hidden="1">
+    <row r="513" spans="1:43">
       <c r="A513" s="2">
         <v>2140</v>
       </c>
@@ -42073,7 +42073,7 @@
       </c>
       <c r="AQ513" s="3"/>
     </row>
-    <row r="514" spans="1:43" hidden="1">
+    <row r="514" spans="1:43">
       <c r="A514" s="2">
         <v>2140</v>
       </c>
@@ -42146,7 +42146,7 @@
       </c>
       <c r="AQ514" s="3"/>
     </row>
-    <row r="515" spans="1:43" hidden="1">
+    <row r="515" spans="1:43">
       <c r="A515" s="2">
         <v>2140</v>
       </c>
@@ -42219,7 +42219,7 @@
       </c>
       <c r="AQ515" s="3"/>
     </row>
-    <row r="516" spans="1:43" hidden="1">
+    <row r="516" spans="1:43">
       <c r="A516" s="2">
         <v>2140</v>
       </c>
@@ -42289,7 +42289,7 @@
       </c>
       <c r="AQ516" s="3"/>
     </row>
-    <row r="517" spans="1:43" hidden="1">
+    <row r="517" spans="1:43">
       <c r="A517" s="2">
         <v>10287</v>
       </c>
@@ -42308,7 +42308,7 @@
       </c>
       <c r="AQ517" s="3"/>
     </row>
-    <row r="518" spans="1:43" hidden="1">
+    <row r="518" spans="1:43">
       <c r="A518" s="2">
         <v>10460</v>
       </c>
@@ -42327,7 +42327,7 @@
       </c>
       <c r="AQ518" s="3"/>
     </row>
-    <row r="519" spans="1:43" hidden="1">
+    <row r="519" spans="1:43">
       <c r="A519" s="2">
         <v>9944</v>
       </c>
@@ -42346,7 +42346,7 @@
       </c>
       <c r="AQ519" s="3"/>
     </row>
-    <row r="520" spans="1:43" hidden="1">
+    <row r="520" spans="1:43">
       <c r="A520" s="2">
         <v>90001</v>
       </c>
@@ -42419,7 +42419,7 @@
       </c>
       <c r="AQ520" s="3"/>
     </row>
-    <row r="521" spans="1:43" hidden="1">
+    <row r="521" spans="1:43">
       <c r="A521" s="2">
         <v>10288</v>
       </c>
@@ -42483,7 +42483,7 @@
       </c>
       <c r="AQ521" s="3"/>
     </row>
-    <row r="522" spans="1:43" hidden="1">
+    <row r="522" spans="1:43">
       <c r="A522" s="2">
         <v>14271</v>
       </c>
@@ -42502,7 +42502,7 @@
       </c>
       <c r="AQ522" s="3"/>
     </row>
-    <row r="523" spans="1:43" hidden="1">
+    <row r="523" spans="1:43">
       <c r="A523" s="2">
         <v>8467</v>
       </c>
@@ -42536,7 +42536,7 @@
       </c>
       <c r="AQ523" s="3"/>
     </row>
-    <row r="524" spans="1:43" hidden="1">
+    <row r="524" spans="1:43">
       <c r="A524" s="2">
         <v>8467</v>
       </c>
@@ -42570,7 +42570,7 @@
       </c>
       <c r="AQ524" s="3"/>
     </row>
-    <row r="525" spans="1:43" hidden="1">
+    <row r="525" spans="1:43">
       <c r="A525" s="2">
         <v>14755</v>
       </c>
@@ -42627,7 +42627,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:43" hidden="1">
+    <row r="526" spans="1:43">
       <c r="A526" s="2">
         <v>14755</v>
       </c>
@@ -42684,7 +42684,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:43" hidden="1">
+    <row r="527" spans="1:43">
       <c r="A527" s="2">
         <v>14755</v>
       </c>
@@ -42744,7 +42744,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="528" spans="1:43" hidden="1">
+    <row r="528" spans="1:43">
       <c r="A528" s="2">
         <v>90002</v>
       </c>
@@ -42802,7 +42802,7 @@
       </c>
       <c r="AQ528" s="3"/>
     </row>
-    <row r="529" spans="1:43" hidden="1">
+    <row r="529" spans="1:43">
       <c r="A529" s="2">
         <v>90002</v>
       </c>
@@ -42860,7 +42860,7 @@
       </c>
       <c r="AQ529" s="3"/>
     </row>
-    <row r="530" spans="1:43" hidden="1">
+    <row r="530" spans="1:43">
       <c r="A530" s="2">
         <v>90002</v>
       </c>
@@ -42918,7 +42918,7 @@
       </c>
       <c r="AQ530" s="3"/>
     </row>
-    <row r="531" spans="1:43" hidden="1">
+    <row r="531" spans="1:43">
       <c r="A531" s="2">
         <v>90002</v>
       </c>
@@ -42976,7 +42976,7 @@
       </c>
       <c r="AQ531" s="3"/>
     </row>
-    <row r="532" spans="1:43" hidden="1">
+    <row r="532" spans="1:43">
       <c r="A532" s="2">
         <v>90002</v>
       </c>
@@ -43034,7 +43034,7 @@
       </c>
       <c r="AQ532" s="3"/>
     </row>
-    <row r="533" spans="1:43" hidden="1">
+    <row r="533" spans="1:43">
       <c r="A533" s="2">
         <v>90002</v>
       </c>
@@ -43092,7 +43092,7 @@
       </c>
       <c r="AQ533" s="3"/>
     </row>
-    <row r="534" spans="1:43" hidden="1">
+    <row r="534" spans="1:43">
       <c r="A534" s="2">
         <v>90002</v>
       </c>
@@ -43150,7 +43150,7 @@
       </c>
       <c r="AQ534" s="3"/>
     </row>
-    <row r="535" spans="1:43" hidden="1">
+    <row r="535" spans="1:43">
       <c r="A535" s="2">
         <v>90002</v>
       </c>
@@ -43271,7 +43271,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="537" spans="1:43" hidden="1">
+    <row r="537" spans="1:43">
       <c r="A537" s="2">
         <v>5397</v>
       </c>
@@ -43328,7 +43328,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="538" spans="1:43" hidden="1">
+    <row r="538" spans="1:43">
       <c r="A538" s="2">
         <v>5397</v>
       </c>
@@ -43388,7 +43388,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="539" spans="1:43" hidden="1">
+    <row r="539" spans="1:43">
       <c r="A539" s="2">
         <v>5397</v>
       </c>
@@ -43448,7 +43448,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="540" spans="1:43" hidden="1">
+    <row r="540" spans="1:43">
       <c r="A540" s="2">
         <v>3232</v>
       </c>
@@ -43521,7 +43521,7 @@
       </c>
       <c r="AQ540" s="3"/>
     </row>
-    <row r="541" spans="1:43" hidden="1">
+    <row r="541" spans="1:43">
       <c r="A541" s="2">
         <v>3232</v>
       </c>
@@ -43594,7 +43594,7 @@
       </c>
       <c r="AQ541" s="3"/>
     </row>
-    <row r="542" spans="1:43" hidden="1">
+    <row r="542" spans="1:43">
       <c r="A542" s="2">
         <v>3232</v>
       </c>
@@ -43667,7 +43667,7 @@
       </c>
       <c r="AQ542" s="3"/>
     </row>
-    <row r="543" spans="1:43" hidden="1">
+    <row r="543" spans="1:43">
       <c r="A543" s="2">
         <v>12093</v>
       </c>
@@ -43712,7 +43712,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="544" spans="1:43" hidden="1">
+    <row r="544" spans="1:43">
       <c r="A544" s="2">
         <v>12093</v>
       </c>
@@ -43757,7 +43757,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="545" spans="1:43" hidden="1">
+    <row r="545" spans="1:43">
       <c r="A545" s="2">
         <v>12093</v>
       </c>
@@ -43802,7 +43802,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="546" spans="1:43" hidden="1">
+    <row r="546" spans="1:43">
       <c r="A546" s="2">
         <v>12093</v>
       </c>
@@ -43847,7 +43847,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="547" spans="1:43" hidden="1">
+    <row r="547" spans="1:43">
       <c r="A547" s="2">
         <v>14333</v>
       </c>
@@ -43869,24 +43869,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS547" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NRSE"/>
-        <filter val="NRSI"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="Statin - Ever"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="35">
-      <filters>
-        <filter val="OR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AS547" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}"/>
   <conditionalFormatting sqref="T12">
     <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C12="D"</formula>
@@ -43941,11 +43924,11 @@
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="2"/>
-    <col min="12" max="12" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -49146,9 +49129,9 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49318,7 +49301,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="58">
+    <row r="13" spans="1:6" ht="60">
       <c r="A13" t="s">
         <v>839</v>
       </c>
@@ -49398,7 +49381,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="43.5">
+    <row r="20" spans="2:11" ht="45">
       <c r="B20" s="8" t="s">
         <v>756</v>
       </c>
@@ -49681,12 +49664,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/data/sys-rev/data_extraction_main.xlsx
+++ b/data/sys-rev/data_extraction_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8220" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE6B89DD-1279-4A54-A064-58B3D85BB4AA}"/>
+  <xr:revisionPtr revIDLastSave="8229" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DAA6AC8-C63A-4763-A656-7D772FFE114B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{223BA438-5F2E-4822-A5ED-F5CE1AC6569C}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -6137,7 +6137,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -12549,8 +12549,8 @@
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:AR546"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA44" sqref="AA44:AA62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B535" sqref="B188:B535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15239,7 +15239,7 @@
       </c>
       <c r="AQ43" s="3"/>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" hidden="1">
       <c r="A44" s="2">
         <v>9740</v>
       </c>
@@ -15312,7 +15312,7 @@
       </c>
       <c r="AQ44" s="3"/>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" hidden="1">
       <c r="A45" s="2">
         <v>9740</v>
       </c>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="AQ45" s="3"/>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" hidden="1">
       <c r="A46" s="2">
         <v>9740</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" hidden="1">
       <c r="A60" s="2">
         <v>9740</v>
       </c>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="AQ60" s="3"/>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" hidden="1">
       <c r="A61" s="2">
         <v>9740</v>
       </c>
@@ -16488,7 +16488,7 @@
       </c>
       <c r="AQ61" s="3"/>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" hidden="1">
       <c r="A62" s="2">
         <v>9740</v>
       </c>
@@ -23198,7 +23198,7 @@
       <c r="AQ187" s="3"/>
       <c r="AR187" s="2"/>
     </row>
-    <row r="188" spans="1:44" hidden="1">
+    <row r="188" spans="1:44">
       <c r="A188" s="2">
         <v>14670</v>
       </c>
@@ -43224,7 +43224,7 @@
       </c>
       <c r="AQ534" s="3"/>
     </row>
-    <row r="535" spans="1:43" hidden="1">
+    <row r="535" spans="1:43">
       <c r="A535" s="2">
         <v>2016</v>
       </c>
@@ -43895,14 +43895,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AS546" xr:uid="{06A4228E-D6DA-48FD-8676-3797E7061522}">
-    <filterColumn colId="4">
+    <filterColumn colId="2">
       <filters>
-        <filter val="MR"/>
+        <filter val="Hendrie"/>
+        <filter val="Zamrini"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="25">
       <filters>
-        <filter val="One sample"/>
+        <filter val="AD"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="35">
+      <filters>
+        <filter val="OR"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -49887,10 +49893,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8FDD43-BC49-47B7-8864-F870ACEF98BE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49944,7 +49951,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="2" t="s">
         <v>1327</v>
       </c>
@@ -49975,7 +49982,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="2" t="s">
         <v>1328</v>
       </c>
@@ -50006,7 +50013,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" s="2" t="s">
         <v>1329</v>
       </c>
@@ -50037,7 +50044,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="2" t="s">
         <v>1349</v>
       </c>
@@ -50074,7 +50081,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" s="2" t="s">
         <v>1350</v>
       </c>
@@ -50111,7 +50118,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="2" t="s">
         <v>1351</v>
       </c>
@@ -50148,7 +50155,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="2" t="s">
         <v>1343</v>
       </c>
@@ -50185,7 +50192,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9" s="2" t="s">
         <v>1344</v>
       </c>
@@ -50222,7 +50229,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10" s="2" t="s">
         <v>1345</v>
       </c>
@@ -50259,7 +50266,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" s="2" t="s">
         <v>1385</v>
       </c>
@@ -50296,7 +50303,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="2" t="s">
         <v>1409</v>
       </c>
@@ -50333,7 +50340,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="2" t="s">
         <v>1410</v>
       </c>
@@ -50370,7 +50377,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="2" t="s">
         <v>1528</v>
       </c>
@@ -50407,7 +50414,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="2" t="s">
         <v>1529</v>
       </c>
@@ -50444,7 +50451,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="2" t="s">
         <v>1609</v>
       </c>
@@ -50480,7 +50487,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17" s="2" t="s">
         <v>1399</v>
       </c>
@@ -50511,7 +50518,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="2" t="s">
         <v>1610</v>
       </c>
@@ -50548,7 +50555,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="2" t="s">
         <v>1611</v>
       </c>
@@ -50585,7 +50592,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="2" t="s">
         <v>1652</v>
       </c>
@@ -50622,7 +50629,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="2" t="s">
         <v>1653</v>
       </c>
@@ -50659,7 +50666,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="2" t="s">
         <v>1654</v>
       </c>
@@ -50696,7 +50703,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="2" t="s">
         <v>1655</v>
       </c>
@@ -50733,7 +50740,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="2" t="s">
         <v>1656</v>
       </c>
@@ -50770,7 +50777,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="2" t="s">
         <v>1657</v>
       </c>
@@ -50807,7 +50814,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="2" t="s">
         <v>1658</v>
       </c>
@@ -50844,7 +50851,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="2" t="s">
         <v>1156</v>
       </c>
@@ -50881,7 +50888,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="2" t="s">
         <v>1157</v>
       </c>
@@ -50917,7 +50924,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="2" t="s">
         <v>1166</v>
       </c>
@@ -50954,7 +50961,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="2" t="s">
         <v>1175</v>
       </c>
@@ -50991,7 +50998,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="2" t="s">
         <v>1176</v>
       </c>
@@ -51028,7 +51035,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="2" t="s">
         <v>1177</v>
       </c>
@@ -51065,7 +51072,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" s="2" t="s">
         <v>1178</v>
       </c>
@@ -51102,7 +51109,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" s="2" t="s">
         <v>1179</v>
       </c>
@@ -51139,7 +51146,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="2" t="s">
         <v>1180</v>
       </c>
@@ -51176,7 +51183,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" s="2" t="s">
         <v>1181</v>
       </c>
@@ -51213,7 +51220,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" s="2" t="s">
         <v>1182</v>
       </c>
@@ -51250,7 +51257,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" s="2" t="s">
         <v>1183</v>
       </c>
@@ -51287,7 +51294,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" s="2" t="s">
         <v>1184</v>
       </c>
@@ -51324,7 +51331,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" s="2" t="s">
         <v>1167</v>
       </c>
@@ -51361,7 +51368,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" s="2" t="s">
         <v>1185</v>
       </c>
@@ -51398,7 +51405,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" s="2" t="s">
         <v>1186</v>
       </c>
@@ -51435,7 +51442,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" s="2" t="s">
         <v>1187</v>
       </c>
@@ -51472,7 +51479,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" s="2" t="s">
         <v>1188</v>
       </c>
@@ -51509,7 +51516,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" s="2" t="s">
         <v>1189</v>
       </c>
@@ -51546,7 +51553,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" s="2" t="s">
         <v>1190</v>
       </c>
@@ -51583,7 +51590,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" s="2" t="s">
         <v>1191</v>
       </c>
@@ -51620,7 +51627,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" s="2" t="s">
         <v>1192</v>
       </c>
@@ -51657,7 +51664,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" s="2" t="s">
         <v>1193</v>
       </c>
@@ -51694,7 +51701,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" s="2" t="s">
         <v>1168</v>
       </c>
@@ -51731,7 +51738,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" s="2" t="s">
         <v>1169</v>
       </c>
@@ -51768,7 +51775,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" s="2" t="s">
         <v>1170</v>
       </c>
@@ -51805,7 +51812,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53" s="2" t="s">
         <v>1171</v>
       </c>
@@ -51842,7 +51849,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54" s="2" t="s">
         <v>1172</v>
       </c>
@@ -51879,7 +51886,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" s="2" t="s">
         <v>1173</v>
       </c>
@@ -51916,7 +51923,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="2" t="s">
         <v>1174</v>
       </c>
@@ -51953,7 +51960,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="2" t="s">
         <v>1207</v>
       </c>
@@ -51989,7 +51996,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" hidden="1">
       <c r="A58" s="2" t="s">
         <v>1237</v>
       </c>
@@ -52026,7 +52033,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="2" t="s">
         <v>1269</v>
       </c>
@@ -52066,7 +52073,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="2" t="s">
         <v>1270</v>
       </c>
@@ -52103,7 +52110,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="2" t="s">
         <v>1295</v>
       </c>
@@ -52140,7 +52147,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="2" t="s">
         <v>1296</v>
       </c>
@@ -52177,7 +52184,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="2" t="s">
         <v>1297</v>
       </c>
@@ -52214,7 +52221,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="2" t="s">
         <v>1298</v>
       </c>
@@ -52251,7 +52258,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65" s="2" t="s">
         <v>1299</v>
       </c>
@@ -52288,7 +52295,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66" s="2" t="s">
         <v>1300</v>
       </c>
@@ -52325,7 +52332,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67" s="2" t="s">
         <v>1301</v>
       </c>
@@ -52362,7 +52369,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" hidden="1">
       <c r="A68" s="2" t="s">
         <v>1302</v>
       </c>
@@ -52399,7 +52406,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69" s="2" t="s">
         <v>1337</v>
       </c>
@@ -52436,7 +52443,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" s="2" t="s">
         <v>1338</v>
       </c>
@@ -52473,7 +52480,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" hidden="1">
       <c r="A71" s="2" t="s">
         <v>1339</v>
       </c>
@@ -52510,7 +52517,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1">
       <c r="A72" s="2" t="s">
         <v>1372</v>
       </c>
@@ -52547,7 +52554,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1">
       <c r="A73" s="2" t="s">
         <v>1396</v>
       </c>
@@ -52584,7 +52591,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" hidden="1">
       <c r="A74" s="2" t="s">
         <v>1403</v>
       </c>
@@ -52621,7 +52628,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" hidden="1">
       <c r="A75" s="2" t="s">
         <v>1413</v>
       </c>
@@ -52658,7 +52665,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" hidden="1">
       <c r="A76" s="2" t="s">
         <v>1414</v>
       </c>
@@ -52695,7 +52702,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77" s="2" t="s">
         <v>1458</v>
       </c>
@@ -52732,7 +52739,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1">
       <c r="A78" s="2" t="s">
         <v>1460</v>
       </c>
@@ -52769,7 +52776,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" hidden="1">
       <c r="A79" s="2" t="s">
         <v>1461</v>
       </c>
@@ -52806,7 +52813,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" hidden="1">
       <c r="A80" s="2" t="s">
         <v>1497</v>
       </c>
@@ -52843,7 +52850,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" hidden="1">
       <c r="A81" s="2" t="s">
         <v>1500</v>
       </c>
@@ -52880,7 +52887,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" hidden="1">
       <c r="A82" s="2" t="s">
         <v>1503</v>
       </c>
@@ -52917,7 +52924,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" hidden="1">
       <c r="A83" s="2" t="s">
         <v>1512</v>
       </c>
@@ -52954,7 +52961,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84" s="2" t="s">
         <v>1513</v>
       </c>
@@ -52991,7 +52998,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" hidden="1">
       <c r="A85" s="2" t="s">
         <v>1514</v>
       </c>
@@ -53028,7 +53035,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" hidden="1">
       <c r="A86" s="2" t="s">
         <v>1515</v>
       </c>
@@ -53065,7 +53072,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" hidden="1">
       <c r="A87" s="2" t="s">
         <v>1516</v>
       </c>
@@ -53102,7 +53109,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" hidden="1">
       <c r="A88" s="2" t="s">
         <v>1517</v>
       </c>
@@ -53139,7 +53146,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" hidden="1">
       <c r="A89" s="2" t="s">
         <v>1518</v>
       </c>
@@ -53176,7 +53183,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" hidden="1">
       <c r="A90" s="2" t="s">
         <v>1519</v>
       </c>
@@ -53213,7 +53220,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" hidden="1">
       <c r="A91" s="2" t="s">
         <v>1520</v>
       </c>
@@ -53250,7 +53257,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" hidden="1">
       <c r="A92" s="2" t="s">
         <v>1521</v>
       </c>
@@ -53287,7 +53294,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" hidden="1">
       <c r="A93" s="2" t="s">
         <v>1504</v>
       </c>
@@ -53324,7 +53331,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" hidden="1">
       <c r="A94" s="2" t="s">
         <v>1522</v>
       </c>
@@ -53361,7 +53368,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" hidden="1">
       <c r="A95" s="2" t="s">
         <v>1523</v>
       </c>
@@ -53398,7 +53405,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" hidden="1">
       <c r="A96" s="2" t="s">
         <v>1524</v>
       </c>
@@ -53435,7 +53442,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" hidden="1">
       <c r="A97" s="2" t="s">
         <v>1525</v>
       </c>
@@ -53472,7 +53479,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" hidden="1">
       <c r="A98" s="2" t="s">
         <v>1505</v>
       </c>
@@ -53509,7 +53516,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" hidden="1">
       <c r="A99" s="2" t="s">
         <v>1506</v>
       </c>
@@ -53546,7 +53553,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" hidden="1">
       <c r="A100" s="2" t="s">
         <v>1507</v>
       </c>
@@ -53583,7 +53590,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" hidden="1">
       <c r="A101" s="2" t="s">
         <v>1508</v>
       </c>
@@ -53620,7 +53627,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" hidden="1">
       <c r="A102" s="2" t="s">
         <v>1509</v>
       </c>
@@ -53657,7 +53664,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" hidden="1">
       <c r="A103" s="2" t="s">
         <v>1510</v>
       </c>
@@ -53694,7 +53701,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" hidden="1">
       <c r="A104" s="2" t="s">
         <v>1511</v>
       </c>
@@ -53731,7 +53738,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" hidden="1">
       <c r="A105" s="2" t="s">
         <v>1526</v>
       </c>
@@ -53768,7 +53775,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" hidden="1">
       <c r="A106" s="2" t="s">
         <v>1527</v>
       </c>
@@ -53805,7 +53812,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" hidden="1">
       <c r="A107" s="2" t="s">
         <v>1535</v>
       </c>
@@ -53842,7 +53849,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" hidden="1">
       <c r="A108" s="2" t="s">
         <v>1536</v>
       </c>
@@ -53879,7 +53886,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" hidden="1">
       <c r="A109" s="2" t="s">
         <v>1537</v>
       </c>
@@ -53916,7 +53923,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" hidden="1">
       <c r="A110" s="2" t="s">
         <v>1553</v>
       </c>
@@ -53953,7 +53960,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" hidden="1">
       <c r="A111" s="2" t="s">
         <v>1566</v>
       </c>
@@ -53990,7 +53997,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" hidden="1">
       <c r="A112" s="2" t="s">
         <v>1567</v>
       </c>
@@ -54027,7 +54034,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" hidden="1">
       <c r="A113" s="2" t="s">
         <v>1569</v>
       </c>
@@ -54064,7 +54071,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" hidden="1">
       <c r="A114" s="2" t="s">
         <v>1587</v>
       </c>
@@ -54136,7 +54143,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" hidden="1">
       <c r="A116" s="2" t="s">
         <v>1211</v>
       </c>
@@ -54167,7 +54174,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" hidden="1">
       <c r="A117" s="2" t="s">
         <v>1212</v>
       </c>
@@ -54198,7 +54205,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" hidden="1">
       <c r="A118" s="2" t="s">
         <v>1213</v>
       </c>
@@ -54229,7 +54236,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" hidden="1">
       <c r="A119" s="2" t="s">
         <v>1214</v>
       </c>
@@ -54260,7 +54267,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" hidden="1">
       <c r="A120" s="2" t="s">
         <v>1590</v>
       </c>
@@ -54297,7 +54304,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" hidden="1">
       <c r="A121" s="2" t="s">
         <v>1605</v>
       </c>
@@ -54334,7 +54341,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" hidden="1">
       <c r="A122" s="2" t="s">
         <v>1613</v>
       </c>
@@ -54371,7 +54378,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" hidden="1">
       <c r="A123" s="2" t="s">
         <v>1616</v>
       </c>
@@ -54408,7 +54415,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" hidden="1">
       <c r="A124" s="2" t="s">
         <v>1618</v>
       </c>
@@ -54445,7 +54452,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" hidden="1">
       <c r="A125" s="2" t="s">
         <v>1649</v>
       </c>
@@ -54482,7 +54489,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" hidden="1">
       <c r="A126" s="2" t="s">
         <v>1650</v>
       </c>
@@ -54519,7 +54526,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" hidden="1">
       <c r="A127" s="2" t="s">
         <v>1651</v>
       </c>
@@ -54556,7 +54563,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" hidden="1">
       <c r="A128" s="2" t="s">
         <v>1224</v>
       </c>
@@ -54587,7 +54594,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" hidden="1">
       <c r="A129" s="2" t="s">
         <v>1225</v>
       </c>
@@ -54618,7 +54625,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" hidden="1">
       <c r="A130" s="2" t="s">
         <v>1226</v>
       </c>
@@ -54649,7 +54656,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" hidden="1">
       <c r="A131" s="2" t="s">
         <v>1149</v>
       </c>
@@ -54686,7 +54693,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" hidden="1">
       <c r="A132" s="2" t="s">
         <v>1150</v>
       </c>
@@ -54723,7 +54730,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" hidden="1">
       <c r="A133" s="2" t="s">
         <v>1151</v>
       </c>
@@ -54760,7 +54767,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" hidden="1">
       <c r="A134" s="2" t="s">
         <v>1216</v>
       </c>
@@ -54797,7 +54804,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" hidden="1">
       <c r="A135" s="2" t="s">
         <v>1217</v>
       </c>
@@ -54834,7 +54841,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" hidden="1">
       <c r="A136" s="2" t="s">
         <v>1218</v>
       </c>
@@ -54871,7 +54878,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" hidden="1">
       <c r="A137" s="2" t="s">
         <v>1219</v>
       </c>
@@ -54908,7 +54915,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" hidden="1">
       <c r="A138" s="2" t="s">
         <v>1220</v>
       </c>
@@ -54945,7 +54952,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" hidden="1">
       <c r="A139" s="2" t="s">
         <v>1221</v>
       </c>
@@ -54982,7 +54989,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" hidden="1">
       <c r="A140" s="2" t="s">
         <v>1222</v>
       </c>
@@ -55019,7 +55026,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" hidden="1">
       <c r="A141" s="2" t="s">
         <v>1223</v>
       </c>
@@ -55056,7 +55063,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" hidden="1">
       <c r="A142" s="2" t="s">
         <v>1147</v>
       </c>
@@ -55093,7 +55100,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" hidden="1">
       <c r="A143" s="2" t="s">
         <v>1254</v>
       </c>
@@ -55130,7 +55137,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" hidden="1">
       <c r="A144" s="2" t="s">
         <v>1263</v>
       </c>
@@ -55167,7 +55174,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" hidden="1">
       <c r="A145" s="2" t="s">
         <v>1264</v>
       </c>
@@ -55204,7 +55211,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" hidden="1">
       <c r="A146" s="2" t="s">
         <v>1265</v>
       </c>
@@ -55241,7 +55248,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" hidden="1">
       <c r="A147" s="2" t="s">
         <v>1255</v>
       </c>
@@ -55278,7 +55285,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" hidden="1">
       <c r="A148" s="2" t="s">
         <v>1256</v>
       </c>
@@ -55315,7 +55322,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" hidden="1">
       <c r="A149" s="2" t="s">
         <v>1257</v>
       </c>
@@ -55352,7 +55359,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" hidden="1">
       <c r="A150" s="2" t="s">
         <v>1258</v>
       </c>
@@ -55389,7 +55396,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" hidden="1">
       <c r="A151" s="2" t="s">
         <v>1259</v>
       </c>
@@ -55426,7 +55433,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" hidden="1">
       <c r="A152" s="2" t="s">
         <v>1260</v>
       </c>
@@ -55463,7 +55470,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" hidden="1">
       <c r="A153" s="2" t="s">
         <v>1261</v>
       </c>
@@ -55500,7 +55507,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" hidden="1">
       <c r="A154" s="2" t="s">
         <v>1262</v>
       </c>
@@ -55537,7 +55544,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" hidden="1">
       <c r="A155" s="2" t="s">
         <v>1266</v>
       </c>
@@ -55574,7 +55581,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" hidden="1">
       <c r="A156" s="2" t="s">
         <v>1267</v>
       </c>
@@ -55611,7 +55618,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" hidden="1">
       <c r="A157" s="2" t="s">
         <v>1138</v>
       </c>
@@ -55648,7 +55655,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" hidden="1">
       <c r="A158" s="2" t="s">
         <v>1142</v>
       </c>
@@ -55685,7 +55692,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" hidden="1">
       <c r="A159" s="2" t="s">
         <v>1282</v>
       </c>
@@ -55722,7 +55729,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" hidden="1">
       <c r="A160" s="2" t="s">
         <v>1283</v>
       </c>
@@ -55759,7 +55766,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" hidden="1">
       <c r="A161" s="2" t="s">
         <v>1290</v>
       </c>
@@ -55796,7 +55803,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" hidden="1">
       <c r="A162" s="2" t="s">
         <v>1661</v>
       </c>
@@ -55833,7 +55840,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" hidden="1">
       <c r="A163" s="2" t="s">
         <v>1670</v>
       </c>
@@ -55864,7 +55871,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" hidden="1">
       <c r="A164" s="2" t="s">
         <v>1675</v>
       </c>
@@ -55898,7 +55905,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" hidden="1">
       <c r="A165" s="2" t="s">
         <v>1677</v>
       </c>
@@ -55929,7 +55936,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" hidden="1">
       <c r="A166" s="2" t="s">
         <v>1676</v>
       </c>
@@ -55960,7 +55967,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" hidden="1">
       <c r="A167" s="2" t="s">
         <v>1678</v>
       </c>
@@ -55991,7 +55998,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" hidden="1">
       <c r="A168" s="2" t="s">
         <v>1679</v>
       </c>
@@ -56022,7 +56029,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" hidden="1">
       <c r="A169" s="2" t="s">
         <v>1662</v>
       </c>
@@ -56059,7 +56066,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" hidden="1">
       <c r="A170" s="2" t="s">
         <v>1663</v>
       </c>
@@ -56096,7 +56103,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" hidden="1">
       <c r="A171" s="2" t="s">
         <v>1664</v>
       </c>
@@ -56133,7 +56140,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" hidden="1">
       <c r="A172" s="2" t="s">
         <v>1665</v>
       </c>
@@ -56170,7 +56177,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" hidden="1">
       <c r="A173" s="2" t="s">
         <v>1666</v>
       </c>
@@ -56207,7 +56214,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" hidden="1">
       <c r="A174" s="2" t="s">
         <v>1667</v>
       </c>
@@ -56244,7 +56251,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" hidden="1">
       <c r="A175" s="2" t="s">
         <v>1668</v>
       </c>
@@ -56281,7 +56288,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" hidden="1">
       <c r="A176" s="2" t="s">
         <v>1669</v>
       </c>
@@ -56318,7 +56325,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" hidden="1">
       <c r="A177" s="2" t="s">
         <v>1303</v>
       </c>
@@ -56355,7 +56362,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" hidden="1">
       <c r="A178" s="2" t="s">
         <v>1319</v>
       </c>
@@ -56389,7 +56396,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" hidden="1">
       <c r="A179" s="2" t="s">
         <v>1322</v>
       </c>
@@ -56420,7 +56427,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" hidden="1">
       <c r="C180" s="2" t="e">
         <f>VLOOKUP(A180,Outcomes!$B$2:$E$546,4,FALSE)</f>
         <v>#N/A</v>
@@ -56431,6 +56438,13 @@
       <c r="D181"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N180" xr:uid="{8C8FDD43-BC49-47B7-8864-F870ACEF98BE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="14670-2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
